--- a/on_trucks/Processed_Stand_Alone/18_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/18_245-70R19.xlsx
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>114</v>
       </c>
       <c r="E3">
-        <v>0.01178297709939351</v>
+        <v>0.0114076026235576</v>
       </c>
       <c r="F3">
         <v>0.5025094734356841</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>110</v>
       </c>
       <c r="E4">
-        <v>0.006937883120314777</v>
+        <v>0.006828511684220052</v>
       </c>
       <c r="F4">
         <v>0.5074413547546999</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>115</v>
       </c>
       <c r="E5">
-        <v>0.009655674870830541</v>
+        <v>0.009508569443508377</v>
       </c>
       <c r="F5">
         <v>0.5043526798327392</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>105</v>
       </c>
       <c r="E6">
-        <v>0.007560736584769065</v>
+        <v>0.007298023573746253</v>
       </c>
       <c r="F6">
         <v>0.5004769102488232</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>142</v>
       </c>
       <c r="E3">
-        <v>0.01178297709939351</v>
+        <v>0.0114076026235576</v>
       </c>
       <c r="F3">
         <v>0.7214930759024631</v>
       </c>
       <c r="G3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>141</v>
       </c>
       <c r="E4">
-        <v>0.006937883120314777</v>
+        <v>0.006828511684220052</v>
       </c>
       <c r="F4">
         <v>0.7043132651378606</v>
       </c>
       <c r="G4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>143</v>
       </c>
       <c r="E5">
-        <v>0.009655674870830541</v>
+        <v>0.009508569443508377</v>
       </c>
       <c r="F5">
         <v>0.7170795993892065</v>
       </c>
       <c r="G5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>134</v>
       </c>
       <c r="E6">
-        <v>0.007560736584769065</v>
+        <v>0.007298023573746253</v>
       </c>
       <c r="F6">
         <v>0.7034954694752286</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>151</v>
       </c>
       <c r="E3">
-        <v>0.01178297709939351</v>
+        <v>0.0114076026235576</v>
       </c>
       <c r="F3">
         <v>0.8082818511397011</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.006937883120314777</v>
+        <v>0.006828511684220052</v>
       </c>
       <c r="F4">
         <v>0.8049023724694888</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>151</v>
       </c>
       <c r="E5">
-        <v>0.009655674870830541</v>
+        <v>0.009508569443508377</v>
       </c>
       <c r="F5">
         <v>0.8034242510470055</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>144</v>
       </c>
       <c r="E6">
-        <v>0.007560736584769065</v>
+        <v>0.007298023573746253</v>
       </c>
       <c r="F6">
         <v>0.8041606194871449</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>165</v>
       </c>
       <c r="E3">
-        <v>0.01178297709939351</v>
+        <v>0.0114076026235576</v>
       </c>
       <c r="F3">
         <v>0.9014576415060866</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>165</v>
       </c>
       <c r="E4">
-        <v>0.006937883120314777</v>
+        <v>0.006828511684220052</v>
       </c>
       <c r="F4">
         <v>0.9014033569556844</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>164</v>
       </c>
       <c r="E5">
-        <v>0.009655674870830541</v>
+        <v>0.009508569443508377</v>
       </c>
       <c r="F5">
         <v>0.915932965594119</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>163</v>
       </c>
       <c r="E6">
-        <v>0.007560736584769065</v>
+        <v>0.007298023573746253</v>
       </c>
       <c r="F6">
         <v>0.9092847398464212</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>18</v>

--- a/on_trucks/Processed_Stand_Alone/18_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/18_245-70R19.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.737572284463269E-05</v>
+        <v>7.963256557315636E-06</v>
       </c>
       <c r="C2">
-        <v>5.233423470298395E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.950158383256765E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>8.459887551987023E-05</v>
+        <v>6.53912669617374E-05</v>
       </c>
       <c r="F2">
-        <v>0.0001967296588834868</v>
+        <v>0.0001779234762618431</v>
       </c>
       <c r="G2">
-        <v>0.0002631112285067469</v>
+        <v>0.0002445426905617236</v>
       </c>
       <c r="H2">
-        <v>0.0001957049188893025</v>
+        <v>0.000176895067719206</v>
       </c>
       <c r="I2">
-        <v>0.0002684781784762875</v>
+        <v>0.0002499288541036034</v>
       </c>
       <c r="J2">
-        <v>0.0004346306675333109</v>
+        <v>0.0004166761657108576</v>
       </c>
       <c r="K2">
-        <v>0.0005530952968609805</v>
+        <v>0.0005355648960154596</v>
       </c>
       <c r="L2">
-        <v>0.000490459097216464</v>
+        <v>0.0004727044600430928</v>
       </c>
       <c r="M2">
-        <v>0.0003506736980097977</v>
+        <v>0.0003324186319345604</v>
       </c>
       <c r="N2">
-        <v>0.0002775435284248383</v>
+        <v>0.0002590266578216146</v>
       </c>
       <c r="O2">
-        <v>0.0001680984590459794</v>
+        <v>0.0001491897773080109</v>
       </c>
       <c r="P2">
-        <v>6.326801964093071E-05</v>
+        <v>4.398404705018827E-05</v>
       </c>
       <c r="Q2">
-        <v>2.473100685964243E-05</v>
+        <v>5.309072542591023E-06</v>
       </c>
       <c r="R2">
-        <v>7.719279956190244E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.738061790135859E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1.944087288966589E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4.630839173718282E-05</v>
+        <v>2.696370402156972E-05</v>
       </c>
       <c r="V2">
-        <v>6.866489961030142E-05</v>
+        <v>4.940024774069226E-05</v>
       </c>
       <c r="W2">
-        <v>0.0001164674593390043</v>
+        <v>9.737393966637129E-05</v>
       </c>
       <c r="X2">
-        <v>0.0001286109292700856</v>
+        <v>0.0001095608829741926</v>
       </c>
       <c r="Y2">
-        <v>0.0001216557093095591</v>
+        <v>0.0001025807634668833</v>
       </c>
       <c r="Z2">
-        <v>0.000183205558960241</v>
+        <v>0.00016435096033441</v>
       </c>
       <c r="AA2">
-        <v>0.0002538028585595753</v>
+        <v>0.0002352009968384119</v>
       </c>
       <c r="AB2">
-        <v>0.0002260522887170701</v>
+        <v>0.0002073510805171523</v>
       </c>
       <c r="AC2">
-        <v>0.0002462839186022481</v>
+        <v>0.0002276551392281151</v>
       </c>
       <c r="AD2">
-        <v>0.0002211298387450067</v>
+        <v>0.0002024110082737503</v>
       </c>
       <c r="AE2">
-        <v>0.000101950029421396</v>
+        <v>8.280453764328695E-05</v>
       </c>
       <c r="AF2">
-        <v>5.625008568076005E-05</v>
+        <v>3.694098902838465E-05</v>
       </c>
       <c r="AG2">
-        <v>2.873178283693655E-05</v>
+        <v>9.324171216964332E-06</v>
       </c>
       <c r="AH2">
-        <v>7.040773660041018E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>6.454665663367396E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.957496688890486E-05</v>
+        <v>1.345740530440633E-07</v>
       </c>
       <c r="AK2">
-        <v>1.000093894324099E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>5.1375874708423E-05</v>
+        <v>3.204932847935223E-05</v>
       </c>
       <c r="AM2">
-        <v>0.0001219907853076574</v>
+        <v>0.0001029170390302776</v>
       </c>
       <c r="AN2">
-        <v>0.0001816394489691292</v>
+        <v>0.0001627792437012061</v>
       </c>
       <c r="AO2">
-        <v>0.0002986488683050577</v>
+        <v>0.0002802075543917294</v>
       </c>
       <c r="AP2">
-        <v>0.0002666831984864746</v>
+        <v>0.0002481274481217322</v>
       </c>
       <c r="AQ2">
-        <v>0.0002370892586544312</v>
+        <v>0.0002184275625836558</v>
       </c>
       <c r="AR2">
-        <v>0.0002113570688004708</v>
+        <v>0.0001926032520104765</v>
       </c>
       <c r="AS2">
-        <v>0.0001772297789941557</v>
+        <v>0.000158353787196912</v>
       </c>
       <c r="AT2">
-        <v>0.000188104628932437</v>
+        <v>0.000169267568878018</v>
       </c>
       <c r="AU2">
-        <v>0.0001514592591404129</v>
+        <v>0.0001324910094033263</v>
       </c>
       <c r="AV2">
-        <v>7.417549957902672E-05</v>
+        <v>5.493057554584843E-05</v>
       </c>
       <c r="AW2">
-        <v>2.830789983934224E-05</v>
+        <v>8.898770726812075E-06</v>
       </c>
       <c r="AX2">
-        <v>1.121908793632754E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>1.167696293372894E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1.81720548968669E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>4.217353976064964E-05</v>
+        <v>2.281404935859189E-05</v>
       </c>
       <c r="BB2">
-        <v>3.072587782561933E-05</v>
+        <v>1.132540502537411E-05</v>
       </c>
       <c r="BC2">
-        <v>4.781391472863843E-05</v>
+        <v>2.847461675488409E-05</v>
       </c>
       <c r="BD2">
-        <v>3.710953778938971E-05</v>
+        <v>1.773191836269914E-05</v>
       </c>
       <c r="BE2">
-        <v>6.927243460685342E-05</v>
+        <v>5.000995770024394E-05</v>
       </c>
       <c r="BF2">
-        <v>0.0001164674593390043</v>
+        <v>9.737393966637129E-05</v>
       </c>
       <c r="BG2">
-        <v>0.0001700818790347227</v>
+        <v>0.0001511802979001973</v>
       </c>
       <c r="BH2">
-        <v>0.0001639369990695972</v>
+        <v>0.0001450134193890827</v>
       </c>
       <c r="BI2">
-        <v>0.0001560719791142341</v>
+        <v>0.000137120242821357</v>
       </c>
       <c r="BJ2">
-        <v>0.0001125534243612179</v>
+        <v>9.344589252252951E-05</v>
       </c>
       <c r="BK2">
-        <v>0.0001133308793568055</v>
+        <v>9.422613079127659E-05</v>
       </c>
       <c r="BL2">
-        <v>9.938112543597552E-05</v>
+        <v>8.022643703355716E-05</v>
       </c>
       <c r="BM2">
-        <v>3.755652478685289E-05</v>
+        <v>1.81805055645725E-05</v>
       </c>
       <c r="BN2">
-        <v>6.377762963803847E-06</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>3.18335818193327E-09</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1.978780088769694E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>4.114868676646605E-06</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>2.436853886169957E-05</v>
+        <v>4.945306916546791E-06</v>
       </c>
       <c r="BS2">
-        <v>7.167669459320837E-05</v>
+        <v>5.242282488872158E-05</v>
       </c>
       <c r="BT2">
-        <v>0.0001022567794196551</v>
+        <v>8.311238580033549E-05</v>
       </c>
       <c r="BU2">
-        <v>0.0002134894987883685</v>
+        <v>0.0001947433160546004</v>
       </c>
       <c r="BV2">
-        <v>0.0003069229382580993</v>
+        <v>0.000288511245347852</v>
       </c>
       <c r="BW2">
-        <v>0.0003778961978552999</v>
+        <v>0.0003597385877789084</v>
       </c>
       <c r="BX2">
-        <v>0.0003673055979154055</v>
+        <v>0.0003491100737054341</v>
       </c>
       <c r="BY2">
-        <v>0.0003673055979154055</v>
+        <v>0.0003491100737054341</v>
       </c>
       <c r="BZ2">
-        <v>0.0003687089979074407</v>
+        <v>0.0003505184978410557</v>
       </c>
       <c r="CA2">
-        <v>0.0001523609091352958</v>
+        <v>0.000133395887286954</v>
       </c>
       <c r="CB2">
-        <v>0.0001144355333505362</v>
+        <v>9.533473942396216E-05</v>
       </c>
       <c r="CC2">
-        <v>0.0001015183594238459</v>
+        <v>8.237132227587655E-05</v>
       </c>
       <c r="CD2">
-        <v>3.93322147767752E-05</v>
+        <v>1.99625524887437E-05</v>
       </c>
       <c r="CE2">
-        <v>1.453261991752203E-06</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>2.039438588425435E-06</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.208567993140932E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>4.531809474280313E-05</v>
+        <v>2.596986178397985E-05</v>
       </c>
       <c r="CI2">
-        <v>9.938112543597552E-05</v>
+        <v>8.022643703355716E-05</v>
       </c>
       <c r="CJ2">
-        <v>0.0001501879991476278</v>
+        <v>0.0001312151983254794</v>
       </c>
       <c r="CK2">
-        <v>0.0002491624285859115</v>
+        <v>0.0002305439542192994</v>
       </c>
       <c r="CL2">
-        <v>0.0003186770181913906</v>
+        <v>0.0003003074046495669</v>
       </c>
       <c r="CM2">
-        <v>0.0003851621978140627</v>
+        <v>0.0003670305998705617</v>
       </c>
       <c r="CN2">
-        <v>0.05498110468796199</v>
+        <v>0.05515842545987793</v>
       </c>
       <c r="CO2">
-        <v>0.005030046671452633</v>
+        <v>0.005028543665977516</v>
       </c>
       <c r="CP2">
-        <v>0.1849403389503955</v>
+        <v>0.1855829111524208</v>
       </c>
       <c r="CQ2">
-        <v>0.06777906361532886</v>
+        <v>0.06800220082135378</v>
       </c>
       <c r="CR2">
-        <v>0.0005309552669866334</v>
+        <v>0.0005133456052819656</v>
       </c>
       <c r="CS2">
-        <v>0.01183792993281539</v>
+        <v>0.01186079901171998</v>
       </c>
       <c r="CT2">
-        <v>0.01595210090946595</v>
+        <v>0.01598969863725391</v>
       </c>
       <c r="CU2">
-        <v>0.03766716578622497</v>
+        <v>0.03778250300706371</v>
       </c>
       <c r="CV2">
-        <v>0.01177366443318012</v>
+        <v>0.01179630344289585</v>
       </c>
       <c r="CW2">
-        <v>0.03612156579499681</v>
+        <v>0.0362313697991282</v>
       </c>
       <c r="CX2">
-        <v>0.002129311187915375</v>
+        <v>0.002117423608079351</v>
       </c>
       <c r="CY2">
-        <v>0.0006888594960904687</v>
+        <v>0.0006718151283322283</v>
       </c>
       <c r="CZ2">
-        <v>0.002707160484635868</v>
+        <v>0.002697341593594547</v>
       </c>
       <c r="DA2">
-        <v>0.008064053954233524</v>
+        <v>0.008073412633465055</v>
       </c>
       <c r="DB2">
-        <v>9.770927944546386E-06</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.01531187991309944</v>
+        <v>0.01534718566266949</v>
       </c>
       <c r="DD2">
-        <v>0.0002715857384586509</v>
+        <v>0.0002530475390878503</v>
       </c>
       <c r="DE2">
-        <v>0.003574602979712812</v>
+        <v>0.00356788951525901</v>
       </c>
       <c r="DF2">
-        <v>0.0004979153971741468</v>
+        <v>0.0004801874534038133</v>
       </c>
       <c r="DG2">
-        <v>0.004244083975913261</v>
+        <v>0.004239767239884962</v>
       </c>
       <c r="DH2">
-        <v>0.005022707371494286</v>
+        <v>0.005021178091473763</v>
       </c>
       <c r="DI2">
-        <v>0.002035839988445859</v>
+        <v>0.002023617783606279</v>
       </c>
       <c r="DJ2">
-        <v>3.048911582696304E-05</v>
+        <v>1.108779542355137E-05</v>
       </c>
       <c r="DK2">
-        <v>0.01464933191685965</v>
+        <v>0.01468226575800382</v>
       </c>
       <c r="DL2">
-        <v>0.003482976180232828</v>
+        <v>0.003475934693690128</v>
       </c>
       <c r="DM2">
-        <v>0.002813175784034192</v>
+        <v>0.002803736425620456</v>
       </c>
       <c r="DN2">
-        <v>0.0002973859683122252</v>
+        <v>0.000278940133242466</v>
       </c>
       <c r="DO2">
-        <v>0.004716446973232427</v>
+        <v>0.004713821287180536</v>
       </c>
       <c r="DP2">
-        <v>0.0003815812478343859</v>
+        <v>0.0003634368301623858</v>
       </c>
       <c r="DQ2">
-        <v>0.004298660975603516</v>
+        <v>0.004294539624130236</v>
       </c>
       <c r="DR2">
-        <v>1.936303989010762E-06</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001381208192161135</v>
+        <v>0.001366642418731411</v>
       </c>
       <c r="DT2">
-        <v>0.005295472969946241</v>
+        <v>0.00529492018525123</v>
       </c>
       <c r="DU2">
-        <v>0.006124106665243439</v>
+        <v>0.006126520372417681</v>
       </c>
       <c r="DV2">
-        <v>0.001520250591372018</v>
+        <v>0.001506182586919204</v>
       </c>
       <c r="DW2">
-        <v>0.01223856093054166</v>
+        <v>0.01226286426031497</v>
       </c>
       <c r="DX2">
-        <v>0.002299389986950115</v>
+        <v>0.002288111285774629</v>
       </c>
       <c r="DY2">
-        <v>0.00694318996059484</v>
+        <v>0.006948535969399696</v>
       </c>
       <c r="DZ2">
-        <v>0.002832279283925772</v>
+        <v>0.002822908315655262</v>
       </c>
       <c r="EA2">
-        <v>0.0003562921979779106</v>
+        <v>0.0003380572460189195</v>
       </c>
       <c r="EB2">
-        <v>0.04735900473122021</v>
+        <v>0.0475090385394553</v>
       </c>
       <c r="EC2">
-        <v>0.01802094689772449</v>
+        <v>0.01806595105230601</v>
       </c>
       <c r="ED2">
-        <v>0.00760756295682428</v>
+        <v>0.007615287407518055</v>
       </c>
       <c r="EE2">
-        <v>0.009818994944273589</v>
+        <v>0.009834636276754101</v>
       </c>
       <c r="EF2">
-        <v>6.89167096088723E-05</v>
+        <v>4.965295921396493E-05</v>
       </c>
       <c r="EG2">
-        <v>0.0003687089979074407</v>
+        <v>0.0003505184978410557</v>
       </c>
       <c r="EH2">
-        <v>0.004461256274680728</v>
+        <v>0.004457717011089499</v>
       </c>
       <c r="EI2">
-        <v>0.004835251272558169</v>
+        <v>0.004833050903494934</v>
       </c>
       <c r="EJ2">
-        <v>0.0005890780966567649</v>
+        <v>0.0005716765135067262</v>
       </c>
       <c r="EK2">
-        <v>0.00358079497967767</v>
+        <v>0.003574103682458504</v>
       </c>
       <c r="EL2">
-        <v>0.02910969783479175</v>
+        <v>0.02919439949344735</v>
       </c>
       <c r="EM2">
-        <v>0.04889829972248414</v>
+        <v>0.04905384417565424</v>
       </c>
       <c r="EN2">
-        <v>0.02359509986608912</v>
+        <v>0.0236600593755548</v>
       </c>
       <c r="EO2">
-        <v>0.01434982991855943</v>
+        <v>0.0143816915486074</v>
       </c>
       <c r="EP2">
-        <v>0.02024534288510023</v>
+        <v>0.02029831033232601</v>
       </c>
       <c r="EQ2">
-        <v>0.003197647181852175</v>
+        <v>0.003189584223266325</v>
       </c>
       <c r="ER2">
-        <v>0.00202265818852067</v>
+        <v>0.002010388793103972</v>
       </c>
       <c r="ES2">
-        <v>0.001766475389974602</v>
+        <v>0.001753288865320652</v>
       </c>
       <c r="ET2">
-        <v>0.0007476651957567247</v>
+        <v>0.0007308313512138878</v>
       </c>
       <c r="EU2">
-        <v>0.006873266260991683</v>
+        <v>0.006878361944366232</v>
       </c>
       <c r="EV2">
-        <v>0.01969829388820493</v>
+        <v>0.01974930291108642</v>
       </c>
       <c r="EW2">
-        <v>0.02208707087464774</v>
+        <v>0.02214663167082539</v>
       </c>
       <c r="EX2">
-        <v>0.01652619990620773</v>
+        <v>0.01656585289679232</v>
       </c>
       <c r="EY2">
-        <v>0.00621942196470249</v>
+        <v>0.006222176898720952</v>
       </c>
       <c r="EZ2">
-        <v>0.004466143974652989</v>
+        <v>0.004462622208928803</v>
       </c>
       <c r="FA2">
-        <v>1.588362790985456E-05</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.00143865729183509</v>
+        <v>0.001424297185020236</v>
       </c>
       <c r="FC2">
-        <v>0.0002981244783080338</v>
+        <v>0.0002796812870891226</v>
       </c>
       <c r="FD2">
-        <v>5.592957668257906E-05</v>
+        <v>3.661933261447278E-05</v>
       </c>
       <c r="FE2">
-        <v>0.002288878187009773</v>
+        <v>0.002277561853803112</v>
       </c>
       <c r="FF2">
-        <v>0.001547468991217544</v>
+        <v>0.001533498428085658</v>
       </c>
       <c r="FG2">
-        <v>0.008587418951263236</v>
+        <v>0.008598651266598575</v>
       </c>
       <c r="FH2">
-        <v>0.01649719990637232</v>
+        <v>0.01653674907754404</v>
       </c>
       <c r="FI2">
-        <v>0.008109545953975341</v>
+        <v>0.00811906749364583</v>
       </c>
       <c r="FJ2">
-        <v>0.002597902685255946</v>
+        <v>0.002587692653502689</v>
       </c>
       <c r="FK2">
-        <v>0.008053645454292596</v>
+        <v>0.008062966871304863</v>
       </c>
       <c r="FL2">
-        <v>0.0006424637363537818</v>
+        <v>0.0006252532727140827</v>
       </c>
       <c r="FM2">
-        <v>0.008044357954345306</v>
+        <v>0.008053646122295609</v>
       </c>
       <c r="FN2">
-        <v>0.006300454964242599</v>
+        <v>0.006303499994760444</v>
       </c>
       <c r="FO2">
-        <v>0.008628719951028837</v>
+        <v>0.008640100123107985</v>
       </c>
       <c r="FP2">
-        <v>0.01206987993149899</v>
+        <v>0.01209357938670746</v>
       </c>
       <c r="FQ2">
-        <v>0.003181471981943975</v>
+        <v>0.003173351116469613</v>
       </c>
       <c r="FR2">
-        <v>0.00297451018311856</v>
+        <v>0.002965648398590403</v>
       </c>
       <c r="FS2">
-        <v>0.001856766589462166</v>
+        <v>0.001843903305476155</v>
       </c>
       <c r="FT2">
-        <v>0.001446993591787778</v>
+        <v>0.001432663328758145</v>
       </c>
       <c r="FU2">
-        <v>0.001299305392625964</v>
+        <v>0.001284446408830467</v>
       </c>
       <c r="FV2">
-        <v>6.710681961914408E-05</v>
+        <v>4.783658985468024E-05</v>
       </c>
       <c r="FW2">
-        <v>0.0004593753473928758</v>
+        <v>0.0004415094310238348</v>
       </c>
       <c r="FX2">
-        <v>0.001915269889130138</v>
+        <v>0.001902616045773654</v>
       </c>
       <c r="FY2">
-        <v>0.0007545119957178667</v>
+        <v>0.0007377026625804076</v>
       </c>
       <c r="FZ2">
-        <v>0.001012584994253208</v>
+        <v>0.0009966995572307309</v>
       </c>
       <c r="GA2">
-        <v>0.003491615980183794</v>
+        <v>0.00348460542395017</v>
       </c>
       <c r="GB2">
-        <v>0.002768403984288288</v>
+        <v>0.002758804343737015</v>
       </c>
       <c r="GC2">
-        <v>0.002566305485435271</v>
+        <v>0.00255598233634574</v>
       </c>
       <c r="GD2">
-        <v>0.0006249689964530708</v>
+        <v>0.0006076959019983751</v>
       </c>
       <c r="GE2">
-        <v>8.359045952559336E-06</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>2.055800888332573E-05</v>
+        <v>1.121135317921997E-06</v>
       </c>
       <c r="GG2">
-        <v>0.0003836060578228944</v>
+        <v>0.0003654688889296994</v>
       </c>
       <c r="GH2">
-        <v>6.635734962339761E-08</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>5.06535057125227E-07</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.001158531393424908</v>
+        <v>0.00114316844155956</v>
       </c>
       <c r="GK2">
-        <v>0.003008520482925539</v>
+        <v>0.0029997804545828</v>
       </c>
       <c r="GL2">
-        <v>0.001038554094105823</v>
+        <v>0.001022761625935569</v>
       </c>
       <c r="GM2">
-        <v>0.00217342198766503</v>
+        <v>0.002161692323599927</v>
       </c>
       <c r="GN2">
-        <v>0.001870979089381505</v>
+        <v>0.001858166685857744</v>
       </c>
       <c r="GO2">
-        <v>0.0003618370679464414</v>
+        <v>0.0003436219665097874</v>
       </c>
       <c r="GP2">
-        <v>0.00380791677838867</v>
+        <v>0.003802038572615133</v>
       </c>
       <c r="GQ2">
-        <v>0.004792108972803018</v>
+        <v>0.004789754155179253</v>
       </c>
       <c r="GR2">
-        <v>0.002007879788604543</v>
+        <v>0.001995557486815053</v>
       </c>
       <c r="GS2">
-        <v>5.707609267607216E-05</v>
+        <v>3.77699531120332E-05</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.06204392165959E-05</v>
+        <v>6.843120562873279E-05</v>
       </c>
       <c r="C3">
-        <v>9.33176689648118E-05</v>
+        <v>9.113829624179273E-05</v>
       </c>
       <c r="D3">
-        <v>2.611898871025778E-05</v>
+        <v>2.39104213625625E-05</v>
       </c>
       <c r="E3">
-        <v>4.391913951279778E-05</v>
+        <v>4.171830548248153E-05</v>
       </c>
       <c r="F3">
-        <v>5.04633934402013E-05</v>
+        <v>4.826540257639477E-05</v>
       </c>
       <c r="G3">
-        <v>0.0002156829276073939</v>
+        <v>0.0002135567167587739</v>
       </c>
       <c r="H3">
-        <v>0.0003902804156705554</v>
+        <v>0.0003882300591112474</v>
       </c>
       <c r="I3">
-        <v>0.0002321042574252294</v>
+        <v>0.0002299851808619689</v>
       </c>
       <c r="J3">
-        <v>0.0001659154481594727</v>
+        <v>0.0001637676157123621</v>
       </c>
       <c r="K3">
-        <v>0.00028400824684945</v>
+        <v>0.000281911720096464</v>
       </c>
       <c r="L3">
-        <v>0.0001933836478547635</v>
+        <v>0.0001912477490316109</v>
       </c>
       <c r="M3">
-        <v>9.4510818951576E-06</v>
+        <v>7.235273136146485E-06</v>
       </c>
       <c r="N3">
-        <v>4.747245347338029E-06</v>
+        <v>2.529392995476108E-06</v>
       </c>
       <c r="O3">
-        <v>6.574129427072105E-07</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.466908983727338E-06</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.218950775384815E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.638458926358486E-05</v>
+        <v>6.419351540074767E-05</v>
       </c>
       <c r="S3">
-        <v>5.951188333982492E-05</v>
+        <v>5.731782361373575E-05</v>
       </c>
       <c r="T3">
-        <v>7.305108618963233E-06</v>
+        <v>5.088367536815319E-06</v>
       </c>
       <c r="U3">
-        <v>0.0001227559986382476</v>
+        <v>0.0001205894154667889</v>
       </c>
       <c r="V3">
-        <v>0.0001804637979980855</v>
+        <v>0.0001783222861157775</v>
       </c>
       <c r="W3">
-        <v>2.191587175688364E-05</v>
+        <v>1.970547835514297E-05</v>
       </c>
       <c r="X3">
-        <v>8.735543903095179E-05</v>
+        <v>8.517347600311584E-05</v>
       </c>
       <c r="Y3">
-        <v>0.000305972316605799</v>
+        <v>0.0003038853321945743</v>
       </c>
       <c r="Z3">
-        <v>0.0003864550957129903</v>
+        <v>0.0003844030772344302</v>
       </c>
       <c r="AA3">
-        <v>0.0005707395536686926</v>
+        <v>0.0005687675980062964</v>
       </c>
       <c r="AB3">
-        <v>0.000839490790687391</v>
+        <v>0.0008376355946319737</v>
       </c>
       <c r="AC3">
-        <v>0.0001557620582721059</v>
+        <v>0.0001536098146608798</v>
       </c>
       <c r="AD3">
-        <v>2.978209666962232E-05</v>
+        <v>2.757512076779498E-05</v>
       </c>
       <c r="AE3">
-        <v>2.038612377385339E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.838027068517301E-05</v>
+        <v>2.617268575674987E-05</v>
       </c>
       <c r="AG3">
-        <v>0.0001874052779210825</v>
+        <v>0.0001852667817810522</v>
       </c>
       <c r="AH3">
-        <v>8.999927900162324E-05</v>
+        <v>8.781846459628038E-05</v>
       </c>
       <c r="AI3">
-        <v>3.010708266601719E-06</v>
+        <v>7.921014721210394E-07</v>
       </c>
       <c r="AJ3">
-        <v>5.43375993972241E-08</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>6.352596329529607E-05</v>
+        <v>6.133364749568397E-05</v>
       </c>
       <c r="AL3">
-        <v>5.529320238662345E-05</v>
+        <v>5.309730984467255E-05</v>
       </c>
       <c r="AM3">
-        <v>0.0001210720136569283</v>
+        <v>0.0001189046988742341</v>
       </c>
       <c r="AN3">
-        <v>0.0002445896372867271</v>
+        <v>0.0002424759850261108</v>
       </c>
       <c r="AO3">
-        <v>0.0002733997969671312</v>
+        <v>0.0002712986613481447</v>
       </c>
       <c r="AP3">
-        <v>7.159474520578776E-05</v>
+        <v>6.940593490745305E-05</v>
       </c>
       <c r="AQ3">
-        <v>0.0001357968884935829</v>
+        <v>0.0001336359709673918</v>
       </c>
       <c r="AR3">
-        <v>0.0002246833975075502</v>
+        <v>0.0002225610969342459</v>
       </c>
       <c r="AS3">
-        <v>2.978209666962232E-05</v>
+        <v>2.757512076779498E-05</v>
       </c>
       <c r="AT3">
-        <v>6.947935922925408E-05</v>
+        <v>6.728962989650683E-05</v>
       </c>
       <c r="AU3">
-        <v>8.863759901672858E-06</v>
+        <v>6.647695979240395E-06</v>
       </c>
       <c r="AV3">
-        <v>6.653595326190576E-08</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>9.200527897937036E-05</v>
+        <v>8.982533608543561E-05</v>
       </c>
       <c r="AX3">
-        <v>0.0002451682472803085</v>
+        <v>0.0002430548463981647</v>
       </c>
       <c r="AY3">
-        <v>1.904188478876525E-05</v>
+        <v>1.683024277662716E-05</v>
       </c>
       <c r="AZ3">
-        <v>3.71711895876539E-05</v>
+        <v>3.496742389462267E-05</v>
       </c>
       <c r="BA3">
-        <v>7.620730615461986E-06</v>
+        <v>5.404126656032739E-06</v>
       </c>
       <c r="BB3">
-        <v>3.647009659543124E-05</v>
+        <v>3.426602631090069E-05</v>
       </c>
       <c r="BC3">
-        <v>6.875892923724593E-05</v>
+        <v>6.656888691199433E-05</v>
       </c>
       <c r="BD3">
-        <v>0.0001037156188494656</v>
+        <v>0.0001015407635402281</v>
       </c>
       <c r="BE3">
-        <v>0.0001221167586453388</v>
+        <v>0.0001199498977545619</v>
       </c>
       <c r="BF3">
-        <v>0.0002145306176201767</v>
+        <v>0.0002124039061477727</v>
       </c>
       <c r="BG3">
-        <v>0.0002291564274579302</v>
+        <v>0.0002270360702030076</v>
       </c>
       <c r="BH3">
-        <v>0.0002949574767279884</v>
+        <v>0.0002928657068936738</v>
       </c>
       <c r="BI3">
-        <v>0.0001413321284321795</v>
+        <v>0.0001391736157039977</v>
       </c>
       <c r="BJ3">
-        <v>4.768739647099589E-05</v>
+        <v>4.548819956877742E-05</v>
       </c>
       <c r="BK3">
-        <v>1.770882880355306E-06</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>2.586569771306758E-05</v>
+        <v>2.365702032250287E-05</v>
       </c>
       <c r="BM3">
-        <v>5.464777939378322E-06</v>
+        <v>3.247237321238526E-06</v>
       </c>
       <c r="BN3">
-        <v>3.186660964649848E-05</v>
+        <v>2.966053936623635E-05</v>
       </c>
       <c r="BO3">
-        <v>1.430314984133281E-05</v>
+        <v>1.208944907465214E-05</v>
       </c>
       <c r="BP3">
-        <v>0.0001176010886954318</v>
+        <v>0.0001154322659612251</v>
       </c>
       <c r="BQ3">
-        <v>0.0003170450464829673</v>
+        <v>0.0003149628726452789</v>
       </c>
       <c r="BR3">
-        <v>0.0002135670676308655</v>
+        <v>0.0002114399375419026</v>
       </c>
       <c r="BS3">
-        <v>9.528112894303081E-05</v>
+        <v>9.3102609249817E-05</v>
       </c>
       <c r="BT3">
-        <v>0.0001429575984141479</v>
+        <v>0.0001407997918752226</v>
       </c>
       <c r="BU3">
-        <v>0.0002093666576774613</v>
+        <v>0.0002072377027105155</v>
       </c>
       <c r="BV3">
-        <v>0.0002796439968978633</v>
+        <v>0.0002775455740862219</v>
       </c>
       <c r="BW3">
-        <v>0.0001357968884935829</v>
+        <v>0.0001336359709673918</v>
       </c>
       <c r="BX3">
-        <v>0.0001707875481054257</v>
+        <v>0.000168641832353595</v>
       </c>
       <c r="BY3">
-        <v>0.0002072820777005859</v>
+        <v>0.0002051522170829666</v>
       </c>
       <c r="BZ3">
-        <v>0.0001089938087909138</v>
+        <v>0.0001068212466037097</v>
       </c>
       <c r="CA3">
-        <v>2.038612377385339E-06</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>1.929481378595947E-05</v>
+        <v>1.708328165941906E-05</v>
       </c>
       <c r="CC3">
-        <v>5.301463441189997E-05</v>
+        <v>5.081775194073366E-05</v>
       </c>
       <c r="CD3">
-        <v>0.000155041878280095</v>
+        <v>0.0001528893217849776</v>
       </c>
       <c r="CE3">
-        <v>0.0002179285975824823</v>
+        <v>0.0002158033623704645</v>
       </c>
       <c r="CF3">
-        <v>0.0001619508782034523</v>
+        <v>0.0001598013233396004</v>
       </c>
       <c r="CG3">
-        <v>0.0002187822675730124</v>
+        <v>0.0002166574032399296</v>
       </c>
       <c r="CH3">
-        <v>0.0002300317874482197</v>
+        <v>0.0002279118104955036</v>
       </c>
       <c r="CI3">
-        <v>0.0001208432936594655</v>
+        <v>0.0001186758795088305</v>
       </c>
       <c r="CJ3">
-        <v>0.0002640623970707125</v>
+        <v>0.000261957204796381</v>
       </c>
       <c r="CK3">
-        <v>0.0002754478169444122</v>
+        <v>0.0002733475710925213</v>
       </c>
       <c r="CL3">
-        <v>9.992665889149718E-05</v>
+        <v>9.775015745969496E-05</v>
       </c>
       <c r="CM3">
-        <v>0.0006565521427167594</v>
+        <v>0.0006546174685354915</v>
       </c>
       <c r="CN3">
-        <v>0.1168185087041131</v>
+        <v>0.1168670408651527</v>
       </c>
       <c r="CO3">
-        <v>0.004108096454428212</v>
+        <v>0.0041076613117906</v>
       </c>
       <c r="CP3">
-        <v>0.1571485482567254</v>
+        <v>0.1572146018982978</v>
       </c>
       <c r="CQ3">
-        <v>0.026771081703024</v>
+        <v>0.02678049254762704</v>
       </c>
       <c r="CR3">
-        <v>8.35427390732467E-05</v>
+        <v>8.13591196089473E-05</v>
       </c>
       <c r="CS3">
-        <v>0.007354502918415293</v>
+        <v>0.007355478184700943</v>
       </c>
       <c r="CT3">
-        <v>0.0331007096328084</v>
+        <v>0.03311287039915172</v>
       </c>
       <c r="CU3">
-        <v>0.02026315777521747</v>
+        <v>0.02026974123696457</v>
       </c>
       <c r="CV3">
-        <v>0.02537788771847893</v>
+        <v>0.02538669328667884</v>
       </c>
       <c r="CW3">
-        <v>0.01854939379422853</v>
+        <v>0.01855523270718362</v>
       </c>
       <c r="CX3">
-        <v>0.01178599786925599</v>
+        <v>0.01178889840894514</v>
       </c>
       <c r="CY3">
-        <v>0.0001815207979863601</v>
+        <v>0.0001793797453201828</v>
       </c>
       <c r="CZ3">
-        <v>0.000495424664504173</v>
+        <v>0.0004934199881110517</v>
       </c>
       <c r="DA3">
-        <v>0.01202869786656368</v>
+        <v>0.01203170384783745</v>
       </c>
       <c r="DB3">
-        <v>3.174931964779959E-05</v>
+        <v>2.954319841062169E-05</v>
       </c>
       <c r="DC3">
-        <v>0.007285997219175239</v>
+        <v>0.00728694272299874</v>
       </c>
       <c r="DD3">
-        <v>0.002956590367202059</v>
+        <v>0.002955654950036708</v>
       </c>
       <c r="DE3">
-        <v>0.009764315891682843</v>
+        <v>0.00976633810688219</v>
       </c>
       <c r="DF3">
-        <v>0.002201686375576332</v>
+        <v>0.002200422988596417</v>
       </c>
       <c r="DG3">
-        <v>0.008004908911200233</v>
+        <v>0.00800616674789909</v>
       </c>
       <c r="DH3">
-        <v>0.01074390988081605</v>
+        <v>0.01074635768292781</v>
       </c>
       <c r="DI3">
-        <v>0.002449549272826749</v>
+        <v>0.002448393570465475</v>
       </c>
       <c r="DJ3">
-        <v>0.001264500185972692</v>
+        <v>0.001262829636248605</v>
       </c>
       <c r="DK3">
-        <v>0.01129966587465095</v>
+        <v>0.01130235512626128</v>
       </c>
       <c r="DL3">
-        <v>0.000839490790687391</v>
+        <v>0.0008376355946319737</v>
       </c>
       <c r="DM3">
-        <v>0.001790553080137101</v>
+        <v>0.001789111075330068</v>
       </c>
       <c r="DN3">
-        <v>0.0002631244670811172</v>
+        <v>0.0002610188673208958</v>
       </c>
       <c r="DO3">
-        <v>0.003338875162961311</v>
+        <v>0.003338105830324545</v>
       </c>
       <c r="DP3">
-        <v>0.0003156476264984691</v>
+        <v>0.000313564845548382</v>
       </c>
       <c r="DQ3">
-        <v>0.004852361946171954</v>
+        <v>0.004852250151427612</v>
       </c>
       <c r="DR3">
-        <v>0.0002589243971277092</v>
+        <v>0.0002568169726372187</v>
       </c>
       <c r="DS3">
-        <v>2.283399574669874E-05</v>
+        <v>2.062400122608472E-05</v>
       </c>
       <c r="DT3">
-        <v>0.01210256286574429</v>
+        <v>0.01210560093784066</v>
       </c>
       <c r="DU3">
-        <v>0.006232394930863021</v>
+        <v>0.006232882694694476</v>
       </c>
       <c r="DV3">
-        <v>0.005343061340728544</v>
+        <v>0.005343162731490207</v>
       </c>
       <c r="DW3">
-        <v>0.02796700968975738</v>
+        <v>0.02797694010808687</v>
       </c>
       <c r="DX3">
-        <v>0.00163317338188294</v>
+        <v>0.001631663003095871</v>
       </c>
       <c r="DY3">
-        <v>0.0008518554305502281</v>
+        <v>0.0008500056063416787</v>
       </c>
       <c r="DZ3">
-        <v>0.004780195946972502</v>
+        <v>0.004780052799540087</v>
       </c>
       <c r="EA3">
-        <v>0.001456940383837921</v>
+        <v>0.001455353440210382</v>
       </c>
       <c r="EB3">
-        <v>0.04166918953775685</v>
+        <v>0.04168507290034645</v>
       </c>
       <c r="EC3">
-        <v>0.01656647781622534</v>
+        <v>0.01657145524667031</v>
       </c>
       <c r="ED3">
-        <v>0.009832937890921607</v>
+        <v>0.00983498991910991</v>
       </c>
       <c r="EE3">
-        <v>0.00787364991265631</v>
+        <v>0.00787485072357455</v>
       </c>
       <c r="EF3">
-        <v>0.0004199257453416949</v>
+        <v>0.0004178882682655831</v>
       </c>
       <c r="EG3">
-        <v>0.0001858269079385916</v>
+        <v>0.0001836877260720104</v>
       </c>
       <c r="EH3">
-        <v>0.008283824908106172</v>
+        <v>0.008285203920515847</v>
       </c>
       <c r="EI3">
-        <v>0.005512707938846627</v>
+        <v>0.005512883032971822</v>
       </c>
       <c r="EJ3">
-        <v>0.00232535827420442</v>
+        <v>0.002324148616771719</v>
       </c>
       <c r="EK3">
-        <v>0.001563884682651571</v>
+        <v>0.001562344201226166</v>
       </c>
       <c r="EL3">
-        <v>0.01961061378245624</v>
+        <v>0.01961691374493102</v>
       </c>
       <c r="EM3">
-        <v>0.03309019963292499</v>
+        <v>0.03310235583317414</v>
       </c>
       <c r="EN3">
-        <v>0.01849042779488265</v>
+        <v>0.01849624108992064</v>
       </c>
       <c r="EO3">
-        <v>0.01791368180128059</v>
+        <v>0.01791924452766526</v>
       </c>
       <c r="EP3">
-        <v>0.01951365378353184</v>
+        <v>0.01951991162150705</v>
       </c>
       <c r="EQ3">
-        <v>0.001078767488033055</v>
+        <v>0.001077016246301537</v>
       </c>
       <c r="ER3">
-        <v>0.003609531559958874</v>
+        <v>0.003608879814630322</v>
       </c>
       <c r="ES3">
-        <v>0.002146467276188887</v>
+        <v>0.002145179899141377</v>
       </c>
       <c r="ET3">
-        <v>0.001763763780434279</v>
+        <v>0.001762310136952987</v>
       </c>
       <c r="EU3">
-        <v>0.006524711927620301</v>
+        <v>0.006525326689258476</v>
       </c>
       <c r="EV3">
-        <v>0.01574776982530741</v>
+        <v>0.01575239156614026</v>
       </c>
       <c r="EW3">
-        <v>0.01572602982554857</v>
+        <v>0.0157306421213874</v>
       </c>
       <c r="EX3">
-        <v>0.01058283988260282</v>
+        <v>0.01058521770747505</v>
       </c>
       <c r="EY3">
-        <v>0.00408406295469482</v>
+        <v>0.004083617370646725</v>
       </c>
       <c r="EZ3">
-        <v>0.001893439178995769</v>
+        <v>0.001892041873296356</v>
       </c>
       <c r="FA3">
-        <v>0.0006602580426756492</v>
+        <v>0.0006583249785313339</v>
       </c>
       <c r="FB3">
-        <v>0.001384306684643659</v>
+        <v>0.001382688185134683</v>
       </c>
       <c r="FC3">
-        <v>1.430314984133281E-05</v>
+        <v>1.208944907465214E-05</v>
       </c>
       <c r="FD3">
-        <v>0.001153055987208961</v>
+        <v>0.001151337020290623</v>
       </c>
       <c r="FE3">
-        <v>0.005410839939976666</v>
+        <v>0.005410970777310176</v>
       </c>
       <c r="FF3">
-        <v>0.002748781269507319</v>
+        <v>0.002747755569190745</v>
       </c>
       <c r="FG3">
-        <v>0.01507112183281357</v>
+        <v>0.01507544960233473</v>
       </c>
       <c r="FH3">
-        <v>0.02029194977489807</v>
+        <v>0.02029854574539715</v>
       </c>
       <c r="FI3">
-        <v>0.008995928900206685</v>
+        <v>0.008997617287870473</v>
       </c>
       <c r="FJ3">
-        <v>0.005158872942771777</v>
+        <v>0.005158894312450768</v>
       </c>
       <c r="FK3">
-        <v>0.008715954903312482</v>
+        <v>0.008717521655614869</v>
       </c>
       <c r="FL3">
-        <v>3.148578065072307E-06</v>
+        <v>9.300311684498184E-07</v>
       </c>
       <c r="FM3">
-        <v>0.01147449587271154</v>
+        <v>0.01147726107962569</v>
       </c>
       <c r="FN3">
-        <v>0.007644660215196531</v>
+        <v>0.007645761541002168</v>
       </c>
       <c r="FO3">
-        <v>0.01323938485313333</v>
+        <v>0.01324291682021574</v>
       </c>
       <c r="FP3">
-        <v>0.01543040182882802</v>
+        <v>0.01543488568838841</v>
       </c>
       <c r="FQ3">
-        <v>0.005744574936274488</v>
+        <v>0.005744850765562026</v>
       </c>
       <c r="FR3">
-        <v>0.006311820329981943</v>
+        <v>0.00631234260036484</v>
       </c>
       <c r="FS3">
-        <v>0.003632127259708216</v>
+        <v>0.003631485331134561</v>
       </c>
       <c r="FT3">
-        <v>0.0004967113444898995</v>
+        <v>0.0004947072270979241</v>
       </c>
       <c r="FU3">
-        <v>1.318329585375554E-07</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0007007320922266639</v>
+        <v>0.0006988166121283641</v>
       </c>
       <c r="FW3">
-        <v>8.520899905476261E-05</v>
+        <v>8.302610350103095E-05</v>
       </c>
       <c r="FX3">
-        <v>0.0002890344967936929</v>
+        <v>0.0002869401537068161</v>
       </c>
       <c r="FY3">
-        <v>0.0001399618784473799</v>
+        <v>0.0001378027704108696</v>
       </c>
       <c r="FZ3">
-        <v>0.0005590686237981601</v>
+        <v>0.0005570915976728335</v>
       </c>
       <c r="GA3">
-        <v>0.003611753959934221</v>
+        <v>0.003611103180132564</v>
       </c>
       <c r="GB3">
-        <v>0.003312688263251806</v>
+        <v>0.003311907553654875</v>
       </c>
       <c r="GC3">
-        <v>0.002983792466900301</v>
+        <v>0.002982868867751139</v>
       </c>
       <c r="GD3">
-        <v>0.0006632302426426782</v>
+        <v>0.0006612984697776287</v>
       </c>
       <c r="GE3">
-        <v>8.282616908119572E-05</v>
+        <v>8.064223830137804E-05</v>
       </c>
       <c r="GF3">
-        <v>0.0004992897944612965</v>
+        <v>0.0004972867972829752</v>
       </c>
       <c r="GG3">
-        <v>0.001766530680403585</v>
+        <v>0.001765078239008492</v>
       </c>
       <c r="GH3">
-        <v>0.0005461671939412778</v>
+        <v>0.000544184562759408</v>
       </c>
       <c r="GI3">
-        <v>0.00161338908210241</v>
+        <v>0.001611870107979773</v>
       </c>
       <c r="GJ3">
-        <v>0.0002555516971651231</v>
+        <v>0.0002534428073972019</v>
       </c>
       <c r="GK3">
-        <v>0.0002019110377601678</v>
+        <v>0.0001997788436816145</v>
       </c>
       <c r="GL3">
-        <v>1.62531538197011E-05</v>
+        <v>1.404030023683489E-05</v>
       </c>
       <c r="GM3">
-        <v>0.0001700333981137916</v>
+        <v>0.0001678873547197234</v>
       </c>
       <c r="GN3">
-        <v>0.0001236280186285741</v>
+        <v>0.0001214618143082512</v>
       </c>
       <c r="GO3">
-        <v>9.4510818951576E-06</v>
+        <v>7.235273136146485E-06</v>
       </c>
       <c r="GP3">
-        <v>0.003325535963109284</v>
+        <v>0.003324760835225772</v>
       </c>
       <c r="GQ3">
-        <v>0.00268213197024667</v>
+        <v>0.002681077313985284</v>
       </c>
       <c r="GR3">
-        <v>0.002012135477679051</v>
+        <v>0.002010789739865754</v>
       </c>
       <c r="GS3">
-        <v>0.0001986407977964451</v>
+        <v>0.0001965071829544486</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.803615977179526E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.000105901749933101</v>
+        <v>7.099028977353814E-05</v>
       </c>
       <c r="D4">
-        <v>9.918129462004967E-05</v>
+        <v>6.422807938804846E-05</v>
       </c>
       <c r="E4">
-        <v>0.000257936582015167</v>
+        <v>0.0002239697342562561</v>
       </c>
       <c r="F4">
-        <v>0.0002632942122647354</v>
+        <v>0.0002293606521669647</v>
       </c>
       <c r="G4">
-        <v>0.0001848745686118022</v>
+        <v>0.0001504537769577176</v>
       </c>
       <c r="H4">
-        <v>0.000188712538790582</v>
+        <v>0.0001543155929498189</v>
       </c>
       <c r="I4">
-        <v>9.170065927158773E-05</v>
+        <v>5.670096586864279E-05</v>
       </c>
       <c r="J4">
-        <v>2.978683138752616E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4.108214191368278E-06</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.837150718487232E-05</v>
+        <v>3.322686669278987E-05</v>
       </c>
       <c r="M4">
-        <v>3.534980864666001E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.284606259839355E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>5.667630264008787E-05</v>
+        <v>2.145899830453039E-05</v>
       </c>
       <c r="P4">
-        <v>0.0001529205971233266</v>
+        <v>0.0001183012712432048</v>
       </c>
       <c r="Q4">
-        <v>6.299327293434414E-05</v>
+        <v>2.781521676575462E-05</v>
       </c>
       <c r="R4">
-        <v>4.351459202699084E-05</v>
+        <v>8.215512252945597E-06</v>
       </c>
       <c r="S4">
-        <v>0.0001917335389313058</v>
+        <v>0.000157355362961606</v>
       </c>
       <c r="T4">
-        <v>7.865273366379102E-05</v>
+        <v>4.357197178355625E-05</v>
       </c>
       <c r="U4">
-        <v>4.284358199573395E-05</v>
+        <v>7.540333148142815E-06</v>
       </c>
       <c r="V4">
-        <v>0.0001654804877083897</v>
+        <v>0.0001309391980797967</v>
       </c>
       <c r="W4">
-        <v>0.0002778135629410739</v>
+        <v>0.0002439702134780008</v>
       </c>
       <c r="X4">
-        <v>0.0001704431879395616</v>
+        <v>0.0001359327322199806</v>
       </c>
       <c r="Y4">
-        <v>4.504341509820628E-05</v>
+        <v>9.75383410290598E-06</v>
       </c>
       <c r="Z4">
-        <v>6.50360630295011E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>3.275653752586061E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>1.448942267494433E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0001326239761778722</v>
+        <v>9.78785447232985E-05</v>
       </c>
       <c r="AD4">
-        <v>3.899396181641146E-05</v>
+        <v>3.666794772513669E-06</v>
       </c>
       <c r="AE4">
-        <v>1.639458476369033E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>7.829381364707184E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>7.185244034702067E-12</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>8.262066384862461E-07</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>2.849676232743233E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>4.175112394484522E-05</v>
+        <v>6.441087511751936E-06</v>
       </c>
       <c r="AK4">
-        <v>4.208168496024336E-05</v>
+        <v>6.773702346199577E-06</v>
       </c>
       <c r="AL4">
-        <v>0.0002174345501285068</v>
+        <v>0.0001832160579204404</v>
       </c>
       <c r="AM4">
-        <v>0.0003880223880748065</v>
+        <v>0.0003548637805321008</v>
       </c>
       <c r="AN4">
-        <v>7.209818335846784E-05</v>
+        <v>3.697669719542028E-05</v>
       </c>
       <c r="AO4">
-        <v>1.998314393085211E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0001508503970268928</v>
+        <v>0.0001162182087213904</v>
       </c>
       <c r="AQ4">
-        <v>7.829381364707184E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>3.769338175582802E-08</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.795425230216121E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>3.157377547076534E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>2.537267718190662E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>3.860913179848536E-05</v>
+        <v>3.279573755090301E-06</v>
       </c>
       <c r="AW4">
-        <v>8.868950413132249E-05</v>
+        <v>5.367110202559656E-05</v>
       </c>
       <c r="AX4">
-        <v>5.591014560439885E-05</v>
+        <v>2.068808103444739E-05</v>
       </c>
       <c r="AY4">
-        <v>9.381017036985268E-05</v>
+        <v>5.882358363671127E-05</v>
       </c>
       <c r="AZ4">
-        <v>0.0001704431879395616</v>
+        <v>0.0001359327322199806</v>
       </c>
       <c r="BA4">
-        <v>0.0001674567678004485</v>
+        <v>0.0001329277570599008</v>
       </c>
       <c r="BB4">
-        <v>9.932880462692095E-05</v>
+        <v>6.437650589398647E-05</v>
       </c>
       <c r="BC4">
-        <v>0.0001522898770939465</v>
+        <v>0.0001176666324673577</v>
       </c>
       <c r="BD4">
-        <v>0.0001510323070353665</v>
+        <v>0.0001164012489606635</v>
       </c>
       <c r="BE4">
-        <v>0.0002990547639305286</v>
+        <v>0.0002653433888419105</v>
       </c>
       <c r="BF4">
-        <v>8.070359375932391E-05</v>
+        <v>4.563557414250149E-05</v>
       </c>
       <c r="BG4">
-        <v>2.539446518292155E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>4.168187194161933E-05</v>
+        <v>6.371405236725034E-06</v>
       </c>
       <c r="BI4">
-        <v>1.11928515213839E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>3.295087453491319E-06</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>2.570674319746804E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>2.904448935294648E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>3.556566865671517E-05</v>
+        <v>2.172011766780407E-07</v>
       </c>
       <c r="BN4">
-        <v>3.757241775019328E-05</v>
+        <v>2.236418466113203E-06</v>
       </c>
       <c r="BO4">
-        <v>4.460246207766587E-05</v>
+        <v>9.310141383274229E-06</v>
       </c>
       <c r="BP4">
-        <v>2.044223295223733E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0001123007552311786</v>
+        <v>7.742905293284809E-05</v>
       </c>
       <c r="BR4">
-        <v>2.455501114381821E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>9.549844444849563E-08</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0001682572078377345</v>
+        <v>0.0001337331703363771</v>
       </c>
       <c r="BU4">
-        <v>9.440950439777078E-05</v>
+        <v>5.942664140574285E-05</v>
       </c>
       <c r="BV4">
-        <v>1.325916261763652E-06</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>2.795425230216121E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>6.430081299525177E-05</v>
+        <v>2.913088074497077E-05</v>
       </c>
       <c r="BY4">
-        <v>3.416237359134707E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>4.371007203609667E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>3.704689972571368E-06</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>3.42953015975391E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>4.41908070584902E-05</v>
+        <v>8.895928697341686E-06</v>
       </c>
       <c r="CD4">
-        <v>3.331862155204353E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>3.09429174413788E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>4.871333226915787E-05</v>
+        <v>1.344655295174659E-05</v>
       </c>
       <c r="CG4">
-        <v>1.826214085068458E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>6.078417883144041E-05</v>
+        <v>2.559239727074677E-05</v>
       </c>
       <c r="CI4">
-        <v>0.0004370420003582314</v>
+        <v>0.0004041879581115435</v>
       </c>
       <c r="CJ4">
-        <v>9.98383086506546E-05</v>
+        <v>6.488917553320709E-05</v>
       </c>
       <c r="CK4">
-        <v>3.972750885058145E-05</v>
+        <v>4.404899430850761E-06</v>
       </c>
       <c r="CL4">
-        <v>6.964392724414401E-05</v>
+        <v>3.450719246518247E-05</v>
       </c>
       <c r="CM4">
-        <v>0.006034490981097844</v>
+        <v>0.00603641462529849</v>
       </c>
       <c r="CN4">
-        <v>0.1136672352948318</v>
+        <v>0.1143378953305725</v>
       </c>
       <c r="CO4">
-        <v>0.09680626950941658</v>
+        <v>0.09737217014792074</v>
       </c>
       <c r="CP4">
-        <v>0.1077508450192353</v>
+        <v>0.1083847457443306</v>
       </c>
       <c r="CQ4">
-        <v>0.00198022169224242</v>
+        <v>0.001956955628312445</v>
       </c>
       <c r="CR4">
-        <v>0.0004032552987843839</v>
+        <v>0.0003701913353186784</v>
       </c>
       <c r="CS4">
-        <v>0.0024886423159256</v>
+        <v>0.002468535136175661</v>
       </c>
       <c r="CT4">
-        <v>0.04624795715431609</v>
+        <v>0.04649973235095517</v>
       </c>
       <c r="CU4">
-        <v>0.01397342265090809</v>
+        <v>0.01402467192135196</v>
       </c>
       <c r="CV4">
-        <v>0.0453356601118196</v>
+        <v>0.0455817670869885</v>
       </c>
       <c r="CW4">
-        <v>0.000573291066704967</v>
+        <v>0.0005412835578209686</v>
       </c>
       <c r="CX4">
-        <v>0.01007666746938996</v>
+        <v>0.01010370568756142</v>
       </c>
       <c r="CY4">
-        <v>0.001888806187984115</v>
+        <v>0.001864972147507242</v>
       </c>
       <c r="CZ4">
-        <v>0.0017702575824619</v>
+        <v>0.001745686983912625</v>
       </c>
       <c r="DA4">
-        <v>0.01200625055927354</v>
+        <v>0.01204527753087624</v>
       </c>
       <c r="DB4">
-        <v>0.004705092219171971</v>
+        <v>0.004698756134080788</v>
       </c>
       <c r="DC4">
-        <v>0.002313024107744976</v>
+        <v>0.002291825788978038</v>
       </c>
       <c r="DD4">
-        <v>0.01180846355006025</v>
+        <v>0.01184626164497047</v>
       </c>
       <c r="DE4">
-        <v>0.003558257165750255</v>
+        <v>0.003544795643690919</v>
       </c>
       <c r="DF4">
-        <v>0.002335695008801029</v>
+        <v>0.002314637547323031</v>
       </c>
       <c r="DG4">
-        <v>0.01477966668846444</v>
+        <v>0.01483592525911536</v>
       </c>
       <c r="DH4">
-        <v>0.008160764380143622</v>
+        <v>0.008175898840526384</v>
       </c>
       <c r="DI4">
-        <v>3.726010173564503E-05</v>
+        <v>1.92216199110451E-06</v>
       </c>
       <c r="DJ4">
-        <v>0.005912163275399591</v>
+        <v>0.005913326881481581</v>
       </c>
       <c r="DK4">
-        <v>0.00646224000102319</v>
+        <v>0.006466821306123348</v>
       </c>
       <c r="DL4">
-        <v>0.0003252085751488219</v>
+        <v>0.0002916596971279005</v>
       </c>
       <c r="DM4">
-        <v>8.347913888861397E-05</v>
+        <v>4.84283640985973E-05</v>
       </c>
       <c r="DN4">
-        <v>0.002289046106628037</v>
+        <v>0.002267698809387628</v>
       </c>
       <c r="DO4">
-        <v>0.001483261769093099</v>
+        <v>0.001456908027822313</v>
       </c>
       <c r="DP4">
-        <v>0.002655088823678989</v>
+        <v>0.002636015797965437</v>
       </c>
       <c r="DQ4">
-        <v>0.002703983125956577</v>
+        <v>0.002685213886971501</v>
       </c>
       <c r="DR4">
-        <v>1.27018980916781E-05</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.001084364850511737</v>
+        <v>0.001055532710240448</v>
       </c>
       <c r="DT4">
-        <v>0.01185728355233438</v>
+        <v>0.01189538497233738</v>
       </c>
       <c r="DU4">
-        <v>0.001333455962114866</v>
+        <v>0.001306171457669461</v>
       </c>
       <c r="DV4">
-        <v>0.01101385851304607</v>
+        <v>0.01104671962238985</v>
       </c>
       <c r="DW4">
-        <v>0.02598544921045069</v>
+        <v>0.02611133078120176</v>
       </c>
       <c r="DX4">
-        <v>0.0002784180829692335</v>
+        <v>0.0002445784894685753</v>
       </c>
       <c r="DY4">
-        <v>0.000556303725913665</v>
+        <v>0.0005241906724479032</v>
       </c>
       <c r="DZ4">
-        <v>0.002175173601323643</v>
+        <v>0.00215311879923628</v>
       </c>
       <c r="EA4">
-        <v>0.01293838560269413</v>
+        <v>0.01298320405187495</v>
       </c>
       <c r="EB4">
-        <v>0.04062913189258073</v>
+        <v>0.04084599658912817</v>
       </c>
       <c r="EC4">
-        <v>0.01156560053874724</v>
+        <v>0.01160188969383752</v>
       </c>
       <c r="ED4">
-        <v>0.009608150447565566</v>
+        <v>0.009632277707881698</v>
       </c>
       <c r="EE4">
-        <v>0.004106298191279028</v>
+        <v>0.004096241720165525</v>
       </c>
       <c r="EF4">
-        <v>0.0003300233653731038</v>
+        <v>0.0002965044022768751</v>
       </c>
       <c r="EG4">
-        <v>0.0004287665199727441</v>
+        <v>0.0003958610610783943</v>
       </c>
       <c r="EH4">
-        <v>0.0074703213479815</v>
+        <v>0.007481165995028776</v>
       </c>
       <c r="EI4">
-        <v>0.002397791811693614</v>
+        <v>0.002377120165816224</v>
       </c>
       <c r="EJ4">
-        <v>0.0002308096107515421</v>
+        <v>0.0001966742195536256</v>
       </c>
       <c r="EK4">
-        <v>0.003700637472382595</v>
+        <v>0.003688060577887954</v>
       </c>
       <c r="EL4">
-        <v>0.01905648888768679</v>
+        <v>0.0191393199169608</v>
       </c>
       <c r="EM4">
-        <v>0.02719257926668105</v>
+        <v>0.02732596089518008</v>
       </c>
       <c r="EN4">
-        <v>0.01556759772516774</v>
+        <v>0.01562875181494369</v>
       </c>
       <c r="EO4">
-        <v>0.02102925097958173</v>
+        <v>0.02112433903910348</v>
       </c>
       <c r="EP4">
-        <v>0.01625995975741925</v>
+        <v>0.01632541558353054</v>
       </c>
       <c r="EQ4">
-        <v>1.578024673507332E-05</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.004417910405794505</v>
+        <v>0.004409790022339303</v>
       </c>
       <c r="ES4">
-        <v>0.001879298587541233</v>
+        <v>0.001855405475092788</v>
       </c>
       <c r="ET4">
-        <v>0.005073501936333182</v>
+        <v>0.005069454829251746</v>
       </c>
       <c r="EU4">
-        <v>0.009153228426374449</v>
+        <v>0.00917452919636161</v>
       </c>
       <c r="EV4">
-        <v>0.01529619771252541</v>
+        <v>0.01535566555834024</v>
       </c>
       <c r="EW4">
-        <v>0.009583143446400695</v>
+        <v>0.00960711533493077</v>
       </c>
       <c r="EX4">
-        <v>0.006069086782709381</v>
+        <v>0.006071225375173957</v>
       </c>
       <c r="EY4">
-        <v>0.004269849698897561</v>
+        <v>0.004260809394803985</v>
       </c>
       <c r="EZ4">
-        <v>0.0007652594756472135</v>
+        <v>0.0007344446917272048</v>
       </c>
       <c r="FA4">
-        <v>0.001066782949692739</v>
+        <v>0.001037841570760065</v>
       </c>
       <c r="FB4">
-        <v>0.0002024850194321298</v>
+        <v>0.0001681736438243429</v>
       </c>
       <c r="FC4">
-        <v>1.349454162860092E-05</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.002416052712544241</v>
+        <v>0.002395494524044705</v>
       </c>
       <c r="FE4">
-        <v>0.004880050227321841</v>
+        <v>0.004874801179338067</v>
       </c>
       <c r="FF4">
-        <v>0.004205999595923306</v>
+        <v>0.004196562582745196</v>
       </c>
       <c r="FG4">
-        <v>0.01912350889080871</v>
+        <v>0.01920675632417363</v>
       </c>
       <c r="FH4">
-        <v>0.01677836578156757</v>
+        <v>0.01684704253246483</v>
       </c>
       <c r="FI4">
-        <v>0.004199379795614942</v>
+        <v>0.004189901652747173</v>
       </c>
       <c r="FJ4">
-        <v>0.007631327855481484</v>
+        <v>0.007643172857128343</v>
       </c>
       <c r="FK4">
-        <v>0.00671922131299386</v>
+        <v>0.006725399276772157</v>
       </c>
       <c r="FL4">
-        <v>0.001915997189250722</v>
+        <v>0.001892332090039682</v>
       </c>
       <c r="FM4">
-        <v>0.007936321369688649</v>
+        <v>0.007950061336138594</v>
       </c>
       <c r="FN4">
-        <v>0.009971872464508416</v>
+        <v>0.009998259577536518</v>
       </c>
       <c r="FO4">
-        <v>0.01824220684975602</v>
+        <v>0.01831997863766984</v>
       </c>
       <c r="FP4">
-        <v>0.01262380258804027</v>
+        <v>0.01266666649159094</v>
       </c>
       <c r="FQ4">
-        <v>0.008281128885750427</v>
+        <v>0.008297011186631563</v>
       </c>
       <c r="FR4">
-        <v>0.006709640312547559</v>
+        <v>0.006715758748310412</v>
       </c>
       <c r="FS4">
-        <v>0.001595424074317829</v>
+        <v>0.001569767212196051</v>
       </c>
       <c r="FT4">
-        <v>0.0005678030264493238</v>
+        <v>0.0005357614196496717</v>
       </c>
       <c r="FU4">
-        <v>3.595955167506298E-05</v>
+        <v>6.135314420049926E-07</v>
       </c>
       <c r="FV4">
-        <v>6.782798315955394E-05</v>
+        <v>3.267996568124184E-05</v>
       </c>
       <c r="FW4">
-        <v>0.001084364850511737</v>
+        <v>0.001055532710240448</v>
       </c>
       <c r="FX4">
-        <v>0.0003818018177850407</v>
+        <v>0.0003486045610212692</v>
       </c>
       <c r="FY4">
-        <v>0.0002057676395850404</v>
+        <v>0.0001714766593278491</v>
       </c>
       <c r="FZ4">
-        <v>0.001627788675825432</v>
+        <v>0.001602332899227989</v>
       </c>
       <c r="GA4">
-        <v>0.004117069491780775</v>
+        <v>0.004107079944173457</v>
       </c>
       <c r="GB4">
-        <v>0.003362420856627834</v>
+        <v>0.003347742577832153</v>
       </c>
       <c r="GC4">
-        <v>0.001621614675537836</v>
+        <v>0.001596120539064873</v>
       </c>
       <c r="GD4">
-        <v>0.0001322068061584396</v>
+        <v>9.745878277168738E-05</v>
       </c>
       <c r="GE4">
-        <v>9.381017036985268E-05</v>
+        <v>5.882358363671127E-05</v>
       </c>
       <c r="GF4">
-        <v>0.000530713424721621</v>
+        <v>0.0004984413753500435</v>
       </c>
       <c r="GG4">
-        <v>0.0007335192941686966</v>
+        <v>0.000702507304328091</v>
       </c>
       <c r="GH4">
-        <v>0.0008927536915861319</v>
+        <v>0.0008627310459921767</v>
       </c>
       <c r="GI4">
-        <v>0.0005551001258575991</v>
+        <v>0.0005229795942664446</v>
       </c>
       <c r="GJ4">
-        <v>0.0002208357402869406</v>
+        <v>0.0001866383801205033</v>
       </c>
       <c r="GK4">
-        <v>1.101174151294746E-06</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>1.089951450771971E-06</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0003171654347741574</v>
+        <v>0.0002835665836646086</v>
       </c>
       <c r="GN4">
-        <v>0.0002421941912818571</v>
+        <v>0.0002081295339795741</v>
       </c>
       <c r="GO4">
-        <v>0.0009654344449717369</v>
+        <v>0.0009358633744543385</v>
       </c>
       <c r="GP4">
-        <v>0.00373397737393563</v>
+        <v>0.003721607624632734</v>
       </c>
       <c r="GQ4">
-        <v>0.002221158103465687</v>
+        <v>0.002199389009135989</v>
       </c>
       <c r="GR4">
-        <v>0.0007908943368413331</v>
+        <v>0.0007602388256842917</v>
       </c>
       <c r="GS4">
-        <v>9.665516450237781E-05</v>
+        <v>6.168625409183011E-05</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.344433466018802E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001451146072230694</v>
+        <v>0.0001283262918970326</v>
       </c>
       <c r="D5">
-        <v>0.0005413404269451819</v>
+        <v>0.0005257906533242654</v>
       </c>
       <c r="E5">
-        <v>0.0002778547738302019</v>
+        <v>0.0002614813840948368</v>
       </c>
       <c r="F5">
-        <v>0.0001966017397858378</v>
+        <v>0.0001799743654126162</v>
       </c>
       <c r="G5">
-        <v>0.0001215235300488252</v>
+        <v>0.0001046614726002546</v>
       </c>
       <c r="H5">
-        <v>1.139350756711104E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.542235376764658E-07</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.576999227819816E-05</v>
+        <v>2.867114078146298E-05</v>
       </c>
       <c r="K5">
-        <v>1.718819385554115E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.202570909632813E-05</v>
+        <v>4.852636578359257E-06</v>
       </c>
       <c r="M5">
-        <v>7.851660890815871E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>5.163272657001534E-05</v>
+        <v>3.455220108982181E-05</v>
       </c>
       <c r="O5">
-        <v>5.742326785823914E-05</v>
+        <v>4.03608427302279E-05</v>
       </c>
       <c r="P5">
-        <v>2.970345147848722E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.97969579808908E-07</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001202913099874915</v>
+        <v>0.0001034254008062476</v>
       </c>
       <c r="S5">
-        <v>1.133542356421991E-07</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>5.471103272323782E-05</v>
+        <v>3.764012956032429E-05</v>
       </c>
       <c r="U5">
-        <v>0.0002001807699639838</v>
+        <v>0.000183564583095258</v>
       </c>
       <c r="V5">
-        <v>0.0003645554181457204</v>
+        <v>0.0003484530414501437</v>
       </c>
       <c r="W5">
-        <v>0.0004327358815393982</v>
+        <v>0.000416846626612228</v>
       </c>
       <c r="X5">
-        <v>0.0001819841790582498</v>
+        <v>0.0001653111124113622</v>
       </c>
       <c r="Y5">
-        <v>0.0002192443009128697</v>
+        <v>0.0002026877037451473</v>
       </c>
       <c r="Z5">
-        <v>0.0002496862824281172</v>
+        <v>0.0002332248422688896</v>
       </c>
       <c r="AA5">
-        <v>5.471103272323782E-05</v>
+        <v>3.764012956032429E-05</v>
       </c>
       <c r="AB5">
-        <v>4.912440944516404E-07</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>4.180680208093064E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>3.578015978095495E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1.133542356421991E-07</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001068614553190215</v>
+        <v>8.995356645277801E-05</v>
       </c>
       <c r="AG5">
-        <v>0.0001268305463129815</v>
+        <v>0.0001099850777908406</v>
       </c>
       <c r="AH5">
-        <v>0.0001005849850066106</v>
+        <v>8.365747684789315E-05</v>
       </c>
       <c r="AI5">
-        <v>0.0001328961166148949</v>
+        <v>0.0001160696081438418</v>
       </c>
       <c r="AJ5">
-        <v>0.000177078058814048</v>
+        <v>0.0001603896563807721</v>
       </c>
       <c r="AK5">
-        <v>6.152779306254159E-05</v>
+        <v>4.447819805662793E-05</v>
       </c>
       <c r="AL5">
-        <v>4.169513907537263E-05</v>
+        <v>2.458355020670777E-05</v>
       </c>
       <c r="AM5">
-        <v>0.0003179672758267988</v>
+        <v>0.0003017192716774975</v>
       </c>
       <c r="AN5">
-        <v>0.0004046105501394618</v>
+        <v>0.0003886333797000375</v>
       </c>
       <c r="AO5">
-        <v>0.0001048437952185926</v>
+        <v>8.792959945346278E-05</v>
       </c>
       <c r="AP5">
-        <v>4.482721023127125E-05</v>
+        <v>2.772541174111506E-05</v>
       </c>
       <c r="AQ5">
-        <v>8.624437429280768E-05</v>
+        <v>6.927203956408429E-05</v>
       </c>
       <c r="AR5">
-        <v>6.425970319852223E-06</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.586107028723296E-05</v>
+        <v>8.699986525555812E-06</v>
       </c>
       <c r="AT5">
-        <v>6.87771634233785E-05</v>
+        <v>5.175022884765603E-05</v>
       </c>
       <c r="AU5">
-        <v>2.083143103688302E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>2.008882099991966E-05</v>
+        <v>2.909694064075558E-06</v>
       </c>
       <c r="AW5">
-        <v>3.627469580557044E-06</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>2.671282832962916E-05</v>
+        <v>9.554407034166147E-06</v>
       </c>
       <c r="AY5">
-        <v>1.527034776008049E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>4.027291500458153E-05</v>
+        <v>2.315688047958126E-05</v>
       </c>
       <c r="BA5">
-        <v>6.533618925210425E-05</v>
+        <v>4.829849871398549E-05</v>
       </c>
       <c r="BB5">
-        <v>0.0001068817153200299</v>
+        <v>8.997388978347105E-05</v>
       </c>
       <c r="BC5">
-        <v>0.000377506448790357</v>
+        <v>0.0003614445550486396</v>
       </c>
       <c r="BD5">
-        <v>0.000273700173623407</v>
+        <v>0.0002573137972390954</v>
       </c>
       <c r="BE5">
-        <v>7.592401377911247E-05</v>
+        <v>5.891941917162335E-05</v>
       </c>
       <c r="BF5">
-        <v>0.0001451382072242441</v>
+        <v>0.0001283499656682249</v>
       </c>
       <c r="BG5">
-        <v>7.326249364663548E-05</v>
+        <v>5.624957953163572E-05</v>
       </c>
       <c r="BH5">
-        <v>6.60890492895778E-07</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>3.679557183149701E-05</v>
+        <v>1.966866766012716E-05</v>
       </c>
       <c r="BJ5">
-        <v>0.0001575431278416981</v>
+        <v>0.0001407936621825758</v>
       </c>
       <c r="BK5">
-        <v>8.291306412699196E-05</v>
+        <v>6.593031622888969E-05</v>
       </c>
       <c r="BL5">
-        <v>5.404836269025346E-06</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>6.152779306254159E-05</v>
+        <v>4.447819805662793E-05</v>
       </c>
       <c r="BN5">
-        <v>8.061543401262758E-05</v>
+        <v>6.362550407191744E-05</v>
       </c>
       <c r="BO5">
-        <v>3.678367483090484E-05</v>
+        <v>1.96567334713189E-05</v>
       </c>
       <c r="BP5">
-        <v>0.0001130298316260519</v>
+        <v>9.614122416684676E-05</v>
       </c>
       <c r="BQ5">
-        <v>0.000213855970644666</v>
+        <v>0.000197282530375293</v>
       </c>
       <c r="BR5">
-        <v>0.0002009465300020995</v>
+        <v>0.0001843327367828941</v>
       </c>
       <c r="BS5">
-        <v>0.0001934716996300403</v>
+        <v>0.0001768345412269077</v>
       </c>
       <c r="BT5">
-        <v>0.0002069477703008108</v>
+        <v>0.0001903527360468783</v>
       </c>
       <c r="BU5">
-        <v>0.0003204700359513736</v>
+        <v>0.0003042298550499221</v>
       </c>
       <c r="BV5">
-        <v>0.0002778547738302019</v>
+        <v>0.0002614813840948368</v>
       </c>
       <c r="BW5">
-        <v>9.287145462267016E-05</v>
+        <v>7.591983514005939E-05</v>
       </c>
       <c r="BX5">
-        <v>4.333916215720376E-05</v>
+        <v>2.623271225488001E-05</v>
       </c>
       <c r="BY5">
-        <v>4.653128231609131E-05</v>
+        <v>2.9434810496335E-05</v>
       </c>
       <c r="BZ5">
-        <v>2.008882099991966E-05</v>
+        <v>2.909694064075558E-06</v>
       </c>
       <c r="CA5">
-        <v>2.14140150658811E-07</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>2.372785418105228E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>3.472812972859022E-06</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>3.219101360230544E-05</v>
+        <v>1.504971628158326E-05</v>
       </c>
       <c r="CE5">
-        <v>5.78635528801543E-05</v>
+        <v>4.080250401621934E-05</v>
       </c>
       <c r="CF5">
-        <v>2.586107028723296E-05</v>
+        <v>8.699986525555812E-06</v>
       </c>
       <c r="CG5">
-        <v>0.000167543018339442</v>
+        <v>0.0001508248108185116</v>
       </c>
       <c r="CH5">
-        <v>0.0001974156998263526</v>
+        <v>0.0001807908697685347</v>
       </c>
       <c r="CI5">
-        <v>3.799478189118761E-05</v>
+        <v>2.08716262682419E-05</v>
       </c>
       <c r="CJ5">
-        <v>2.034959201289952E-05</v>
+        <v>3.171280207617301E-06</v>
       </c>
       <c r="CK5">
-        <v>0.0003476390173037077</v>
+        <v>0.0003314837625095809</v>
       </c>
       <c r="CL5">
-        <v>7.739576385236873E-05</v>
+        <v>6.039576971197315E-05</v>
       </c>
       <c r="CM5">
-        <v>6.970966346979361E-05</v>
+        <v>5.268564374752091E-05</v>
       </c>
       <c r="CN5">
-        <v>0.03203353859446714</v>
+        <v>0.03211642864701339</v>
       </c>
       <c r="CO5">
-        <v>0.04626442730280863</v>
+        <v>0.04639180095104424</v>
       </c>
       <c r="CP5">
-        <v>0.1175716558521209</v>
+        <v>0.1179219250615212</v>
       </c>
       <c r="CQ5">
-        <v>0.1149067717194765</v>
+        <v>0.1152487109060127</v>
       </c>
       <c r="CR5">
-        <v>0.004030287900607298</v>
+        <v>0.00402564404663628</v>
       </c>
       <c r="CS5">
-        <v>0.002922179745451292</v>
+        <v>0.002914072113766578</v>
       </c>
       <c r="CT5">
-        <v>0.0009505519473136566</v>
+        <v>0.0009362813067248769</v>
       </c>
       <c r="CU5">
-        <v>0.04302692214166204</v>
+        <v>0.0431441758407095</v>
       </c>
       <c r="CV5">
-        <v>0.02237730811382894</v>
+        <v>0.02243001425717687</v>
       </c>
       <c r="CW5">
-        <v>0.0502453825009604</v>
+        <v>0.05038520001023108</v>
       </c>
       <c r="CX5">
-        <v>3.469158572677125E-06</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.001529646976138071</v>
+        <v>0.001517186498614712</v>
       </c>
       <c r="CZ5">
-        <v>0.005501431273833356</v>
+        <v>0.005501385990503771</v>
       </c>
       <c r="DA5">
-        <v>0.0003215090960030927</v>
+        <v>0.0003052721630454757</v>
       </c>
       <c r="DB5">
-        <v>0.004907601744275533</v>
+        <v>0.004905700240070173</v>
       </c>
       <c r="DC5">
-        <v>0.00699816234833304</v>
+        <v>0.007002795618910965</v>
       </c>
       <c r="DD5">
-        <v>0.001535053776407194</v>
+        <v>0.001522610199719902</v>
       </c>
       <c r="DE5">
-        <v>0.0066855041327705</v>
+        <v>0.006689160081275637</v>
       </c>
       <c r="DF5">
-        <v>0.002376384718284383</v>
+        <v>0.002366571014279425</v>
       </c>
       <c r="DG5">
-        <v>0.002435473621225529</v>
+        <v>0.002425844620152484</v>
       </c>
       <c r="DH5">
-        <v>0.01002588949903795</v>
+        <v>0.01003998698461959</v>
       </c>
       <c r="DI5">
-        <v>0.006011602799227109</v>
+        <v>0.006013152234564288</v>
       </c>
       <c r="DJ5">
-        <v>0.0004315711214814223</v>
+        <v>0.0004156782256912986</v>
       </c>
       <c r="DK5">
-        <v>0.006063695301820009</v>
+        <v>0.00606540757040473</v>
       </c>
       <c r="DL5">
-        <v>0.005540983575802069</v>
+        <v>0.005541061926958384</v>
       </c>
       <c r="DM5">
-        <v>0.0007009535648899146</v>
+        <v>0.0006859027176846676</v>
       </c>
       <c r="DN5">
-        <v>1.1305731562742E-05</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.004472195222603204</v>
+        <v>0.004468932703772016</v>
       </c>
       <c r="DP5">
-        <v>0.001244150861927522</v>
+        <v>0.001230797966932864</v>
       </c>
       <c r="DQ5">
-        <v>0.001216566960554535</v>
+        <v>0.001203127842475616</v>
       </c>
       <c r="DR5">
-        <v>0.001092850254396545</v>
+        <v>0.001079024416693185</v>
       </c>
       <c r="DS5">
-        <v>0.0006950322345951808</v>
+        <v>0.0006799628782111908</v>
       </c>
       <c r="DT5">
-        <v>0.00209301630417974</v>
+        <v>0.002082316833570707</v>
       </c>
       <c r="DU5">
-        <v>0.00848016442209959</v>
+        <v>0.008489430205966837</v>
       </c>
       <c r="DV5">
-        <v>0.0009197108857785449</v>
+        <v>0.0009053438407177695</v>
       </c>
       <c r="DW5">
-        <v>0.01169445958209091</v>
+        <v>0.0117137727642095</v>
       </c>
       <c r="DX5">
-        <v>0.01245475861993474</v>
+        <v>0.01247644838131663</v>
       </c>
       <c r="DY5">
-        <v>0.003033781351006254</v>
+        <v>0.00302602256898241</v>
       </c>
       <c r="DZ5">
-        <v>0.0002077546203409717</v>
+        <v>0.0001911621081776622</v>
       </c>
       <c r="EA5">
-        <v>0.00168911578407562</v>
+        <v>0.001677153781814259</v>
       </c>
       <c r="EB5">
-        <v>0.01453639472354803</v>
+        <v>0.01456459136308091</v>
       </c>
       <c r="EC5">
-        <v>0.03135061756047479</v>
+        <v>0.03143137290564003</v>
       </c>
       <c r="ED5">
-        <v>0.008413400418776416</v>
+        <v>0.008422457508514202</v>
       </c>
       <c r="EE5">
-        <v>0.01013559050449831</v>
+        <v>0.01015003089875372</v>
       </c>
       <c r="EF5">
-        <v>0.001502376574780689</v>
+        <v>0.00148983085412648</v>
       </c>
       <c r="EG5">
-        <v>0.000156115197770623</v>
+        <v>0.0001393612686190755</v>
       </c>
       <c r="EH5">
-        <v>0.0003857156491989694</v>
+        <v>0.0003696794161703244</v>
       </c>
       <c r="EI5">
-        <v>0.005662747981862884</v>
+        <v>0.005663206950050192</v>
       </c>
       <c r="EJ5">
-        <v>0.001488292874079674</v>
+        <v>0.001475703129917121</v>
       </c>
       <c r="EK5">
-        <v>3.061023852362248E-05</v>
+        <v>1.346399994020637E-05</v>
       </c>
       <c r="EL5">
-        <v>0.01374007868391145</v>
+        <v>0.0137657861605063</v>
       </c>
       <c r="EM5">
-        <v>0.03470967472767163</v>
+        <v>0.03480092997512587</v>
       </c>
       <c r="EN5">
-        <v>0.04060948802133442</v>
+        <v>0.04071918518865584</v>
       </c>
       <c r="EO5">
-        <v>0.01729019586061829</v>
+        <v>0.01732700046405989</v>
       </c>
       <c r="EP5">
-        <v>0.02481222623502682</v>
+        <v>0.02487254356243078</v>
       </c>
       <c r="EQ5">
-        <v>0.01371053968244115</v>
+        <v>0.01373615482460591</v>
       </c>
       <c r="ER5">
-        <v>0.0006252345911210081</v>
+        <v>0.0006099470579094138</v>
       </c>
       <c r="ES5">
-        <v>0.0034680249726207</v>
+        <v>0.003461623570173809</v>
       </c>
       <c r="ET5">
-        <v>0.00246876912288281</v>
+        <v>0.002459244198488627</v>
       </c>
       <c r="EU5">
-        <v>0.006193247308268451</v>
+        <v>0.006195364536739635</v>
       </c>
       <c r="EV5">
-        <v>0.01777641388481976</v>
+        <v>0.01781473833192317</v>
       </c>
       <c r="EW5">
-        <v>0.02513573625112951</v>
+        <v>0.02519706482168579</v>
       </c>
       <c r="EX5">
-        <v>0.01859239592543521</v>
+        <v>0.01863327100840743</v>
       </c>
       <c r="EY5">
-        <v>0.01297621464589017</v>
+        <v>0.01299953439957288</v>
       </c>
       <c r="EZ5">
-        <v>0.008996211447785795</v>
+        <v>0.009007090316240926</v>
       </c>
       <c r="FA5">
-        <v>0.001428382971097662</v>
+        <v>0.001415605957681821</v>
       </c>
       <c r="FB5">
-        <v>0.0004533323225645846</v>
+        <v>0.0004375074489823874</v>
       </c>
       <c r="FC5">
-        <v>2.308070814884063E-05</v>
+        <v>5.910933397600632E-06</v>
       </c>
       <c r="FD5">
-        <v>7.861564391308817E-05</v>
+        <v>6.16194629323991E-05</v>
       </c>
       <c r="FE5">
-        <v>0.00140091266973033</v>
+        <v>0.001388049788326584</v>
       </c>
       <c r="FF5">
-        <v>0.002833405641032567</v>
+        <v>0.002825020514986848</v>
       </c>
       <c r="FG5">
-        <v>0.006303820613772229</v>
+        <v>0.006306283477594577</v>
       </c>
       <c r="FH5">
-        <v>0.01751193487165533</v>
+        <v>0.01754943259755173</v>
       </c>
       <c r="FI5">
-        <v>0.01677467083495806</v>
+        <v>0.01680986398550454</v>
       </c>
       <c r="FJ5">
-        <v>0.003917139194975329</v>
+        <v>0.003912141655343686</v>
       </c>
       <c r="FK5">
-        <v>0.01174905758480852</v>
+        <v>0.01176854143198733</v>
       </c>
       <c r="FL5">
-        <v>0.007593902677985974</v>
+        <v>0.007600398142310422</v>
       </c>
       <c r="FM5">
-        <v>0.001506723374997051</v>
+        <v>0.001494191241779813</v>
       </c>
       <c r="FN5">
-        <v>0.004342008216123155</v>
+        <v>0.004338338752491894</v>
       </c>
       <c r="FO5">
-        <v>0.005974732297391882</v>
+        <v>0.005976166481142874</v>
       </c>
       <c r="FP5">
-        <v>0.01340413966719011</v>
+        <v>0.01342879704946531</v>
       </c>
       <c r="FQ5">
-        <v>0.006068212702044862</v>
+        <v>0.006069939091336259</v>
       </c>
       <c r="FR5">
-        <v>0.003849175991592466</v>
+        <v>0.003843966009314196</v>
       </c>
       <c r="FS5">
-        <v>0.002929757045828452</v>
+        <v>0.00292167309963333</v>
       </c>
       <c r="FT5">
-        <v>7.326249364663548E-05</v>
+        <v>5.624957953163572E-05</v>
       </c>
       <c r="FU5">
-        <v>0.001871088293133289</v>
+        <v>0.001859695109284143</v>
       </c>
       <c r="FV5">
-        <v>0.0001689712184105306</v>
+        <v>0.0001522574752260045</v>
       </c>
       <c r="FW5">
-        <v>4.527569725359466E-07</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0006209895709097124</v>
+        <v>0.0006056887684099772</v>
       </c>
       <c r="FY5">
-        <v>0.0004948019246287311</v>
+        <v>0.0004791066787211948</v>
       </c>
       <c r="FZ5">
-        <v>1.440707871711133E-05</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0009652924980473665</v>
+        <v>0.0009510679341803233</v>
       </c>
       <c r="GB5">
-        <v>0.002687692133779688</v>
+        <v>0.002678851529451765</v>
       </c>
       <c r="GC5">
-        <v>0.002944834946578954</v>
+        <v>0.00293679813161046</v>
       </c>
       <c r="GD5">
-        <v>0.001169156558194686</v>
+        <v>0.001155569242402098</v>
       </c>
       <c r="GE5">
-        <v>5.78635528801543E-05</v>
+        <v>4.080250401621934E-05</v>
       </c>
       <c r="GF5">
-        <v>2.201650509587E-05</v>
+        <v>4.843403807594264E-06</v>
       </c>
       <c r="GG5">
-        <v>6.486827922881405E-05</v>
+        <v>4.782912607506238E-05</v>
       </c>
       <c r="GH5">
-        <v>1.001917249870361E-05</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>9.586754977180058E-06</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0001142453156865526</v>
+        <v>9.736050764582521E-05</v>
       </c>
       <c r="GK5">
-        <v>0.001832593391217208</v>
+        <v>0.001821079878154053</v>
       </c>
       <c r="GL5">
-        <v>0.0005426906270123879</v>
+        <v>0.0005271450739117159</v>
       </c>
       <c r="GM5">
-        <v>0.001033541951444478</v>
+        <v>0.001019530724998109</v>
       </c>
       <c r="GN5">
-        <v>0.0007091364052972149</v>
+        <v>0.0006941111364076817</v>
       </c>
       <c r="GO5">
-        <v>0.0003602886479333422</v>
+        <v>0.0003441729339624261</v>
       </c>
       <c r="GP5">
-        <v>0.001325481765975762</v>
+        <v>0.00131238309902876</v>
       </c>
       <c r="GQ5">
-        <v>0.003482889573360585</v>
+        <v>0.003476534635396899</v>
       </c>
       <c r="GR5">
-        <v>0.00186632849289637</v>
+        <v>0.001854920430634946</v>
       </c>
       <c r="GS5">
-        <v>0.0002896857444190876</v>
+        <v>0.0002733493365000429</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001248988604862646</v>
+        <v>2.825603986604907E-05</v>
       </c>
       <c r="C6">
-        <v>0.0003331460012970262</v>
+        <v>0.0002396487406061522</v>
       </c>
       <c r="D6">
-        <v>0.0003914995515242122</v>
+        <v>0.0002988837175295935</v>
       </c>
       <c r="E6">
-        <v>3.635234314152936E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.371559405339847E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>9.706327537789322E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.443023028977674E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>8.778908534178631E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0001339042805213251</v>
+        <v>3.739748620283402E-05</v>
       </c>
       <c r="K6">
-        <v>0.000127399950496002</v>
+        <v>3.079490868265832E-05</v>
       </c>
       <c r="L6">
-        <v>1.998525707780793E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.326124955162958E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.308165305093037E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.405054409363518E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0001847380507192345</v>
+        <v>8.899909729387342E-05</v>
       </c>
       <c r="Q6">
-        <v>0.000286697031116188</v>
+        <v>0.000192498161659925</v>
       </c>
       <c r="R6">
-        <v>0.0001625772406329566</v>
+        <v>6.650354956876041E-05</v>
       </c>
       <c r="S6">
-        <v>0.0003785323014737272</v>
+        <v>0.0002857205979848444</v>
       </c>
       <c r="T6">
-        <v>0.0007052807527458461</v>
+        <v>0.0006174045640078234</v>
       </c>
       <c r="U6">
-        <v>0.0003571794413905948</v>
+        <v>0.000264045204296723</v>
       </c>
       <c r="V6">
-        <v>0.0002553453009941274</v>
+        <v>0.0001606728656314921</v>
       </c>
       <c r="W6">
-        <v>5.430209821141255E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1.6430418063968E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>6.726830626189345E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>2.864870011153703E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1.070759104168751E-09</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>2.845665011078933E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>2.264801008817475E-06</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>4.117010416028619E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>3.275950012754147E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>2.552215509936456E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>6.653959025905636E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>7.364388228671527E-06</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>8.594423033460381E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>7.042965427420143E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>3.740412014562421E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>9.755143037979374E-05</v>
+        <v>4.955285524199011E-07</v>
       </c>
       <c r="AM6">
-        <v>0.000165018750642462</v>
+        <v>6.898193843299147E-05</v>
       </c>
       <c r="AN6">
-        <v>0.0001432231805576061</v>
+        <v>4.685714763648899E-05</v>
       </c>
       <c r="AO6">
-        <v>2.482410309664685E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>6.797929526466153E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>6.943545027033072E-07</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.680461706542486E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>4.521896217604948E-07</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>4.441722017292809E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>7.593198029562346E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0001022499303980863</v>
+        <v>5.264999117189125E-06</v>
       </c>
       <c r="AW6">
-        <v>3.578692513932804E-07</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>3.219547612534558E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0001474858905742019</v>
+        <v>5.118424561906798E-05</v>
       </c>
       <c r="AZ6">
-        <v>0.0002850236811096732</v>
+        <v>0.0001907995358070876</v>
       </c>
       <c r="BA6">
-        <v>0.0002012331407834543</v>
+        <v>0.00010574334465329</v>
       </c>
       <c r="BB6">
-        <v>0.0001371563405339862</v>
+        <v>4.069866837690306E-05</v>
       </c>
       <c r="BC6">
-        <v>0.0001619469006305025</v>
+        <v>6.586368832032016E-05</v>
       </c>
       <c r="BD6">
-        <v>0.0001311385905105575</v>
+        <v>3.459002061886537E-05</v>
       </c>
       <c r="BE6">
-        <v>9.615228037434647E-06</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>5.918441023042069E-06</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>6.700260026085898E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.146084304462012E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1.392623705421856E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>9.303265036220093E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>2.299905108954144E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>1.02158690397731E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>4.737459718444194E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>6.341382024688691E-08</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>9.364465036458361E-06</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>2.914214411345814E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>9.488175436939997E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>8.434606632838173E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>8.895207034631414E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>7.042965427420143E-05</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>5.066561019725473E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>3.328701512959523E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>7.364388228671527E-06</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1.944637807570994E-07</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>4.388954017087368E-09</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1.391645205418046E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>7.362023028662319E-07</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>7.362023028662319E-07</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>5.03385501959814E-06</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>4.509244717555692E-06</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>7.279352628340461E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>9.160623435664751E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>4.006628015598871E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0001827257407114</v>
+        <v>8.695639147027209E-05</v>
       </c>
       <c r="CI6">
-        <v>9.398971036592702E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>7.048990027443598E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0001660661206465397</v>
+        <v>7.00451288949309E-05</v>
       </c>
       <c r="CL6">
-        <v>9.664689037627212E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>2.795240510882617E-05</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1535457005977944</v>
+        <v>0.1557664693123023</v>
       </c>
       <c r="CO6">
-        <v>0.0130485030508013</v>
+        <v>0.01314707045647978</v>
       </c>
       <c r="CP6">
-        <v>0.1636815006372558</v>
+        <v>0.1660553699721699</v>
       </c>
       <c r="CQ6">
-        <v>0.01744240006790792</v>
+        <v>0.01760733701093924</v>
       </c>
       <c r="CR6">
-        <v>0.0003083355612004326</v>
+        <v>0.0002144635403765103</v>
       </c>
       <c r="CS6">
-        <v>0.006970074027136357</v>
+        <v>0.006976827145733883</v>
       </c>
       <c r="CT6">
-        <v>0.01567372006102197</v>
+        <v>0.01581194120408683</v>
       </c>
       <c r="CU6">
-        <v>0.05722737022280142</v>
+        <v>0.05799325663107895</v>
       </c>
       <c r="CV6">
-        <v>0.03170904012345175</v>
+        <v>0.03208947376483072</v>
       </c>
       <c r="CW6">
-        <v>0.0001596595806215973</v>
+        <v>6.354181848692482E-05</v>
       </c>
       <c r="CX6">
-        <v>0.002804149210917301</v>
+        <v>0.002747976297879867</v>
       </c>
       <c r="CY6">
-        <v>0.006097147223737821</v>
+        <v>0.006090714838019041</v>
       </c>
       <c r="CZ6">
-        <v>0.00637598482482341</v>
+        <v>0.006373764263484805</v>
       </c>
       <c r="DA6">
-        <v>0.005906825022996845</v>
+        <v>0.005897517832438084</v>
       </c>
       <c r="DB6">
-        <v>0.01193781104647708</v>
+        <v>0.01201960151947336</v>
       </c>
       <c r="DC6">
-        <v>0.0001613177606280531</v>
+        <v>6.522504519780894E-05</v>
       </c>
       <c r="DD6">
-        <v>0.007902018030764664</v>
+        <v>0.007922848104766188</v>
       </c>
       <c r="DE6">
-        <v>0.001685338906561474</v>
+        <v>0.001612266434431826</v>
       </c>
       <c r="DF6">
-        <v>0.003050415511876081</v>
+        <v>0.002997962435784437</v>
       </c>
       <c r="DG6">
-        <v>0.01245618804849526</v>
+        <v>0.01254580857341683</v>
       </c>
       <c r="DH6">
-        <v>0.005377289420935222</v>
+        <v>0.00535998362850121</v>
       </c>
       <c r="DI6">
-        <v>0.001845396907184622</v>
+        <v>0.001774742101060714</v>
       </c>
       <c r="DJ6">
-        <v>0.0005499910021412617</v>
+        <v>0.0004597691715133314</v>
       </c>
       <c r="DK6">
-        <v>0.01063201804139328</v>
+        <v>0.01069408459339447</v>
       </c>
       <c r="DL6">
-        <v>4.085319615905239E-05</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.002627518710229631</v>
+        <v>0.002568677804618087</v>
       </c>
       <c r="DN6">
-        <v>0.0001679847606540095</v>
+        <v>7.199274983871911E-05</v>
       </c>
       <c r="DO6">
-        <v>0.001883860007334369</v>
+        <v>0.00181378618391264</v>
       </c>
       <c r="DP6">
-        <v>5.744594022365237E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.005305481020655652</v>
+        <v>0.005287090566863842</v>
       </c>
       <c r="DR6">
-        <v>0.001408546105483846</v>
+        <v>0.001331292695549192</v>
       </c>
       <c r="DS6">
-        <v>1.603169006241565E-05</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0141013720549004</v>
+        <v>0.01421584298048914</v>
       </c>
       <c r="DU6">
-        <v>0.01167434604545134</v>
+        <v>0.01175215689622191</v>
       </c>
       <c r="DV6">
-        <v>0.004855862018905165</v>
+        <v>0.004830680098446055</v>
       </c>
       <c r="DW6">
-        <v>0.02332754809082037</v>
+        <v>0.02358137982360508</v>
       </c>
       <c r="DX6">
-        <v>0.0006448657025106342</v>
+        <v>0.0005560769482487385</v>
       </c>
       <c r="DY6">
-        <v>0.0001927977907506132</v>
+        <v>9.718057919015797E-05</v>
       </c>
       <c r="DZ6">
-        <v>0.003493568913601396</v>
+        <v>0.003447809641696409</v>
       </c>
       <c r="EA6">
-        <v>0.002632594710249393</v>
+        <v>0.002573830477298042</v>
       </c>
       <c r="EB6">
-        <v>0.0404222761573747</v>
+        <v>0.0409343226795668</v>
       </c>
       <c r="EC6">
-        <v>0.02256934708786849</v>
+        <v>0.02281172624231773</v>
       </c>
       <c r="ED6">
-        <v>0.01198303054665313</v>
+        <v>0.01206550405734791</v>
       </c>
       <c r="EE6">
-        <v>0.01195325504653721</v>
+        <v>0.01203527880018046</v>
       </c>
       <c r="EF6">
-        <v>0.001788446206962898</v>
+        <v>0.0017169311641036</v>
       </c>
       <c r="EG6">
-        <v>2.944882011465211E-05</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.003446505413418165</v>
+        <v>0.003400035250310857</v>
       </c>
       <c r="EI6">
-        <v>0.005486704421361204</v>
+        <v>0.005471051335608632</v>
       </c>
       <c r="EJ6">
-        <v>0.001246100804851403</v>
+        <v>0.001166393668894919</v>
       </c>
       <c r="EK6">
-        <v>0.001430921005570957</v>
+        <v>0.0013540055670911</v>
       </c>
       <c r="EL6">
-        <v>0.01772881006902299</v>
+        <v>0.0178980732170594</v>
       </c>
       <c r="EM6">
-        <v>0.02949330011482528</v>
+        <v>0.02984026514310427</v>
       </c>
       <c r="EN6">
-        <v>0.0207073150806191</v>
+        <v>0.02092156835902342</v>
       </c>
       <c r="EO6">
-        <v>0.01930759807516963</v>
+        <v>0.01950070871647641</v>
       </c>
       <c r="EP6">
-        <v>0.01654670206442073</v>
+        <v>0.01669810954559442</v>
       </c>
       <c r="EQ6">
-        <v>0.0001203209104684414</v>
+        <v>2.360894020190408E-05</v>
       </c>
       <c r="ER6">
-        <v>0.005903022022982039</v>
+        <v>0.005893657388347882</v>
       </c>
       <c r="ES6">
-        <v>0.001558805006068843</v>
+        <v>0.00148382124735181</v>
       </c>
       <c r="ET6">
-        <v>0.0003122582312157046</v>
+        <v>0.0002184454620749891</v>
       </c>
       <c r="EU6">
-        <v>0.00340884181327153</v>
+        <v>0.003361802743859172</v>
       </c>
       <c r="EV6">
-        <v>0.01462835605695209</v>
+        <v>0.01475078704265885</v>
       </c>
       <c r="EW6">
-        <v>0.01198303054665313</v>
+        <v>0.01206550405734791</v>
       </c>
       <c r="EX6">
-        <v>0.008413725032756876</v>
+        <v>0.008442284408753919</v>
       </c>
       <c r="EY6">
-        <v>0.003816158714857324</v>
+        <v>0.003775272141556958</v>
       </c>
       <c r="EZ6">
-        <v>0.001843271807176349</v>
+        <v>0.00177258490155083</v>
       </c>
       <c r="FA6">
-        <v>0.001292190905030844</v>
+        <v>0.001213179957131009</v>
       </c>
       <c r="FB6">
-        <v>0.000813629073167675</v>
+        <v>0.0007273894789768978</v>
       </c>
       <c r="FC6">
-        <v>0.00010552834041085</v>
+        <v>8.592929306450587E-06</v>
       </c>
       <c r="FD6">
-        <v>0.001185106004613934</v>
+        <v>0.001104477546046353</v>
       </c>
       <c r="FE6">
-        <v>0.004125262016060746</v>
+        <v>0.004089044428632202</v>
       </c>
       <c r="FF6">
-        <v>0.0009342482036372774</v>
+        <v>0.0008498305538056883</v>
       </c>
       <c r="FG6">
-        <v>0.01197298154661401</v>
+        <v>0.01205530326779692</v>
       </c>
       <c r="FH6">
-        <v>0.01616068206291784</v>
+        <v>0.01630625873631226</v>
       </c>
       <c r="FI6">
-        <v>0.007466726529069958</v>
+        <v>0.007480981552388995</v>
       </c>
       <c r="FJ6">
-        <v>0.003818130814865002</v>
+        <v>0.003777274030010886</v>
       </c>
       <c r="FK6">
-        <v>0.006356814424748774</v>
+        <v>0.006354304295725977</v>
       </c>
       <c r="FL6">
-        <v>0.000437835641704611</v>
+        <v>0.0003459197114300931</v>
       </c>
       <c r="FM6">
-        <v>0.008438708032854141</v>
+        <v>0.008467644775492162</v>
       </c>
       <c r="FN6">
-        <v>0.005575029621705077</v>
+        <v>0.005560710682533683</v>
       </c>
       <c r="FO6">
-        <v>0.009769334038034622</v>
+        <v>0.009818369802568165</v>
       </c>
       <c r="FP6">
-        <v>0.01090601104246001</v>
+        <v>0.0109722162414636</v>
       </c>
       <c r="FQ6">
-        <v>0.005231328020366956</v>
+        <v>0.005211817490182065</v>
       </c>
       <c r="FR6">
-        <v>0.004389530517089612</v>
+        <v>0.004357304688703652</v>
       </c>
       <c r="FS6">
-        <v>0.002736430610653654</v>
+        <v>0.002679234812429748</v>
       </c>
       <c r="FT6">
-        <v>0.0002887956011243583</v>
+        <v>0.0001946284304357274</v>
       </c>
       <c r="FU6">
-        <v>0.0002673444710408434</v>
+        <v>0.0001728532823850649</v>
       </c>
       <c r="FV6">
-        <v>0.0002021854607871619</v>
+        <v>0.0001067100493905979</v>
       </c>
       <c r="FW6">
-        <v>0.0002047584107971791</v>
+        <v>0.0001093218636482595</v>
       </c>
       <c r="FX6">
-        <v>0.0004484034717457543</v>
+        <v>0.0003566471678775731</v>
       </c>
       <c r="FY6">
-        <v>0.000344206061340086</v>
+        <v>0.0002508758621586863</v>
       </c>
       <c r="FZ6">
-        <v>0.0007704595329996044</v>
+        <v>0.0006835678656269717</v>
       </c>
       <c r="GA6">
-        <v>0.003229657012573916</v>
+        <v>0.003179911368046879</v>
       </c>
       <c r="GB6">
-        <v>0.002411820009389859</v>
+        <v>0.00234972098850465</v>
       </c>
       <c r="GC6">
-        <v>0.001487629705791739</v>
+        <v>0.00141157084865252</v>
       </c>
       <c r="GD6">
-        <v>0.000980175803816086</v>
+        <v>0.000896451887488884</v>
       </c>
       <c r="GE6">
-        <v>0.000653059802542536</v>
+        <v>0.0005643948196448809</v>
       </c>
       <c r="GF6">
-        <v>0.0006555914325523923</v>
+        <v>0.0005669646897663849</v>
       </c>
       <c r="GG6">
-        <v>0.0008030769031265925</v>
+        <v>0.0007166779190727919</v>
       </c>
       <c r="GH6">
-        <v>0.0003423722813329466</v>
+        <v>0.000249014383020182</v>
       </c>
       <c r="GI6">
-        <v>0.0009486727636934361</v>
+        <v>0.0008644729959318449</v>
       </c>
       <c r="GJ6">
-        <v>0.0002920466011370153</v>
+        <v>0.0001979285365985591</v>
       </c>
       <c r="GK6">
-        <v>0.0002672271510403866</v>
+        <v>0.0001727341902733997</v>
       </c>
       <c r="GL6">
-        <v>1.731240406740181E-06</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0004999522019464472</v>
+        <v>0.0004089745383971508</v>
       </c>
       <c r="GN6">
-        <v>0.0007875236330660395</v>
+        <v>0.0007008897178488038</v>
       </c>
       <c r="GO6">
-        <v>0.0006978815727170391</v>
+        <v>0.0006098936198312928</v>
       </c>
       <c r="GP6">
-        <v>0.003787172714744473</v>
+        <v>0.003745848309740335</v>
       </c>
       <c r="GQ6">
-        <v>0.00356221431386865</v>
+        <v>0.003517491926405744</v>
       </c>
       <c r="GR6">
-        <v>0.001571530506118387</v>
+        <v>0.0014967389652771</v>
       </c>
       <c r="GS6">
-        <v>8.389220032661471E-05</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.737572284463269E-05</v>
+        <v>7.963256557315636E-06</v>
       </c>
       <c r="C2">
-        <v>3.260914631493109E-05</v>
+        <v>7.963256557315636E-06</v>
       </c>
       <c r="D2">
-        <v>3.555930469818785E-05</v>
+        <v>7.963256557315636E-06</v>
       </c>
       <c r="E2">
-        <v>0.0001201581802180581</v>
+        <v>7.335452351905304E-05</v>
       </c>
       <c r="F2">
-        <v>0.0003168878391015448</v>
+        <v>0.0002512779997808961</v>
       </c>
       <c r="G2">
-        <v>0.0005799990676082917</v>
+        <v>0.0004958206903426197</v>
       </c>
       <c r="H2">
-        <v>0.0007757039864975942</v>
+        <v>0.0006727157580618257</v>
       </c>
       <c r="I2">
-        <v>0.001044182164973882</v>
+        <v>0.0009226446121654291</v>
       </c>
       <c r="J2">
-        <v>0.001478812832507192</v>
+        <v>0.001339320777876287</v>
       </c>
       <c r="K2">
-        <v>0.002031908129368173</v>
+        <v>0.001874885673891746</v>
       </c>
       <c r="L2">
-        <v>0.002522367226584637</v>
+        <v>0.002347590133934839</v>
       </c>
       <c r="M2">
-        <v>0.002873040924594435</v>
+        <v>0.002680008765869399</v>
       </c>
       <c r="N2">
-        <v>0.003150584453019273</v>
+        <v>0.002939035423691014</v>
       </c>
       <c r="O2">
-        <v>0.003318682912065252</v>
+        <v>0.003088225200999025</v>
       </c>
       <c r="P2">
-        <v>0.003381950931706183</v>
+        <v>0.003132209248049213</v>
       </c>
       <c r="Q2">
-        <v>0.003406681938565825</v>
+        <v>0.003137518320591805</v>
       </c>
       <c r="R2">
-        <v>0.003414401218522016</v>
+        <v>0.003137518320591805</v>
       </c>
       <c r="S2">
-        <v>0.003416139280312151</v>
+        <v>0.003137518320591805</v>
       </c>
       <c r="T2">
-        <v>0.003435580153201817</v>
+        <v>0.003137518320591805</v>
       </c>
       <c r="U2">
-        <v>0.003481888544939</v>
+        <v>0.003164482024613374</v>
       </c>
       <c r="V2">
-        <v>0.003550553444549302</v>
+        <v>0.003213882272354067</v>
       </c>
       <c r="W2">
-        <v>0.003667020903888306</v>
+        <v>0.003311256212020438</v>
       </c>
       <c r="X2">
-        <v>0.003795631833158392</v>
+        <v>0.003420817094994631</v>
       </c>
       <c r="Y2">
-        <v>0.003917287542467951</v>
+        <v>0.003523397858461514</v>
       </c>
       <c r="Z2">
-        <v>0.004100493101428192</v>
+        <v>0.003687748818795924</v>
       </c>
       <c r="AA2">
-        <v>0.004354295959987767</v>
+        <v>0.003922949815634335</v>
       </c>
       <c r="AB2">
-        <v>0.004580348248704837</v>
+        <v>0.004130300896151488</v>
       </c>
       <c r="AC2">
-        <v>0.004826632167307085</v>
+        <v>0.004357956035379603</v>
       </c>
       <c r="AD2">
-        <v>0.005047762006052092</v>
+        <v>0.004560367043653354</v>
       </c>
       <c r="AE2">
-        <v>0.005149712035473488</v>
+        <v>0.004643171581296641</v>
       </c>
       <c r="AF2">
-        <v>0.005205962121154248</v>
+        <v>0.004680112570325025</v>
       </c>
       <c r="AG2">
-        <v>0.005234693903991184</v>
+        <v>0.004689436741541989</v>
       </c>
       <c r="AH2">
-        <v>0.005241734677651226</v>
+        <v>0.004689436741541989</v>
       </c>
       <c r="AI2">
-        <v>0.005248189343314593</v>
+        <v>0.004689436741541989</v>
       </c>
       <c r="AJ2">
-        <v>0.005267764310203498</v>
+        <v>0.004689571315595034</v>
       </c>
       <c r="AK2">
-        <v>0.005277765249146739</v>
+        <v>0.004689571315595034</v>
       </c>
       <c r="AL2">
-        <v>0.005329141123855162</v>
+        <v>0.004721620644074386</v>
       </c>
       <c r="AM2">
-        <v>0.005451131909162819</v>
+        <v>0.004824537683104663</v>
       </c>
       <c r="AN2">
-        <v>0.005632771358131949</v>
+        <v>0.004987316926805869</v>
       </c>
       <c r="AO2">
-        <v>0.005931420226437006</v>
+        <v>0.005267524481197599</v>
       </c>
       <c r="AP2">
-        <v>0.006198103424923481</v>
+        <v>0.005515651929319331</v>
       </c>
       <c r="AQ2">
-        <v>0.006435192683577912</v>
+        <v>0.005734079491902988</v>
       </c>
       <c r="AR2">
-        <v>0.006646549752378383</v>
+        <v>0.005926682743913464</v>
       </c>
       <c r="AS2">
-        <v>0.006823779531372539</v>
+        <v>0.006085036531110376</v>
       </c>
       <c r="AT2">
-        <v>0.007011884160304976</v>
+        <v>0.006254304099988394</v>
       </c>
       <c r="AU2">
-        <v>0.007163343419445389</v>
+        <v>0.00638679510939172</v>
       </c>
       <c r="AV2">
-        <v>0.007237518919024416</v>
+        <v>0.006441725684937569</v>
       </c>
       <c r="AW2">
-        <v>0.007265826818863758</v>
+        <v>0.006450624455664382</v>
       </c>
       <c r="AX2">
-        <v>0.007266948727657391</v>
+        <v>0.006450624455664382</v>
       </c>
       <c r="AY2">
-        <v>0.007268116423950763</v>
+        <v>0.006450624455664382</v>
       </c>
       <c r="AZ2">
-        <v>0.00728628847884763</v>
+        <v>0.006450624455664382</v>
       </c>
       <c r="BA2">
-        <v>0.00732846201860828</v>
+        <v>0.006473438505022974</v>
       </c>
       <c r="BB2">
-        <v>0.007359187896433899</v>
+        <v>0.006484763910048348</v>
       </c>
       <c r="BC2">
-        <v>0.007407001811162537</v>
+        <v>0.006513238526803231</v>
       </c>
       <c r="BD2">
-        <v>0.007444111348951927</v>
+        <v>0.006530970445165931</v>
       </c>
       <c r="BE2">
-        <v>0.007513383783558781</v>
+        <v>0.006580980402866175</v>
       </c>
       <c r="BF2">
-        <v>0.007629851242897785</v>
+        <v>0.006678354342532546</v>
       </c>
       <c r="BG2">
-        <v>0.007799933121932508</v>
+        <v>0.006829534640432743</v>
       </c>
       <c r="BH2">
-        <v>0.007963870121002106</v>
+        <v>0.006974548059821826</v>
       </c>
       <c r="BI2">
-        <v>0.00811994210011634</v>
+        <v>0.007111668302643183</v>
       </c>
       <c r="BJ2">
-        <v>0.008232495524477558</v>
+        <v>0.007205114195165712</v>
       </c>
       <c r="BK2">
-        <v>0.008345826403834364</v>
+        <v>0.007299340325956988</v>
       </c>
       <c r="BL2">
-        <v>0.008445207529270339</v>
+        <v>0.007379566762990545</v>
       </c>
       <c r="BM2">
-        <v>0.008482764054057191</v>
+        <v>0.007397747268555118</v>
       </c>
       <c r="BN2">
-        <v>0.008489141817020995</v>
+        <v>0.007397747268555118</v>
       </c>
       <c r="BO2">
-        <v>0.008489145000379176</v>
+        <v>0.007397747268555118</v>
       </c>
       <c r="BP2">
-        <v>0.008491123780467945</v>
+        <v>0.007397747268555118</v>
       </c>
       <c r="BQ2">
-        <v>0.008495238649144591</v>
+        <v>0.007397747268555118</v>
       </c>
       <c r="BR2">
-        <v>0.008519607188006291</v>
+        <v>0.007402692575471665</v>
       </c>
       <c r="BS2">
-        <v>0.0085912838825995</v>
+        <v>0.007455115400360386</v>
       </c>
       <c r="BT2">
-        <v>0.008693540662019156</v>
+        <v>0.007538227786160722</v>
       </c>
       <c r="BU2">
-        <v>0.008907030160807525</v>
+        <v>0.007732971102215323</v>
       </c>
       <c r="BV2">
-        <v>0.009213953099065624</v>
+        <v>0.008021482347563174</v>
       </c>
       <c r="BW2">
-        <v>0.009591849296920925</v>
+        <v>0.008381220935342083</v>
       </c>
       <c r="BX2">
-        <v>0.00995915489483633</v>
+        <v>0.008730331009047517</v>
       </c>
       <c r="BY2">
-        <v>0.01032646049275173</v>
+        <v>0.009079441082752951</v>
       </c>
       <c r="BZ2">
-        <v>0.01069516949065918</v>
+        <v>0.009429959580594007</v>
       </c>
       <c r="CA2">
-        <v>0.01084753039979447</v>
+        <v>0.00956335546788096</v>
       </c>
       <c r="CB2">
-        <v>0.01096196593314501</v>
+        <v>0.009658690207304923</v>
       </c>
       <c r="CC2">
-        <v>0.01106348429256885</v>
+        <v>0.0097410615295808</v>
       </c>
       <c r="CD2">
-        <v>0.01110281650734563</v>
+        <v>0.009761024082069544</v>
       </c>
       <c r="CE2">
-        <v>0.01110426976933738</v>
+        <v>0.009761024082069544</v>
       </c>
       <c r="CF2">
-        <v>0.01110630920792581</v>
+        <v>0.009761024082069544</v>
       </c>
       <c r="CG2">
-        <v>0.01111839488785722</v>
+        <v>0.009761024082069544</v>
       </c>
       <c r="CH2">
-        <v>0.01116371298260002</v>
+        <v>0.009786993943853524</v>
       </c>
       <c r="CI2">
-        <v>0.01126309410803599</v>
+        <v>0.009867220380887082</v>
       </c>
       <c r="CJ2">
-        <v>0.01141328210718362</v>
+        <v>0.009998435579212562</v>
       </c>
       <c r="CK2">
-        <v>0.01166244453576953</v>
+        <v>0.01022897953343186</v>
       </c>
       <c r="CL2">
-        <v>0.01198112155396092</v>
+        <v>0.01052928693808143</v>
       </c>
       <c r="CM2">
-        <v>0.01236628375177499</v>
+        <v>0.01089631753795199</v>
       </c>
       <c r="CN2">
-        <v>0.06734738843973698</v>
+        <v>0.06605474299782992</v>
       </c>
       <c r="CO2">
-        <v>0.0723774351111896</v>
+        <v>0.07108328666380744</v>
       </c>
       <c r="CP2">
-        <v>0.2573177740615851</v>
+        <v>0.2566661978162283</v>
       </c>
       <c r="CQ2">
-        <v>0.3250968376769139</v>
+        <v>0.3246683986375821</v>
       </c>
       <c r="CR2">
-        <v>0.3256277929439006</v>
+        <v>0.3251817442428641</v>
       </c>
       <c r="CS2">
-        <v>0.337465722876716</v>
+        <v>0.337042543254584</v>
       </c>
       <c r="CT2">
-        <v>0.353417823786182</v>
+        <v>0.353032241891838</v>
       </c>
       <c r="CU2">
-        <v>0.3910849895724069</v>
+        <v>0.3908147448989017</v>
       </c>
       <c r="CV2">
-        <v>0.4028586540055871</v>
+        <v>0.4026110483417975</v>
       </c>
       <c r="CW2">
-        <v>0.4389802198005839</v>
+        <v>0.4388424181409257</v>
       </c>
       <c r="CX2">
-        <v>0.4411095309884993</v>
+        <v>0.4409598417490051</v>
       </c>
       <c r="CY2">
-        <v>0.4417983904845897</v>
+        <v>0.4416316568773374</v>
       </c>
       <c r="CZ2">
-        <v>0.4445055509692256</v>
+        <v>0.4443289984709319</v>
       </c>
       <c r="DA2">
-        <v>0.4525696049234592</v>
+        <v>0.4524024111043969</v>
       </c>
       <c r="DB2">
-        <v>0.4525793758514037</v>
+        <v>0.4524024111043969</v>
       </c>
       <c r="DC2">
-        <v>0.4678912557645031</v>
+        <v>0.4677495967670664</v>
       </c>
       <c r="DD2">
-        <v>0.4681628415029618</v>
+        <v>0.4680026443061542</v>
       </c>
       <c r="DE2">
-        <v>0.4717374444826746</v>
+        <v>0.4715705338214132</v>
       </c>
       <c r="DF2">
-        <v>0.4722353598798487</v>
+        <v>0.4720507212748171</v>
       </c>
       <c r="DG2">
-        <v>0.476479443855762</v>
+        <v>0.476290488514702</v>
       </c>
       <c r="DH2">
-        <v>0.4815021512272563</v>
+        <v>0.4813116666061758</v>
       </c>
       <c r="DI2">
-        <v>0.4835379912157021</v>
+        <v>0.4833352843897821</v>
       </c>
       <c r="DJ2">
-        <v>0.4835684803315291</v>
+        <v>0.4833463721852056</v>
       </c>
       <c r="DK2">
-        <v>0.4982178122483887</v>
+        <v>0.4980286379432094</v>
       </c>
       <c r="DL2">
-        <v>0.5017007884286215</v>
+        <v>0.5015045726368995</v>
       </c>
       <c r="DM2">
-        <v>0.5045139642126557</v>
+        <v>0.50430830906252</v>
       </c>
       <c r="DN2">
-        <v>0.5048113501809679</v>
+        <v>0.5045872491957625</v>
       </c>
       <c r="DO2">
-        <v>0.5095277971542004</v>
+        <v>0.509301070482943</v>
       </c>
       <c r="DP2">
-        <v>0.5099093784020348</v>
+        <v>0.5096645073131054</v>
       </c>
       <c r="DQ2">
-        <v>0.5142080393776383</v>
+        <v>0.5139590469372357</v>
       </c>
       <c r="DR2">
-        <v>0.5142099756816273</v>
+        <v>0.5139590469372357</v>
       </c>
       <c r="DS2">
-        <v>0.5155911838737884</v>
+        <v>0.5153256893559671</v>
       </c>
       <c r="DT2">
-        <v>0.5208866568437347</v>
+        <v>0.5206206095412184</v>
       </c>
       <c r="DU2">
-        <v>0.5270107635089781</v>
+        <v>0.526747129913636</v>
       </c>
       <c r="DV2">
-        <v>0.5285310141003502</v>
+        <v>0.5282533125005553</v>
       </c>
       <c r="DW2">
-        <v>0.5407695750308918</v>
+        <v>0.5405161767608703</v>
       </c>
       <c r="DX2">
-        <v>0.543068965017842</v>
+        <v>0.5428042880466449</v>
       </c>
       <c r="DY2">
-        <v>0.5500121549784368</v>
+        <v>0.5497528240160446</v>
       </c>
       <c r="DZ2">
-        <v>0.5528444342623626</v>
+        <v>0.5525757323316999</v>
       </c>
       <c r="EA2">
-        <v>0.5532007264603406</v>
+        <v>0.5529137895777188</v>
       </c>
       <c r="EB2">
-        <v>0.6005597311915608</v>
+        <v>0.6004228281171741</v>
       </c>
       <c r="EC2">
-        <v>0.6185806780892853</v>
+        <v>0.6184887791694801</v>
       </c>
       <c r="ED2">
-        <v>0.6261882410461096</v>
+        <v>0.6261040665769981</v>
       </c>
       <c r="EE2">
-        <v>0.6360072359903832</v>
+        <v>0.6359387028537522</v>
       </c>
       <c r="EF2">
-        <v>0.6360761526999921</v>
+        <v>0.6359883558129662</v>
       </c>
       <c r="EG2">
-        <v>0.6364448616978995</v>
+        <v>0.6363388743108073</v>
       </c>
       <c r="EH2">
-        <v>0.6409061179725802</v>
+        <v>0.6407965913218968</v>
       </c>
       <c r="EI2">
-        <v>0.6457413692451384</v>
+        <v>0.6456296422253918</v>
       </c>
       <c r="EJ2">
-        <v>0.6463304473417951</v>
+        <v>0.6462013187388985</v>
       </c>
       <c r="EK2">
-        <v>0.6499112423214728</v>
+        <v>0.649775422421357</v>
       </c>
       <c r="EL2">
-        <v>0.6790209401562646</v>
+        <v>0.6789698219148044</v>
       </c>
       <c r="EM2">
-        <v>0.7279192398787487</v>
+        <v>0.7280236660904587</v>
       </c>
       <c r="EN2">
-        <v>0.7515143397448378</v>
+        <v>0.7516837254660135</v>
       </c>
       <c r="EO2">
-        <v>0.7658641696633972</v>
+        <v>0.7660654170146208</v>
       </c>
       <c r="EP2">
-        <v>0.7861095125484975</v>
+        <v>0.7863637273469468</v>
       </c>
       <c r="EQ2">
-        <v>0.7893071597303497</v>
+        <v>0.7895533115702131</v>
       </c>
       <c r="ER2">
-        <v>0.7913298179188704</v>
+        <v>0.7915637003633171</v>
       </c>
       <c r="ES2">
-        <v>0.793096293308845</v>
+        <v>0.7933169892286378</v>
       </c>
       <c r="ET2">
-        <v>0.7938439585046018</v>
+        <v>0.7940478205798517</v>
       </c>
       <c r="EU2">
-        <v>0.8007172247655935</v>
+        <v>0.8009261825242179</v>
       </c>
       <c r="EV2">
-        <v>0.8204155186537985</v>
+        <v>0.8206754854353043</v>
       </c>
       <c r="EW2">
-        <v>0.8425025895284463</v>
+        <v>0.8428221171061298</v>
       </c>
       <c r="EX2">
-        <v>0.859028789434654</v>
+        <v>0.8593879700029221</v>
       </c>
       <c r="EY2">
-        <v>0.8652482113993565</v>
+        <v>0.8656101469016431</v>
       </c>
       <c r="EZ2">
-        <v>0.8697143553740094</v>
+        <v>0.8700727691105719</v>
       </c>
       <c r="FA2">
-        <v>0.8697302390019193</v>
+        <v>0.8700727691105719</v>
       </c>
       <c r="FB2">
-        <v>0.8711688962937544</v>
+        <v>0.8714970662955921</v>
       </c>
       <c r="FC2">
-        <v>0.8714670207720624</v>
+        <v>0.8717767475826812</v>
       </c>
       <c r="FD2">
-        <v>0.8715229503487449</v>
+        <v>0.8718133669152957</v>
       </c>
       <c r="FE2">
-        <v>0.8738118285357547</v>
+        <v>0.8740909287690988</v>
       </c>
       <c r="FF2">
-        <v>0.8753592975269722</v>
+        <v>0.8756244271971845</v>
       </c>
       <c r="FG2">
-        <v>0.8839467164782354</v>
+        <v>0.884223078463783</v>
       </c>
       <c r="FH2">
-        <v>0.9004439163846077</v>
+        <v>0.9007598275413271</v>
       </c>
       <c r="FI2">
-        <v>0.9085534623385831</v>
+        <v>0.908878895034973</v>
       </c>
       <c r="FJ2">
-        <v>0.9111513650238391</v>
+        <v>0.9114665876884757</v>
       </c>
       <c r="FK2">
-        <v>0.9192050104781316</v>
+        <v>0.9195295545597805</v>
       </c>
       <c r="FL2">
-        <v>0.9198474742144854</v>
+        <v>0.9201548078324946</v>
       </c>
       <c r="FM2">
-        <v>0.9278918321688308</v>
+        <v>0.9282084539547902</v>
       </c>
       <c r="FN2">
-        <v>0.9341922871330733</v>
+        <v>0.9345119539495507</v>
       </c>
       <c r="FO2">
-        <v>0.9428210070841022</v>
+        <v>0.9431520540726587</v>
       </c>
       <c r="FP2">
-        <v>0.9548908870156012</v>
+        <v>0.9552456334593661</v>
       </c>
       <c r="FQ2">
-        <v>0.9580723589975452</v>
+        <v>0.9584189845758357</v>
       </c>
       <c r="FR2">
-        <v>0.9610468691806637</v>
+        <v>0.9613846329744261</v>
       </c>
       <c r="FS2">
-        <v>0.9629036357701259</v>
+        <v>0.9632285362799022</v>
       </c>
       <c r="FT2">
-        <v>0.9643506293619137</v>
+        <v>0.9646611996086604</v>
       </c>
       <c r="FU2">
-        <v>0.9656499347545398</v>
+        <v>0.9659456460174909</v>
       </c>
       <c r="FV2">
-        <v>0.9657170415741589</v>
+        <v>0.9659934826073455</v>
       </c>
       <c r="FW2">
-        <v>0.9661764169215518</v>
+        <v>0.9664349920383694</v>
       </c>
       <c r="FX2">
-        <v>0.9680916868106819</v>
+        <v>0.968337608084143</v>
       </c>
       <c r="FY2">
-        <v>0.9688461988063998</v>
+        <v>0.9690753107467235</v>
       </c>
       <c r="FZ2">
-        <v>0.9698587838006529</v>
+        <v>0.9700720103039542</v>
       </c>
       <c r="GA2">
-        <v>0.9733503997808367</v>
+        <v>0.9735566157279043</v>
       </c>
       <c r="GB2">
-        <v>0.9761188037651249</v>
+        <v>0.9763154200716413</v>
       </c>
       <c r="GC2">
-        <v>0.9786851092505602</v>
+        <v>0.978871402407987</v>
       </c>
       <c r="GD2">
-        <v>0.9793100782470132</v>
+        <v>0.9794790983099854</v>
       </c>
       <c r="GE2">
-        <v>0.9793184372929657</v>
+        <v>0.9794790983099854</v>
       </c>
       <c r="GF2">
-        <v>0.9793389953018491</v>
+        <v>0.9794802194453033</v>
       </c>
       <c r="GG2">
-        <v>0.979722601359672</v>
+        <v>0.979845688334233</v>
       </c>
       <c r="GH2">
-        <v>0.9797226677170217</v>
+        <v>0.979845688334233</v>
       </c>
       <c r="GI2">
-        <v>0.9797231742520788</v>
+        <v>0.979845688334233</v>
       </c>
       <c r="GJ2">
-        <v>0.9808817056455037</v>
+        <v>0.9809888567757926</v>
       </c>
       <c r="GK2">
-        <v>0.9838902261284292</v>
+        <v>0.9839886372303754</v>
       </c>
       <c r="GL2">
-        <v>0.984928780222535</v>
+        <v>0.9850113988563111</v>
       </c>
       <c r="GM2">
-        <v>0.9871022022102001</v>
+        <v>0.987173091179911</v>
       </c>
       <c r="GN2">
-        <v>0.9889731812995816</v>
+        <v>0.9890312578657687</v>
       </c>
       <c r="GO2">
-        <v>0.989335018367528</v>
+        <v>0.9893748798322786</v>
       </c>
       <c r="GP2">
-        <v>0.9931429351459167</v>
+        <v>0.9931769184048937</v>
       </c>
       <c r="GQ2">
-        <v>0.9979350441187197</v>
+        <v>0.997966672560073</v>
       </c>
       <c r="GR2">
-        <v>0.9999429239073242</v>
+        <v>0.999962230046888</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.06204392165959E-05</v>
+        <v>6.843120562873279E-05</v>
       </c>
       <c r="C3">
-        <v>0.0001639381081814077</v>
+        <v>0.0001595695018705255</v>
       </c>
       <c r="D3">
-        <v>0.0001900570968916655</v>
+        <v>0.000183479923233088</v>
       </c>
       <c r="E3">
-        <v>0.0002339762364044633</v>
+        <v>0.0002251982287155696</v>
       </c>
       <c r="F3">
-        <v>0.0002844396298446646</v>
+        <v>0.0002734636312919643</v>
       </c>
       <c r="G3">
-        <v>0.0005001225574520585</v>
+        <v>0.0004870203480507383</v>
       </c>
       <c r="H3">
-        <v>0.0008904029731226138</v>
+        <v>0.0008752504071619857</v>
       </c>
       <c r="I3">
-        <v>0.001122507230547843</v>
+        <v>0.001105235588023955</v>
       </c>
       <c r="J3">
-        <v>0.001288422678707316</v>
+        <v>0.001269003203736317</v>
       </c>
       <c r="K3">
-        <v>0.001572430925556766</v>
+        <v>0.001550914923832781</v>
       </c>
       <c r="L3">
-        <v>0.00176581457341153</v>
+        <v>0.001742162672864392</v>
       </c>
       <c r="M3">
-        <v>0.001775265655306687</v>
+        <v>0.001749397946000538</v>
       </c>
       <c r="N3">
-        <v>0.001780012900654025</v>
+        <v>0.001751927338996014</v>
       </c>
       <c r="O3">
-        <v>0.001780670313596732</v>
+        <v>0.001751927338996014</v>
       </c>
       <c r="P3">
-        <v>0.00178213722258046</v>
+        <v>0.001751927338996014</v>
       </c>
       <c r="Q3">
-        <v>0.001784356173355845</v>
+        <v>0.001751927338996014</v>
       </c>
       <c r="R3">
-        <v>0.001850740762619429</v>
+        <v>0.001816120854396762</v>
       </c>
       <c r="S3">
-        <v>0.001910252645959254</v>
+        <v>0.001873438678010497</v>
       </c>
       <c r="T3">
-        <v>0.001917557754578217</v>
+        <v>0.001878527045547313</v>
       </c>
       <c r="U3">
-        <v>0.002040313753216465</v>
+        <v>0.001999116461014101</v>
       </c>
       <c r="V3">
-        <v>0.002220777551214551</v>
+        <v>0.002177438747129879</v>
       </c>
       <c r="W3">
-        <v>0.002242693422971434</v>
+        <v>0.002197144225485022</v>
       </c>
       <c r="X3">
-        <v>0.002330048862002386</v>
+        <v>0.002282317701488138</v>
       </c>
       <c r="Y3">
-        <v>0.002636021178608185</v>
+        <v>0.002586203033682712</v>
       </c>
       <c r="Z3">
-        <v>0.003022476274321176</v>
+        <v>0.002970606110917142</v>
       </c>
       <c r="AA3">
-        <v>0.003593215827989868</v>
+        <v>0.003539373708923439</v>
       </c>
       <c r="AB3">
-        <v>0.004432706618677259</v>
+        <v>0.004377009303555413</v>
       </c>
       <c r="AC3">
-        <v>0.004588468676949366</v>
+        <v>0.004530619118216292</v>
       </c>
       <c r="AD3">
-        <v>0.004618250773618988</v>
+        <v>0.004558194238984088</v>
       </c>
       <c r="AE3">
-        <v>0.004620289385996373</v>
+        <v>0.004558194238984088</v>
       </c>
       <c r="AF3">
-        <v>0.004648669656681546</v>
+        <v>0.004584366924740837</v>
       </c>
       <c r="AG3">
-        <v>0.004836074934602629</v>
+        <v>0.004769633706521889</v>
       </c>
       <c r="AH3">
-        <v>0.004926074213604252</v>
+        <v>0.00485745217111817</v>
       </c>
       <c r="AI3">
-        <v>0.004929084921870854</v>
+        <v>0.004858244272590291</v>
       </c>
       <c r="AJ3">
-        <v>0.004929139259470252</v>
+        <v>0.004858244272590291</v>
       </c>
       <c r="AK3">
-        <v>0.004992665222765548</v>
+        <v>0.004919577920085975</v>
       </c>
       <c r="AL3">
-        <v>0.005047958425152171</v>
+        <v>0.004972675229930648</v>
       </c>
       <c r="AM3">
-        <v>0.0051690304388091</v>
+        <v>0.005091579928804882</v>
       </c>
       <c r="AN3">
-        <v>0.005413620076095827</v>
+        <v>0.005334055913830993</v>
       </c>
       <c r="AO3">
-        <v>0.005687019873062958</v>
+        <v>0.005605354575179137</v>
       </c>
       <c r="AP3">
-        <v>0.005758614618268746</v>
+        <v>0.00567476051008659</v>
       </c>
       <c r="AQ3">
-        <v>0.005894411506762329</v>
+        <v>0.005808396481053982</v>
       </c>
       <c r="AR3">
-        <v>0.006119094904269879</v>
+        <v>0.006030957577988228</v>
       </c>
       <c r="AS3">
-        <v>0.006148877000939502</v>
+        <v>0.006058532698756023</v>
       </c>
       <c r="AT3">
-        <v>0.006218356360168755</v>
+        <v>0.00612582232865253</v>
       </c>
       <c r="AU3">
-        <v>0.006227220120070429</v>
+        <v>0.006132470024631771</v>
       </c>
       <c r="AV3">
-        <v>0.006227286656023691</v>
+        <v>0.006132470024631771</v>
       </c>
       <c r="AW3">
-        <v>0.006319291935003061</v>
+        <v>0.006222295360717206</v>
       </c>
       <c r="AX3">
-        <v>0.006564460182283369</v>
+        <v>0.006465350207115371</v>
       </c>
       <c r="AY3">
-        <v>0.006583502067072134</v>
+        <v>0.006482180449891998</v>
       </c>
       <c r="AZ3">
-        <v>0.006620673256659788</v>
+        <v>0.006517147873786621</v>
       </c>
       <c r="BA3">
-        <v>0.00662829398727525</v>
+        <v>0.006522552000442654</v>
       </c>
       <c r="BB3">
-        <v>0.006664764083870681</v>
+        <v>0.006556818026753554</v>
       </c>
       <c r="BC3">
-        <v>0.006733523013107927</v>
+        <v>0.006623386913665549</v>
       </c>
       <c r="BD3">
-        <v>0.006837238631957392</v>
+        <v>0.006724927677205777</v>
       </c>
       <c r="BE3">
-        <v>0.006959355390602731</v>
+        <v>0.006844877574960339</v>
       </c>
       <c r="BF3">
-        <v>0.007173886008222908</v>
+        <v>0.007057281481108112</v>
       </c>
       <c r="BG3">
-        <v>0.007403042435680838</v>
+        <v>0.007284317551311119</v>
       </c>
       <c r="BH3">
-        <v>0.007697999912408826</v>
+        <v>0.007577183258204793</v>
       </c>
       <c r="BI3">
-        <v>0.007839332040841005</v>
+        <v>0.007716356873908791</v>
       </c>
       <c r="BJ3">
-        <v>0.007887019437312001</v>
+        <v>0.007761845073477568</v>
       </c>
       <c r="BK3">
-        <v>0.007888790320192357</v>
+        <v>0.007761845073477568</v>
       </c>
       <c r="BL3">
-        <v>0.007914656017905424</v>
+        <v>0.007785502093800071</v>
       </c>
       <c r="BM3">
-        <v>0.007920120795844802</v>
+        <v>0.007788749331121309</v>
       </c>
       <c r="BN3">
-        <v>0.007951987405491301</v>
+        <v>0.007818409870487545</v>
       </c>
       <c r="BO3">
-        <v>0.007966290555332633</v>
+        <v>0.007830499319562197</v>
       </c>
       <c r="BP3">
-        <v>0.008083891644028065</v>
+        <v>0.007945931585523423</v>
       </c>
       <c r="BQ3">
-        <v>0.008400936690511032</v>
+        <v>0.008260894458168702</v>
       </c>
       <c r="BR3">
-        <v>0.008614503758141897</v>
+        <v>0.008472334395710605</v>
       </c>
       <c r="BS3">
-        <v>0.008709784887084928</v>
+        <v>0.008565437004960421</v>
       </c>
       <c r="BT3">
-        <v>0.008852742485499075</v>
+        <v>0.008706236796835643</v>
       </c>
       <c r="BU3">
-        <v>0.009062109143176537</v>
+        <v>0.008913474499546159</v>
       </c>
       <c r="BV3">
-        <v>0.009341753140074401</v>
+        <v>0.009191020073632381</v>
       </c>
       <c r="BW3">
-        <v>0.009477550028567984</v>
+        <v>0.009324656044599772</v>
       </c>
       <c r="BX3">
-        <v>0.00964833757667341</v>
+        <v>0.009493297876953367</v>
       </c>
       <c r="BY3">
-        <v>0.009855619654373995</v>
+        <v>0.009698450094036333</v>
       </c>
       <c r="BZ3">
-        <v>0.00996461346316491</v>
+        <v>0.009805271340640043</v>
       </c>
       <c r="CA3">
-        <v>0.009966652075542296</v>
+        <v>0.009805271340640043</v>
       </c>
       <c r="CB3">
-        <v>0.009985946889328256</v>
+        <v>0.009822354622299462</v>
       </c>
       <c r="CC3">
-        <v>0.01003896152374016</v>
+        <v>0.009873172374240196</v>
       </c>
       <c r="CD3">
-        <v>0.01019400340202025</v>
+        <v>0.01002606169602517</v>
       </c>
       <c r="CE3">
-        <v>0.01041193199960273</v>
+        <v>0.01024186505839564</v>
       </c>
       <c r="CF3">
-        <v>0.01057388287780619</v>
+        <v>0.01040166638173524</v>
       </c>
       <c r="CG3">
-        <v>0.0107926651453792</v>
+        <v>0.01061832378497517</v>
       </c>
       <c r="CH3">
-        <v>0.01102269693282742</v>
+        <v>0.01084623559547067</v>
       </c>
       <c r="CI3">
-        <v>0.01114354022648688</v>
+        <v>0.0109649114749795</v>
       </c>
       <c r="CJ3">
-        <v>0.0114076026235576</v>
+        <v>0.01122686867977588</v>
       </c>
       <c r="CK3">
-        <v>0.01168305044050201</v>
+        <v>0.0115002162508684</v>
       </c>
       <c r="CL3">
-        <v>0.01178297709939351</v>
+        <v>0.0115979664083281</v>
       </c>
       <c r="CM3">
-        <v>0.01243952924211027</v>
+        <v>0.01225258387686359</v>
       </c>
       <c r="CN3">
-        <v>0.1292580379462234</v>
+        <v>0.1291196247420163</v>
       </c>
       <c r="CO3">
-        <v>0.1333661344006516</v>
+        <v>0.1332272860538069</v>
       </c>
       <c r="CP3">
-        <v>0.290514682657377</v>
+        <v>0.2904418879521047</v>
       </c>
       <c r="CQ3">
-        <v>0.317285764360401</v>
+        <v>0.3172223804997317</v>
       </c>
       <c r="CR3">
-        <v>0.3173693070994743</v>
+        <v>0.3173037396193407</v>
       </c>
       <c r="CS3">
-        <v>0.3247238100178895</v>
+        <v>0.3246592178040416</v>
       </c>
       <c r="CT3">
-        <v>0.3578245196506979</v>
+        <v>0.3577720882031933</v>
       </c>
       <c r="CU3">
-        <v>0.3780876774259154</v>
+        <v>0.3780418294401579</v>
       </c>
       <c r="CV3">
-        <v>0.4034655651443944</v>
+        <v>0.4034285227268368</v>
       </c>
       <c r="CW3">
-        <v>0.4220149589386229</v>
+        <v>0.4219837554340204</v>
       </c>
       <c r="CX3">
-        <v>0.4338009568078789</v>
+        <v>0.4337726538429655</v>
       </c>
       <c r="CY3">
-        <v>0.4339824776058652</v>
+        <v>0.4339520335882857</v>
       </c>
       <c r="CZ3">
-        <v>0.4344779022703694</v>
+        <v>0.4344454535763967</v>
       </c>
       <c r="DA3">
-        <v>0.4465066001369331</v>
+        <v>0.4464771574242342</v>
       </c>
       <c r="DB3">
-        <v>0.4465383494565809</v>
+        <v>0.4465067006226449</v>
       </c>
       <c r="DC3">
-        <v>0.4538243466757561</v>
+        <v>0.4537936433456436</v>
       </c>
       <c r="DD3">
-        <v>0.4567809370429582</v>
+        <v>0.4567492982956803</v>
       </c>
       <c r="DE3">
-        <v>0.4665452529346411</v>
+        <v>0.4665156364025625</v>
       </c>
       <c r="DF3">
-        <v>0.4687469393102174</v>
+        <v>0.4687160593911589</v>
       </c>
       <c r="DG3">
-        <v>0.4767518482214176</v>
+        <v>0.476722226139058</v>
       </c>
       <c r="DH3">
-        <v>0.4874957581022337</v>
+        <v>0.4874685838219858</v>
       </c>
       <c r="DI3">
-        <v>0.4899453073750604</v>
+        <v>0.4899169773924513</v>
       </c>
       <c r="DJ3">
-        <v>0.4912098075610331</v>
+        <v>0.4911798070287</v>
       </c>
       <c r="DK3">
-        <v>0.5025094734356841</v>
+        <v>0.5024821621549612</v>
       </c>
       <c r="DL3">
-        <v>0.5033489642263714</v>
+        <v>0.5033197977495932</v>
       </c>
       <c r="DM3">
-        <v>0.5051395173065085</v>
+        <v>0.5051089088249233</v>
       </c>
       <c r="DN3">
-        <v>0.5054026417735896</v>
+        <v>0.5053699276922442</v>
       </c>
       <c r="DO3">
-        <v>0.5087415169365509</v>
+        <v>0.5087080335225688</v>
       </c>
       <c r="DP3">
-        <v>0.5090571645630494</v>
+        <v>0.5090215983681171</v>
       </c>
       <c r="DQ3">
-        <v>0.5139095265092214</v>
+        <v>0.5138738485195448</v>
       </c>
       <c r="DR3">
-        <v>0.5141684509063491</v>
+        <v>0.514130665492182</v>
       </c>
       <c r="DS3">
-        <v>0.5141912849020958</v>
+        <v>0.514151289493408</v>
       </c>
       <c r="DT3">
-        <v>0.5262938477678401</v>
+        <v>0.5262568904312487</v>
       </c>
       <c r="DU3">
-        <v>0.5325262426987031</v>
+        <v>0.5324897731259431</v>
       </c>
       <c r="DV3">
-        <v>0.5378693040394317</v>
+        <v>0.5378329358574333</v>
       </c>
       <c r="DW3">
-        <v>0.5658363137291891</v>
+        <v>0.5658098759655201</v>
       </c>
       <c r="DX3">
-        <v>0.567469487111072</v>
+        <v>0.567441538968616</v>
       </c>
       <c r="DY3">
-        <v>0.5683213425416223</v>
+        <v>0.5682915445749577</v>
       </c>
       <c r="DZ3">
-        <v>0.5731015384885948</v>
+        <v>0.5730715973744978</v>
       </c>
       <c r="EA3">
-        <v>0.5745584788724327</v>
+        <v>0.5745269508147082</v>
       </c>
       <c r="EB3">
-        <v>0.6162276684101896</v>
+        <v>0.6162120237150546</v>
       </c>
       <c r="EC3">
-        <v>0.6327941462264149</v>
+        <v>0.6327834789617249</v>
       </c>
       <c r="ED3">
-        <v>0.6426270841173366</v>
+        <v>0.6426184688808348</v>
       </c>
       <c r="EE3">
-        <v>0.6505007340299929</v>
+        <v>0.6504933196044094</v>
       </c>
       <c r="EF3">
-        <v>0.6509206597753345</v>
+        <v>0.650911207872675</v>
       </c>
       <c r="EG3">
-        <v>0.6511064866832731</v>
+        <v>0.651094895598747</v>
       </c>
       <c r="EH3">
-        <v>0.6593903115913793</v>
+        <v>0.6593800995192628</v>
       </c>
       <c r="EI3">
-        <v>0.6649030195302259</v>
+        <v>0.6648929825522346</v>
       </c>
       <c r="EJ3">
-        <v>0.6672283778044303</v>
+        <v>0.6672171311690064</v>
       </c>
       <c r="EK3">
-        <v>0.6687922624870819</v>
+        <v>0.6687794753702325</v>
       </c>
       <c r="EL3">
-        <v>0.6884028762695381</v>
+        <v>0.6883963891151635</v>
       </c>
       <c r="EM3">
-        <v>0.7214930759024631</v>
+        <v>0.7214987449483377</v>
       </c>
       <c r="EN3">
-        <v>0.7399835036973458</v>
+        <v>0.7399949860382583</v>
       </c>
       <c r="EO3">
-        <v>0.7578971854986264</v>
+        <v>0.7579142305659236</v>
       </c>
       <c r="EP3">
-        <v>0.7774108392821583</v>
+        <v>0.7774341421874306</v>
       </c>
       <c r="EQ3">
-        <v>0.7784896067701913</v>
+        <v>0.7785111584337321</v>
       </c>
       <c r="ER3">
-        <v>0.7820991383301502</v>
+        <v>0.7821200382483624</v>
       </c>
       <c r="ES3">
-        <v>0.784245605606339</v>
+        <v>0.7842652181475038</v>
       </c>
       <c r="ET3">
-        <v>0.7860093693867733</v>
+        <v>0.7860275282844568</v>
       </c>
       <c r="EU3">
-        <v>0.7925340813143936</v>
+        <v>0.7925528549737152</v>
       </c>
       <c r="EV3">
-        <v>0.8082818511397011</v>
+        <v>0.8083052465398555</v>
       </c>
       <c r="EW3">
-        <v>0.8240078809652497</v>
+        <v>0.8240358886612429</v>
       </c>
       <c r="EX3">
-        <v>0.8345907208478525</v>
+        <v>0.8346211063687179</v>
       </c>
       <c r="EY3">
-        <v>0.8386747838025472</v>
+        <v>0.8387047237393647</v>
       </c>
       <c r="EZ3">
-        <v>0.840568222981543</v>
+        <v>0.8405967656126611</v>
       </c>
       <c r="FA3">
-        <v>0.8412284810242187</v>
+        <v>0.8412550905911924</v>
       </c>
       <c r="FB3">
-        <v>0.8426127877088623</v>
+        <v>0.8426377787763271</v>
       </c>
       <c r="FC3">
-        <v>0.8426270908587036</v>
+        <v>0.8426498682254017</v>
       </c>
       <c r="FD3">
-        <v>0.8437801468459125</v>
+        <v>0.8438012052456922</v>
       </c>
       <c r="FE3">
-        <v>0.8491909867858892</v>
+        <v>0.8492121760230025</v>
       </c>
       <c r="FF3">
-        <v>0.8519397680553965</v>
+        <v>0.8519599315921932</v>
       </c>
       <c r="FG3">
-        <v>0.8670108898882101</v>
+        <v>0.8670353811945279</v>
       </c>
       <c r="FH3">
-        <v>0.8873028396631082</v>
+        <v>0.8873339269399251</v>
       </c>
       <c r="FI3">
-        <v>0.8962987685633149</v>
+        <v>0.8963315442277956</v>
       </c>
       <c r="FJ3">
-        <v>0.9014576415060866</v>
+        <v>0.9014904385402464</v>
       </c>
       <c r="FK3">
-        <v>0.9101735964093991</v>
+        <v>0.9102079601958613</v>
       </c>
       <c r="FL3">
-        <v>0.9101767449874641</v>
+        <v>0.9102088902270297</v>
       </c>
       <c r="FM3">
-        <v>0.9216512408601757</v>
+        <v>0.9216861513066553</v>
       </c>
       <c r="FN3">
-        <v>0.9292959010753722</v>
+        <v>0.9293319128476575</v>
       </c>
       <c r="FO3">
-        <v>0.9425352859285056</v>
+        <v>0.9425748296678732</v>
       </c>
       <c r="FP3">
-        <v>0.9579656877573336</v>
+        <v>0.9580097153562616</v>
       </c>
       <c r="FQ3">
-        <v>0.963710262693608</v>
+        <v>0.9637545661218236</v>
       </c>
       <c r="FR3">
-        <v>0.9700220830235899</v>
+        <v>0.9700669087221885</v>
       </c>
       <c r="FS3">
-        <v>0.9736542102832981</v>
+        <v>0.973698394053323</v>
       </c>
       <c r="FT3">
-        <v>0.974150921627788</v>
+        <v>0.9741931012804209</v>
       </c>
       <c r="FU3">
-        <v>0.9741510534607466</v>
+        <v>0.9741931012804209</v>
       </c>
       <c r="FV3">
-        <v>0.9748517855529732</v>
+        <v>0.9748919178925493</v>
       </c>
       <c r="FW3">
-        <v>0.974936994552028</v>
+        <v>0.9749749439960503</v>
       </c>
       <c r="FX3">
-        <v>0.9752260290488217</v>
+        <v>0.9752618841497571</v>
       </c>
       <c r="FY3">
-        <v>0.9753659909272691</v>
+        <v>0.975399686920168</v>
       </c>
       <c r="FZ3">
-        <v>0.9759250595510672</v>
+        <v>0.9759567785178408</v>
       </c>
       <c r="GA3">
-        <v>0.9795368135110014</v>
+        <v>0.9795678816979734</v>
       </c>
       <c r="GB3">
-        <v>0.9828495017742532</v>
+        <v>0.9828797892516282</v>
       </c>
       <c r="GC3">
-        <v>0.9858332942411535</v>
+        <v>0.9858626581193793</v>
       </c>
       <c r="GD3">
-        <v>0.9864965244837962</v>
+        <v>0.9865239565891569</v>
       </c>
       <c r="GE3">
-        <v>0.9865793506528774</v>
+        <v>0.9866045988274583</v>
       </c>
       <c r="GF3">
-        <v>0.9870786404473387</v>
+        <v>0.9871018856247413</v>
       </c>
       <c r="GG3">
-        <v>0.9888451711277423</v>
+        <v>0.9888669638637498</v>
       </c>
       <c r="GH3">
-        <v>0.9893913383216836</v>
+        <v>0.9894111484265092</v>
       </c>
       <c r="GI3">
-        <v>0.991004727403786</v>
+        <v>0.991023018534489</v>
       </c>
       <c r="GJ3">
-        <v>0.991260279100951</v>
+        <v>0.9912764613418863</v>
       </c>
       <c r="GK3">
-        <v>0.9914621901387112</v>
+        <v>0.9914762401855679</v>
       </c>
       <c r="GL3">
-        <v>0.9914784432925309</v>
+        <v>0.9914902804858048</v>
       </c>
       <c r="GM3">
-        <v>0.9916484766906447</v>
+        <v>0.9916581678405245</v>
       </c>
       <c r="GN3">
-        <v>0.9917721047092732</v>
+        <v>0.9917796296548328</v>
       </c>
       <c r="GO3">
-        <v>0.9917815557911684</v>
+        <v>0.991786864927969</v>
       </c>
       <c r="GP3">
-        <v>0.9951070917542777</v>
+        <v>0.9951116257631948</v>
       </c>
       <c r="GQ3">
-        <v>0.9977892237245244</v>
+        <v>0.99779270307718</v>
       </c>
       <c r="GR3">
-        <v>0.9998013592022035</v>
+        <v>0.9998034928170458</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.803615977179526E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001097053659102805</v>
+        <v>7.099028977353814E-05</v>
       </c>
       <c r="D4">
-        <v>0.0002088866605303302</v>
+        <v>0.0001352183691615866</v>
       </c>
       <c r="E4">
-        <v>0.0004668232425454972</v>
+        <v>0.0003591881034178427</v>
       </c>
       <c r="F4">
-        <v>0.0007301174548102326</v>
+        <v>0.0005885487555848074</v>
       </c>
       <c r="G4">
-        <v>0.0009149920234220348</v>
+        <v>0.0007390025325425249</v>
       </c>
       <c r="H4">
-        <v>0.001103704562212617</v>
+        <v>0.0008933181254923439</v>
       </c>
       <c r="I4">
-        <v>0.001195405221484205</v>
+        <v>0.0009500190913609867</v>
       </c>
       <c r="J4">
-        <v>0.001198383904622957</v>
+        <v>0.0009500190913609867</v>
       </c>
       <c r="K4">
-        <v>0.001202492118814325</v>
+        <v>0.0009500190913609867</v>
       </c>
       <c r="L4">
-        <v>0.001270863625999198</v>
+        <v>0.0009832459580537765</v>
       </c>
       <c r="M4">
-        <v>0.001306213434645858</v>
+        <v>0.0009832459580537765</v>
       </c>
       <c r="N4">
-        <v>0.001319059497244251</v>
+        <v>0.0009832459580537765</v>
       </c>
       <c r="O4">
-        <v>0.001375735799884339</v>
+        <v>0.001004704956358307</v>
       </c>
       <c r="P4">
-        <v>0.001528656397007666</v>
+        <v>0.001123006227601512</v>
       </c>
       <c r="Q4">
-        <v>0.00159164966994201</v>
+        <v>0.001150821444367267</v>
       </c>
       <c r="R4">
-        <v>0.001635164261969001</v>
+        <v>0.001159036956620212</v>
       </c>
       <c r="S4">
-        <v>0.001826897800900307</v>
+        <v>0.001316392319581818</v>
       </c>
       <c r="T4">
-        <v>0.001905550534564098</v>
+        <v>0.001359964291365374</v>
       </c>
       <c r="U4">
-        <v>0.001948394116559832</v>
+        <v>0.001367504624513517</v>
       </c>
       <c r="V4">
-        <v>0.002113874604268221</v>
+        <v>0.001498443822593314</v>
       </c>
       <c r="W4">
-        <v>0.002391688167209295</v>
+        <v>0.001742414036071315</v>
       </c>
       <c r="X4">
-        <v>0.002562131355148857</v>
+        <v>0.001878346768291295</v>
       </c>
       <c r="Y4">
-        <v>0.002607174770247063</v>
+        <v>0.001888100602394201</v>
       </c>
       <c r="Z4">
-        <v>0.002613678376550014</v>
+        <v>0.001888100602394201</v>
       </c>
       <c r="AA4">
-        <v>0.0026169540303026</v>
+        <v>0.001888100602394201</v>
       </c>
       <c r="AB4">
-        <v>0.002631443452977544</v>
+        <v>0.001888100602394201</v>
       </c>
       <c r="AC4">
-        <v>0.002764067429155416</v>
+        <v>0.0019859791471175</v>
       </c>
       <c r="AD4">
-        <v>0.002803061390971828</v>
+        <v>0.001989645941890013</v>
       </c>
       <c r="AE4">
-        <v>0.002819455975735518</v>
+        <v>0.001989645941890013</v>
       </c>
       <c r="AF4">
-        <v>0.002827285357100225</v>
+        <v>0.001989645941890013</v>
       </c>
       <c r="AG4">
-        <v>0.00282728536428547</v>
+        <v>0.001989645941890013</v>
       </c>
       <c r="AH4">
-        <v>0.002828111570923956</v>
+        <v>0.001989645941890013</v>
       </c>
       <c r="AI4">
-        <v>0.002856608333251388</v>
+        <v>0.001989645941890013</v>
       </c>
       <c r="AJ4">
-        <v>0.002898359457196233</v>
+        <v>0.001996087029401765</v>
       </c>
       <c r="AK4">
-        <v>0.002940441142156476</v>
+        <v>0.002002860731747965</v>
       </c>
       <c r="AL4">
-        <v>0.003157875692284983</v>
+        <v>0.002186076789668406</v>
       </c>
       <c r="AM4">
-        <v>0.00354589808035979</v>
+        <v>0.002540940570200506</v>
       </c>
       <c r="AN4">
-        <v>0.003617996263718257</v>
+        <v>0.002577917267395926</v>
       </c>
       <c r="AO4">
-        <v>0.003637979407649109</v>
+        <v>0.002577917267395926</v>
       </c>
       <c r="AP4">
-        <v>0.003788829804676002</v>
+        <v>0.002694135476117317</v>
       </c>
       <c r="AQ4">
-        <v>0.003796659186040709</v>
+        <v>0.002694135476117317</v>
       </c>
       <c r="AR4">
-        <v>0.003796696879422465</v>
+        <v>0.002694135476117317</v>
       </c>
       <c r="AS4">
-        <v>0.003824651131724626</v>
+        <v>0.002694135476117317</v>
       </c>
       <c r="AT4">
-        <v>0.003856224907195391</v>
+        <v>0.002694135476117317</v>
       </c>
       <c r="AU4">
-        <v>0.003858762174913582</v>
+        <v>0.002694135476117317</v>
       </c>
       <c r="AV4">
-        <v>0.003897371306712068</v>
+        <v>0.002697415049872407</v>
       </c>
       <c r="AW4">
-        <v>0.00398606081084339</v>
+        <v>0.002751086151898004</v>
       </c>
       <c r="AX4">
-        <v>0.004041970956447789</v>
+        <v>0.002771774232932451</v>
       </c>
       <c r="AY4">
-        <v>0.004135781126817641</v>
+        <v>0.002830597816569163</v>
       </c>
       <c r="AZ4">
-        <v>0.004306224314757203</v>
+        <v>0.002966530548789143</v>
       </c>
       <c r="BA4">
-        <v>0.004473681082557652</v>
+        <v>0.003099458305849044</v>
       </c>
       <c r="BB4">
-        <v>0.004573009887184573</v>
+        <v>0.003163834811743031</v>
       </c>
       <c r="BC4">
-        <v>0.004725299764278519</v>
+        <v>0.003281501444210389</v>
       </c>
       <c r="BD4">
-        <v>0.004876332071313886</v>
+        <v>0.003397902693171052</v>
       </c>
       <c r="BE4">
-        <v>0.005175386835244414</v>
+        <v>0.003663246082012963</v>
       </c>
       <c r="BF4">
-        <v>0.005256090429003738</v>
+        <v>0.003708881656155464</v>
       </c>
       <c r="BG4">
-        <v>0.005281484894186659</v>
+        <v>0.003708881656155464</v>
       </c>
       <c r="BH4">
-        <v>0.005323166766128279</v>
+        <v>0.003715253061392189</v>
       </c>
       <c r="BI4">
-        <v>0.005323278694643493</v>
+        <v>0.003715253061392189</v>
       </c>
       <c r="BJ4">
-        <v>0.005326573782096984</v>
+        <v>0.003715253061392189</v>
       </c>
       <c r="BK4">
-        <v>0.005352280525294452</v>
+        <v>0.003715253061392189</v>
       </c>
       <c r="BL4">
-        <v>0.005381325014647399</v>
+        <v>0.003715253061392189</v>
       </c>
       <c r="BM4">
-        <v>0.005416890683304114</v>
+        <v>0.003715470262568867</v>
       </c>
       <c r="BN4">
-        <v>0.005454463101054308</v>
+        <v>0.00371770668103498</v>
       </c>
       <c r="BO4">
-        <v>0.005499065563131973</v>
+        <v>0.003727016822418255</v>
       </c>
       <c r="BP4">
-        <v>0.005519507796084211</v>
+        <v>0.003727016822418255</v>
       </c>
       <c r="BQ4">
-        <v>0.005631808551315389</v>
+        <v>0.003804445875351103</v>
       </c>
       <c r="BR4">
-        <v>0.005656363562459208</v>
+        <v>0.003804445875351103</v>
       </c>
       <c r="BS4">
-        <v>0.005656459060903656</v>
+        <v>0.003804445875351103</v>
       </c>
       <c r="BT4">
-        <v>0.005824716268741391</v>
+        <v>0.00393817904568748</v>
       </c>
       <c r="BU4">
-        <v>0.005919125773139162</v>
+        <v>0.003997605687093223</v>
       </c>
       <c r="BV4">
-        <v>0.005920451689400925</v>
+        <v>0.003997605687093223</v>
       </c>
       <c r="BW4">
-        <v>0.005948405941703087</v>
+        <v>0.003997605687093223</v>
       </c>
       <c r="BX4">
-        <v>0.006012706754698338</v>
+        <v>0.004026736567838194</v>
       </c>
       <c r="BY4">
-        <v>0.006013048378434252</v>
+        <v>0.004026736567838194</v>
       </c>
       <c r="BZ4">
-        <v>0.006017419385637861</v>
+        <v>0.004026736567838194</v>
       </c>
       <c r="CA4">
-        <v>0.006021124075610433</v>
+        <v>0.004026736567838194</v>
       </c>
       <c r="CB4">
-        <v>0.006055419377207972</v>
+        <v>0.004026736567838194</v>
       </c>
       <c r="CC4">
-        <v>0.006099610184266462</v>
+        <v>0.004035632496535535</v>
       </c>
       <c r="CD4">
-        <v>0.006132928805818505</v>
+        <v>0.004035632496535535</v>
       </c>
       <c r="CE4">
-        <v>0.006163871723259884</v>
+        <v>0.004035632496535535</v>
       </c>
       <c r="CF4">
-        <v>0.006212585055529042</v>
+        <v>0.004049079049487281</v>
       </c>
       <c r="CG4">
-        <v>0.006230847196379726</v>
+        <v>0.004049079049487281</v>
       </c>
       <c r="CH4">
-        <v>0.006291631375211167</v>
+        <v>0.004074671446758028</v>
       </c>
       <c r="CI4">
-        <v>0.006728673375569398</v>
+        <v>0.004478859404869572</v>
       </c>
       <c r="CJ4">
-        <v>0.006828511684220052</v>
+        <v>0.004543748580402779</v>
       </c>
       <c r="CK4">
-        <v>0.006868239193070633</v>
+        <v>0.00454815347983363</v>
       </c>
       <c r="CL4">
-        <v>0.006937883120314777</v>
+        <v>0.004582660672298812</v>
       </c>
       <c r="CM4">
-        <v>0.01297237410141262</v>
+        <v>0.0106190752975973</v>
       </c>
       <c r="CN4">
-        <v>0.1266396093962444</v>
+        <v>0.1249569706281698</v>
       </c>
       <c r="CO4">
-        <v>0.223445878905661</v>
+        <v>0.2223291407760905</v>
       </c>
       <c r="CP4">
-        <v>0.3311967239248963</v>
+        <v>0.3307138865204211</v>
       </c>
       <c r="CQ4">
-        <v>0.3331769456171387</v>
+        <v>0.3326708421487335</v>
       </c>
       <c r="CR4">
-        <v>0.3335802009159231</v>
+        <v>0.3330410334840522</v>
       </c>
       <c r="CS4">
-        <v>0.3360688432318487</v>
+        <v>0.3355095686202279</v>
       </c>
       <c r="CT4">
-        <v>0.3823168003861648</v>
+        <v>0.3820093009711831</v>
       </c>
       <c r="CU4">
-        <v>0.3962902230370728</v>
+        <v>0.3960339728925351</v>
       </c>
       <c r="CV4">
-        <v>0.4416258831488925</v>
+        <v>0.4416157399795236</v>
       </c>
       <c r="CW4">
-        <v>0.4421991742155974</v>
+        <v>0.4421570235373445</v>
       </c>
       <c r="CX4">
-        <v>0.4522758416849874</v>
+        <v>0.452260729224906</v>
       </c>
       <c r="CY4">
-        <v>0.4541646478729714</v>
+        <v>0.4541257013724132</v>
       </c>
       <c r="CZ4">
-        <v>0.4559349054554334</v>
+        <v>0.4558713883563258</v>
       </c>
       <c r="DA4">
-        <v>0.4679411560147069</v>
+        <v>0.4679166658872021</v>
       </c>
       <c r="DB4">
-        <v>0.4726462482338789</v>
+        <v>0.4726154220212829</v>
       </c>
       <c r="DC4">
-        <v>0.4749592723416239</v>
+        <v>0.4749072478102609</v>
       </c>
       <c r="DD4">
-        <v>0.4867677358916842</v>
+        <v>0.4867535094552314</v>
       </c>
       <c r="DE4">
-        <v>0.4903259930574344</v>
+        <v>0.4902983050989223</v>
       </c>
       <c r="DF4">
-        <v>0.4926616880662354</v>
+        <v>0.4926129426462453</v>
       </c>
       <c r="DG4">
-        <v>0.5074413547546999</v>
+        <v>0.5074488679053607</v>
       </c>
       <c r="DH4">
-        <v>0.5156021191348434</v>
+        <v>0.5156247667458871</v>
       </c>
       <c r="DI4">
-        <v>0.5156393792365791</v>
+        <v>0.5156266889078782</v>
       </c>
       <c r="DJ4">
-        <v>0.5215515425119787</v>
+        <v>0.5215400157893598</v>
       </c>
       <c r="DK4">
-        <v>0.5280137825130019</v>
+        <v>0.5280068370954831</v>
       </c>
       <c r="DL4">
-        <v>0.5283389910881507</v>
+        <v>0.528298496792611</v>
       </c>
       <c r="DM4">
-        <v>0.5284224702270394</v>
+        <v>0.5283469251567096</v>
       </c>
       <c r="DN4">
-        <v>0.5307115163336674</v>
+        <v>0.5306146239660972</v>
       </c>
       <c r="DO4">
-        <v>0.5321947781027605</v>
+        <v>0.5320715319939194</v>
       </c>
       <c r="DP4">
-        <v>0.5348498669264395</v>
+        <v>0.5347075477918849</v>
       </c>
       <c r="DQ4">
-        <v>0.5375538500523961</v>
+        <v>0.5373927616788564</v>
       </c>
       <c r="DR4">
-        <v>0.5375665519504877</v>
+        <v>0.5373927616788564</v>
       </c>
       <c r="DS4">
-        <v>0.5386509168009995</v>
+        <v>0.5384482943890969</v>
       </c>
       <c r="DT4">
-        <v>0.5505082003533339</v>
+        <v>0.5503436793614342</v>
       </c>
       <c r="DU4">
-        <v>0.5518416563154488</v>
+        <v>0.5516498508191037</v>
       </c>
       <c r="DV4">
-        <v>0.5628555148284948</v>
+        <v>0.5626965704414936</v>
       </c>
       <c r="DW4">
-        <v>0.5888409640389455</v>
+        <v>0.5888079012226953</v>
       </c>
       <c r="DX4">
-        <v>0.5891193821219147</v>
+        <v>0.5890524797121639</v>
       </c>
       <c r="DY4">
-        <v>0.5896756858478284</v>
+        <v>0.5895766703846118</v>
       </c>
       <c r="DZ4">
-        <v>0.5918508594491521</v>
+        <v>0.5917297891838481</v>
       </c>
       <c r="EA4">
-        <v>0.6047892450518462</v>
+        <v>0.604712993235723</v>
       </c>
       <c r="EB4">
-        <v>0.6454183769444269</v>
+        <v>0.6455589898248512</v>
       </c>
       <c r="EC4">
-        <v>0.6569839774831742</v>
+        <v>0.6571608795186887</v>
       </c>
       <c r="ED4">
-        <v>0.6665921279307397</v>
+        <v>0.6667931572265704</v>
       </c>
       <c r="EE4">
-        <v>0.6706984261220188</v>
+        <v>0.6708893989467359</v>
       </c>
       <c r="EF4">
-        <v>0.6710284494873919</v>
+        <v>0.6711859033490128</v>
       </c>
       <c r="EG4">
-        <v>0.6714572160073646</v>
+        <v>0.6715817644100912</v>
       </c>
       <c r="EH4">
-        <v>0.6789275373553462</v>
+        <v>0.67906293040512</v>
       </c>
       <c r="EI4">
-        <v>0.6813253291670398</v>
+        <v>0.6814400505709363</v>
       </c>
       <c r="EJ4">
-        <v>0.6815561387777913</v>
+        <v>0.6816367247904899</v>
       </c>
       <c r="EK4">
-        <v>0.6852567762501739</v>
+        <v>0.6853247853683778</v>
       </c>
       <c r="EL4">
-        <v>0.7043132651378606</v>
+        <v>0.7044641052853386</v>
       </c>
       <c r="EM4">
-        <v>0.7315058444045417</v>
+        <v>0.7317900661805187</v>
       </c>
       <c r="EN4">
-        <v>0.7470734421297094</v>
+        <v>0.7474188179954624</v>
       </c>
       <c r="EO4">
-        <v>0.7681026931092911</v>
+        <v>0.7685431570345659</v>
       </c>
       <c r="EP4">
-        <v>0.7843626528667104</v>
+        <v>0.7848685726180964</v>
       </c>
       <c r="EQ4">
-        <v>0.7843784331134455</v>
+        <v>0.7848685726180964</v>
       </c>
       <c r="ER4">
-        <v>0.78879634351924</v>
+        <v>0.7892783626404357</v>
       </c>
       <c r="ES4">
-        <v>0.7906756421067812</v>
+        <v>0.7911337681155285</v>
       </c>
       <c r="ET4">
-        <v>0.7957491440431144</v>
+        <v>0.7962032229447802</v>
       </c>
       <c r="EU4">
-        <v>0.8049023724694888</v>
+        <v>0.8053777521411418</v>
       </c>
       <c r="EV4">
-        <v>0.8201985701820143</v>
+        <v>0.820733417699482</v>
       </c>
       <c r="EW4">
-        <v>0.8297817136284149</v>
+        <v>0.8303405330344128</v>
       </c>
       <c r="EX4">
-        <v>0.8358508004111243</v>
+        <v>0.8364117584095867</v>
       </c>
       <c r="EY4">
-        <v>0.8401206501100218</v>
+        <v>0.8406725678043907</v>
       </c>
       <c r="EZ4">
-        <v>0.840885909585669</v>
+        <v>0.8414070124961179</v>
       </c>
       <c r="FA4">
-        <v>0.8419526925353618</v>
+        <v>0.842444854066878</v>
       </c>
       <c r="FB4">
-        <v>0.8421551775547939</v>
+        <v>0.8426130277107023</v>
       </c>
       <c r="FC4">
-        <v>0.8421686720964224</v>
+        <v>0.8426130277107023</v>
       </c>
       <c r="FD4">
-        <v>0.8445847248089666</v>
+        <v>0.8450085222347471</v>
       </c>
       <c r="FE4">
-        <v>0.8494647750362885</v>
+        <v>0.8498833234140851</v>
       </c>
       <c r="FF4">
-        <v>0.8536707746322117</v>
+        <v>0.8540798859968303</v>
       </c>
       <c r="FG4">
-        <v>0.8727942835230205</v>
+        <v>0.8732866423210039</v>
       </c>
       <c r="FH4">
-        <v>0.889572649304588</v>
+        <v>0.8901336848534688</v>
       </c>
       <c r="FI4">
-        <v>0.8937720291002029</v>
+        <v>0.8943235865062159</v>
       </c>
       <c r="FJ4">
-        <v>0.9014033569556844</v>
+        <v>0.9019667593633443</v>
       </c>
       <c r="FK4">
-        <v>0.9081225782686783</v>
+        <v>0.9086921586401164</v>
       </c>
       <c r="FL4">
-        <v>0.910038575457929</v>
+        <v>0.9105844907301561</v>
       </c>
       <c r="FM4">
-        <v>0.9179748968276177</v>
+        <v>0.9185345520662948</v>
       </c>
       <c r="FN4">
-        <v>0.9279467692921261</v>
+        <v>0.9285328116438313</v>
       </c>
       <c r="FO4">
-        <v>0.946188976141882</v>
+        <v>0.9468527902815012</v>
       </c>
       <c r="FP4">
-        <v>0.9588127787299223</v>
+        <v>0.9595194567730921</v>
       </c>
       <c r="FQ4">
-        <v>0.9670939076156727</v>
+        <v>0.9678164679597236</v>
       </c>
       <c r="FR4">
-        <v>0.9738035479282202</v>
+        <v>0.9745322267080341</v>
       </c>
       <c r="FS4">
-        <v>0.975398972002538</v>
+        <v>0.9761019939202301</v>
       </c>
       <c r="FT4">
-        <v>0.9759667750289873</v>
+        <v>0.9766377553398797</v>
       </c>
       <c r="FU4">
-        <v>0.9760027345806623</v>
+        <v>0.9766383688713217</v>
       </c>
       <c r="FV4">
-        <v>0.9760705625638219</v>
+        <v>0.976671048837003</v>
       </c>
       <c r="FW4">
-        <v>0.9771549274143336</v>
+        <v>0.9777265815472435</v>
       </c>
       <c r="FX4">
-        <v>0.9775367292321187</v>
+        <v>0.9780751861082647</v>
       </c>
       <c r="FY4">
-        <v>0.9777424968717037</v>
+        <v>0.9782466627675925</v>
       </c>
       <c r="FZ4">
-        <v>0.9793702855475291</v>
+        <v>0.9798489956668205</v>
       </c>
       <c r="GA4">
-        <v>0.98348735503931</v>
+        <v>0.983956075610994</v>
       </c>
       <c r="GB4">
-        <v>0.9868497758959378</v>
+        <v>0.9873038181888261</v>
       </c>
       <c r="GC4">
-        <v>0.9884713905714756</v>
+        <v>0.9888999387278909</v>
       </c>
       <c r="GD4">
-        <v>0.988603597377634</v>
+        <v>0.9889973975106626</v>
       </c>
       <c r="GE4">
-        <v>0.9886974075480038</v>
+        <v>0.9890562210942994</v>
       </c>
       <c r="GF4">
-        <v>0.9892281209727255</v>
+        <v>0.9895546624696494</v>
       </c>
       <c r="GG4">
-        <v>0.9899616402668941</v>
+        <v>0.9902571697739775</v>
       </c>
       <c r="GH4">
-        <v>0.9908543939584803</v>
+        <v>0.9911199008199697</v>
       </c>
       <c r="GI4">
-        <v>0.9914094940843379</v>
+        <v>0.9916428804142361</v>
       </c>
       <c r="GJ4">
-        <v>0.9916303298246248</v>
+        <v>0.9918295187943565</v>
       </c>
       <c r="GK4">
-        <v>0.9916314309987762</v>
+        <v>0.9918295187943565</v>
       </c>
       <c r="GL4">
-        <v>0.9916325209502269</v>
+        <v>0.9918295187943565</v>
       </c>
       <c r="GM4">
-        <v>0.991949686385001</v>
+        <v>0.9921130853780211</v>
       </c>
       <c r="GN4">
-        <v>0.9921918805762829</v>
+        <v>0.9923212149120006</v>
       </c>
       <c r="GO4">
-        <v>0.9931573150212547</v>
+        <v>0.993257078286455</v>
       </c>
       <c r="GP4">
-        <v>0.9968912923951904</v>
+        <v>0.9969786859110877</v>
       </c>
       <c r="GQ4">
-        <v>0.999112450498656</v>
+        <v>0.9991780749202237</v>
       </c>
       <c r="GR4">
-        <v>0.9999033448354974</v>
+        <v>0.999938313745908</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.344433466018802E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001504590406890882</v>
+        <v>0.0001283262918970326</v>
       </c>
       <c r="D5">
-        <v>0.0006917994676342701</v>
+        <v>0.0006541169452212981</v>
       </c>
       <c r="E5">
-        <v>0.000969654241464472</v>
+        <v>0.0009155983293161348</v>
       </c>
       <c r="F5">
-        <v>0.00116625598125031</v>
+        <v>0.001095572694728751</v>
       </c>
       <c r="G5">
-        <v>0.001287779511299135</v>
+        <v>0.001200234167329006</v>
       </c>
       <c r="H5">
-        <v>0.001299173018866246</v>
+        <v>0.001200234167329006</v>
       </c>
       <c r="I5">
-        <v>0.001299327242403923</v>
+        <v>0.001200234167329006</v>
       </c>
       <c r="J5">
-        <v>0.001345097234682121</v>
+        <v>0.001228905308110469</v>
       </c>
       <c r="K5">
-        <v>0.001362285428537662</v>
+        <v>0.001228905308110469</v>
       </c>
       <c r="L5">
-        <v>0.00138431113763399</v>
+        <v>0.001233757944688828</v>
       </c>
       <c r="M5">
-        <v>0.001392162798524806</v>
+        <v>0.001233757944688828</v>
       </c>
       <c r="N5">
-        <v>0.001443795525094821</v>
+        <v>0.00126831014577865</v>
       </c>
       <c r="O5">
-        <v>0.001501218792953061</v>
+        <v>0.001308670988508878</v>
       </c>
       <c r="P5">
-        <v>0.001504189138100909</v>
+        <v>0.001308670988508878</v>
       </c>
       <c r="Q5">
-        <v>0.001504587107680718</v>
+        <v>0.001308670988508878</v>
       </c>
       <c r="R5">
-        <v>0.00162487841766821</v>
+        <v>0.001412096389315125</v>
       </c>
       <c r="S5">
-        <v>0.001624991771903852</v>
+        <v>0.001412096389315125</v>
       </c>
       <c r="T5">
-        <v>0.00167970280462709</v>
+        <v>0.00144973651887545</v>
       </c>
       <c r="U5">
-        <v>0.001879883574591073</v>
+        <v>0.001633301101970708</v>
       </c>
       <c r="V5">
-        <v>0.002244438992736794</v>
+        <v>0.001981754143420851</v>
       </c>
       <c r="W5">
-        <v>0.002677174874276192</v>
+        <v>0.002398600770033079</v>
       </c>
       <c r="X5">
-        <v>0.002859159053334442</v>
+        <v>0.002563911882444442</v>
       </c>
       <c r="Y5">
-        <v>0.003078403354247312</v>
+        <v>0.002766599586189589</v>
       </c>
       <c r="Z5">
-        <v>0.003328089636675429</v>
+        <v>0.002999824428458478</v>
       </c>
       <c r="AA5">
-        <v>0.003382800669398667</v>
+        <v>0.003037464558018802</v>
       </c>
       <c r="AB5">
-        <v>0.003383291913493118</v>
+        <v>0.003037464558018802</v>
       </c>
       <c r="AC5">
-        <v>0.003387472593701211</v>
+        <v>0.003037464558018802</v>
       </c>
       <c r="AD5">
-        <v>0.003391050609679307</v>
+        <v>0.003037464558018802</v>
       </c>
       <c r="AE5">
-        <v>0.003391163963914949</v>
+        <v>0.003037464558018802</v>
       </c>
       <c r="AF5">
-        <v>0.00349802541923397</v>
+        <v>0.00312741812447158</v>
       </c>
       <c r="AG5">
-        <v>0.003624855965546952</v>
+        <v>0.003237403202262421</v>
       </c>
       <c r="AH5">
-        <v>0.003725440950553562</v>
+        <v>0.003321060679110314</v>
       </c>
       <c r="AI5">
-        <v>0.003858337067168457</v>
+        <v>0.003437130287254156</v>
       </c>
       <c r="AJ5">
-        <v>0.004035415125982504</v>
+        <v>0.003597519943634928</v>
       </c>
       <c r="AK5">
-        <v>0.004096942919045046</v>
+        <v>0.003641998141691556</v>
       </c>
       <c r="AL5">
-        <v>0.004138638058120418</v>
+        <v>0.003666581691898264</v>
       </c>
       <c r="AM5">
-        <v>0.004456605333947217</v>
+        <v>0.003968300963575762</v>
       </c>
       <c r="AN5">
-        <v>0.004861215884086678</v>
+        <v>0.004356934343275799</v>
       </c>
       <c r="AO5">
-        <v>0.004966059679305271</v>
+        <v>0.004444863942729262</v>
       </c>
       <c r="AP5">
-        <v>0.005010886889536543</v>
+        <v>0.004472589354470377</v>
       </c>
       <c r="AQ5">
-        <v>0.00509713126382935</v>
+        <v>0.004541861394034462</v>
       </c>
       <c r="AR5">
-        <v>0.005103557234149203</v>
+        <v>0.004541861394034462</v>
       </c>
       <c r="AS5">
-        <v>0.005129418304436435</v>
+        <v>0.004550561380560017</v>
       </c>
       <c r="AT5">
-        <v>0.005198195467859814</v>
+        <v>0.004602311609407673</v>
       </c>
       <c r="AU5">
-        <v>0.005200278610963503</v>
+        <v>0.004602311609407673</v>
       </c>
       <c r="AV5">
-        <v>0.005220367431963423</v>
+        <v>0.004605221303471749</v>
       </c>
       <c r="AW5">
-        <v>0.005223994901543979</v>
+        <v>0.004605221303471749</v>
       </c>
       <c r="AX5">
-        <v>0.005250707729873608</v>
+        <v>0.004614775710505915</v>
       </c>
       <c r="AY5">
-        <v>0.005265978077633689</v>
+        <v>0.004614775710505915</v>
       </c>
       <c r="AZ5">
-        <v>0.00530625099263827</v>
+        <v>0.004637932590985497</v>
       </c>
       <c r="BA5">
-        <v>0.005371587181890375</v>
+        <v>0.004686231089699482</v>
       </c>
       <c r="BB5">
-        <v>0.005478468897210405</v>
+        <v>0.004776204979482953</v>
       </c>
       <c r="BC5">
-        <v>0.005855975346000762</v>
+        <v>0.005137649534531593</v>
       </c>
       <c r="BD5">
-        <v>0.006129675519624169</v>
+        <v>0.005394963331770688</v>
       </c>
       <c r="BE5">
-        <v>0.006205599533403282</v>
+        <v>0.005453882750942312</v>
       </c>
       <c r="BF5">
-        <v>0.006350737740627526</v>
+        <v>0.005582232716610537</v>
       </c>
       <c r="BG5">
-        <v>0.006424000234274162</v>
+        <v>0.005638482296142173</v>
       </c>
       <c r="BH5">
-        <v>0.006424661124767058</v>
+        <v>0.005638482296142173</v>
       </c>
       <c r="BI5">
-        <v>0.006461456696598555</v>
+        <v>0.0056581509638023</v>
       </c>
       <c r="BJ5">
-        <v>0.006618999824440253</v>
+        <v>0.005798944625984875</v>
       </c>
       <c r="BK5">
-        <v>0.006701912888567245</v>
+        <v>0.005864874942213765</v>
       </c>
       <c r="BL5">
-        <v>0.00670731772483627</v>
+        <v>0.005864874942213765</v>
       </c>
       <c r="BM5">
-        <v>0.006768845517898811</v>
+        <v>0.005909353140270393</v>
       </c>
       <c r="BN5">
-        <v>0.006849460951911439</v>
+        <v>0.005972978644342311</v>
       </c>
       <c r="BO5">
-        <v>0.006886244626742344</v>
+        <v>0.00599263537781363</v>
       </c>
       <c r="BP5">
-        <v>0.006999274458368396</v>
+        <v>0.006088776601980476</v>
       </c>
       <c r="BQ5">
-        <v>0.007213130429013062</v>
+        <v>0.00628605913235577</v>
       </c>
       <c r="BR5">
-        <v>0.007414076959015161</v>
+        <v>0.006470391869138664</v>
       </c>
       <c r="BS5">
-        <v>0.007607548658645201</v>
+        <v>0.006647226410365571</v>
       </c>
       <c r="BT5">
-        <v>0.007814496428946011</v>
+        <v>0.00683757914641245</v>
       </c>
       <c r="BU5">
-        <v>0.008134966464897385</v>
+        <v>0.007141809001462372</v>
       </c>
       <c r="BV5">
-        <v>0.008412821238727587</v>
+        <v>0.007403290385557208</v>
       </c>
       <c r="BW5">
-        <v>0.008505692693350258</v>
+        <v>0.007479210220697268</v>
       </c>
       <c r="BX5">
-        <v>0.008549031855507462</v>
+        <v>0.007505442932952148</v>
       </c>
       <c r="BY5">
-        <v>0.008595563137823553</v>
+        <v>0.007534877743448483</v>
       </c>
       <c r="BZ5">
-        <v>0.008615651958823472</v>
+        <v>0.007537787437512559</v>
       </c>
       <c r="CA5">
-        <v>0.008615866098974131</v>
+        <v>0.007537787437512559</v>
       </c>
       <c r="CB5">
-        <v>0.008618238884392237</v>
+        <v>0.007537787437512559</v>
       </c>
       <c r="CC5">
-        <v>0.008621711697365095</v>
+        <v>0.007537787437512559</v>
       </c>
       <c r="CD5">
-        <v>0.008653902710967401</v>
+        <v>0.007552837153794142</v>
       </c>
       <c r="CE5">
-        <v>0.008711766263847556</v>
+        <v>0.007593639657810362</v>
       </c>
       <c r="CF5">
-        <v>0.008737627334134789</v>
+        <v>0.007602339644335918</v>
       </c>
       <c r="CG5">
-        <v>0.008905170352474231</v>
+        <v>0.00775316445515443</v>
       </c>
       <c r="CH5">
-        <v>0.009102586052300583</v>
+        <v>0.007933955324922965</v>
       </c>
       <c r="CI5">
-        <v>0.00914058083419177</v>
+        <v>0.007954826951191207</v>
       </c>
       <c r="CJ5">
-        <v>0.00916093042620467</v>
+        <v>0.007957998231398825</v>
       </c>
       <c r="CK5">
-        <v>0.009508569443508377</v>
+        <v>0.008289481993908405</v>
       </c>
       <c r="CL5">
-        <v>0.009585965207360747</v>
+        <v>0.008349877763620377</v>
       </c>
       <c r="CM5">
-        <v>0.009655674870830541</v>
+        <v>0.008402563407367898</v>
       </c>
       <c r="CN5">
-        <v>0.04168921346529769</v>
+        <v>0.04051899205438129</v>
       </c>
       <c r="CO5">
-        <v>0.08795364076810631</v>
+        <v>0.08691079300542554</v>
       </c>
       <c r="CP5">
-        <v>0.2055252966202273</v>
+        <v>0.2048327180669467</v>
       </c>
       <c r="CQ5">
-        <v>0.3204320683397038</v>
+        <v>0.3200814289729594</v>
       </c>
       <c r="CR5">
-        <v>0.3244623562403111</v>
+        <v>0.3241070730195957</v>
       </c>
       <c r="CS5">
-        <v>0.3273845359857623</v>
+        <v>0.3270211451333623</v>
       </c>
       <c r="CT5">
-        <v>0.328335087933076</v>
+        <v>0.3279574264400872</v>
       </c>
       <c r="CU5">
-        <v>0.371362010074738</v>
+        <v>0.3711016022807967</v>
       </c>
       <c r="CV5">
-        <v>0.3937393181885669</v>
+        <v>0.3935316165379736</v>
       </c>
       <c r="CW5">
-        <v>0.4439847006895273</v>
+        <v>0.4439168165482046</v>
       </c>
       <c r="CX5">
-        <v>0.4439881698481</v>
+        <v>0.4439168165482046</v>
       </c>
       <c r="CY5">
-        <v>0.4455178168242381</v>
+        <v>0.4454340030468193</v>
       </c>
       <c r="CZ5">
-        <v>0.4510192480980714</v>
+        <v>0.4509353890373231</v>
       </c>
       <c r="DA5">
-        <v>0.4513407571940745</v>
+        <v>0.4512406612003686</v>
       </c>
       <c r="DB5">
-        <v>0.45624835893835</v>
+        <v>0.4561463614404388</v>
       </c>
       <c r="DC5">
-        <v>0.4632465212866831</v>
+        <v>0.4631491570593498</v>
       </c>
       <c r="DD5">
-        <v>0.4647815750630903</v>
+        <v>0.4646717672590697</v>
       </c>
       <c r="DE5">
-        <v>0.4714670791958608</v>
+        <v>0.4713609273403453</v>
       </c>
       <c r="DF5">
-        <v>0.4738434639141452</v>
+        <v>0.4737274983546247</v>
       </c>
       <c r="DG5">
-        <v>0.4762789375353707</v>
+        <v>0.4761533429747772</v>
       </c>
       <c r="DH5">
-        <v>0.4863048270344086</v>
+        <v>0.4861933299593968</v>
       </c>
       <c r="DI5">
-        <v>0.4923164298336358</v>
+        <v>0.4922064821939611</v>
       </c>
       <c r="DJ5">
-        <v>0.4927480009551172</v>
+        <v>0.4926221604196524</v>
       </c>
       <c r="DK5">
-        <v>0.4988116962569372</v>
+        <v>0.4986875679900571</v>
       </c>
       <c r="DL5">
-        <v>0.5043526798327392</v>
+        <v>0.5042286299170156</v>
       </c>
       <c r="DM5">
-        <v>0.5050536333976291</v>
+        <v>0.5049145326347002</v>
       </c>
       <c r="DN5">
-        <v>0.5050649391291918</v>
+        <v>0.5049145326347002</v>
       </c>
       <c r="DO5">
-        <v>0.509537134351795</v>
+        <v>0.5093834653384722</v>
       </c>
       <c r="DP5">
-        <v>0.5107812852137226</v>
+        <v>0.510614263305405</v>
       </c>
       <c r="DQ5">
-        <v>0.5119978521742771</v>
+        <v>0.5118173911478807</v>
       </c>
       <c r="DR5">
-        <v>0.5130907024286736</v>
+        <v>0.5128964155645739</v>
       </c>
       <c r="DS5">
-        <v>0.5137857346632688</v>
+        <v>0.513576378442785</v>
       </c>
       <c r="DT5">
-        <v>0.5158787509674485</v>
+        <v>0.5156586952763558</v>
       </c>
       <c r="DU5">
-        <v>0.524358915389548</v>
+        <v>0.5241481254823226</v>
       </c>
       <c r="DV5">
-        <v>0.5252786262753266</v>
+        <v>0.5250534693230403</v>
       </c>
       <c r="DW5">
-        <v>0.5369730858574175</v>
+        <v>0.5367672420872498</v>
       </c>
       <c r="DX5">
-        <v>0.5494278444773523</v>
+        <v>0.5492436904685665</v>
       </c>
       <c r="DY5">
-        <v>0.5524616258283586</v>
+        <v>0.5522697130375489</v>
       </c>
       <c r="DZ5">
-        <v>0.5526693804486995</v>
+        <v>0.5524608751457266</v>
       </c>
       <c r="EA5">
-        <v>0.5543584962327751</v>
+        <v>0.5541380289275408</v>
       </c>
       <c r="EB5">
-        <v>0.5688948909563232</v>
+        <v>0.5687026202906217</v>
       </c>
       <c r="EC5">
-        <v>0.6002455085167979</v>
+        <v>0.6001339931962617</v>
       </c>
       <c r="ED5">
-        <v>0.6086589089355743</v>
+        <v>0.6085564507047759</v>
       </c>
       <c r="EE5">
-        <v>0.6187944994400726</v>
+        <v>0.6187064816035297</v>
       </c>
       <c r="EF5">
-        <v>0.6202968760148533</v>
+        <v>0.6201963124576562</v>
       </c>
       <c r="EG5">
-        <v>0.6204529912126239</v>
+        <v>0.6203356737262752</v>
       </c>
       <c r="EH5">
-        <v>0.6208387068618229</v>
+        <v>0.6207053531424455</v>
       </c>
       <c r="EI5">
-        <v>0.6265014548436857</v>
+        <v>0.6263685600924956</v>
       </c>
       <c r="EJ5">
-        <v>0.6279897477177654</v>
+        <v>0.6278442632224127</v>
       </c>
       <c r="EK5">
-        <v>0.628020357956289</v>
+        <v>0.6278577272223529</v>
       </c>
       <c r="EL5">
-        <v>0.6417604366402004</v>
+        <v>0.6416235133828592</v>
       </c>
       <c r="EM5">
-        <v>0.6764701113678721</v>
+        <v>0.676424443357985</v>
       </c>
       <c r="EN5">
-        <v>0.7170795993892065</v>
+        <v>0.7171436285466408</v>
       </c>
       <c r="EO5">
-        <v>0.7343697952498248</v>
+        <v>0.7344706290107007</v>
       </c>
       <c r="EP5">
-        <v>0.7591820214848517</v>
+        <v>0.7593431725731314</v>
       </c>
       <c r="EQ5">
-        <v>0.7728925611672929</v>
+        <v>0.7730793273977373</v>
       </c>
       <c r="ER5">
-        <v>0.7735177957584138</v>
+        <v>0.7736892744556467</v>
       </c>
       <c r="ES5">
-        <v>0.7769858207310345</v>
+        <v>0.7771508980258205</v>
       </c>
       <c r="ET5">
-        <v>0.7794545898539174</v>
+        <v>0.7796101422243091</v>
       </c>
       <c r="EU5">
-        <v>0.7856478371621858</v>
+        <v>0.7858055067610488</v>
       </c>
       <c r="EV5">
-        <v>0.8034242510470055</v>
+        <v>0.8036202450929719</v>
       </c>
       <c r="EW5">
-        <v>0.8285599872981351</v>
+        <v>0.8288173099146577</v>
       </c>
       <c r="EX5">
-        <v>0.8471523832235702</v>
+        <v>0.8474505809230651</v>
       </c>
       <c r="EY5">
-        <v>0.8601285978694604</v>
+        <v>0.860450115322638</v>
       </c>
       <c r="EZ5">
-        <v>0.8691248093172462</v>
+        <v>0.869457205638879</v>
       </c>
       <c r="FA5">
-        <v>0.8705531922883439</v>
+        <v>0.8708728115965608</v>
       </c>
       <c r="FB5">
-        <v>0.8710065246109086</v>
+        <v>0.8713103190455432</v>
       </c>
       <c r="FC5">
-        <v>0.8710296053190574</v>
+        <v>0.8713162299789409</v>
       </c>
       <c r="FD5">
-        <v>0.8711082209629705</v>
+        <v>0.8713778494418732</v>
       </c>
       <c r="FE5">
-        <v>0.8725091336327008</v>
+        <v>0.8727658992301999</v>
       </c>
       <c r="FF5">
-        <v>0.8753425392737333</v>
+        <v>0.8755909197451868</v>
       </c>
       <c r="FG5">
-        <v>0.8816463598875055</v>
+        <v>0.8818972032227813</v>
       </c>
       <c r="FH5">
-        <v>0.8991582947591609</v>
+        <v>0.899446635820333</v>
       </c>
       <c r="FI5">
-        <v>0.915932965594119</v>
+        <v>0.9162564998058376</v>
       </c>
       <c r="FJ5">
-        <v>0.9198501047890943</v>
+        <v>0.9201686414611813</v>
       </c>
       <c r="FK5">
-        <v>0.9315991623739028</v>
+        <v>0.9319371828931686</v>
       </c>
       <c r="FL5">
-        <v>0.9391930650518888</v>
+        <v>0.939537581035479</v>
       </c>
       <c r="FM5">
-        <v>0.9406997884268858</v>
+        <v>0.9410317722772589</v>
       </c>
       <c r="FN5">
-        <v>0.945041796643009</v>
+        <v>0.9453701110297508</v>
       </c>
       <c r="FO5">
-        <v>0.9510165289404009</v>
+        <v>0.9513462775108936</v>
       </c>
       <c r="FP5">
-        <v>0.964420668607591</v>
+        <v>0.9647750745603589</v>
       </c>
       <c r="FQ5">
-        <v>0.9704888813096358</v>
+        <v>0.9708450136516952</v>
       </c>
       <c r="FR5">
-        <v>0.9743380573012284</v>
+        <v>0.9746889796610094</v>
       </c>
       <c r="FS5">
-        <v>0.9772678143470568</v>
+        <v>0.9776106527606427</v>
       </c>
       <c r="FT5">
-        <v>0.9773410768407034</v>
+        <v>0.9776669023401744</v>
       </c>
       <c r="FU5">
-        <v>0.9792121651338367</v>
+        <v>0.9795265974494586</v>
       </c>
       <c r="FV5">
-        <v>0.9793811363522472</v>
+        <v>0.9796788549246845</v>
       </c>
       <c r="FW5">
-        <v>0.9793815891092198</v>
+        <v>0.9796788549246845</v>
       </c>
       <c r="FX5">
-        <v>0.9800025786801295</v>
+        <v>0.9802845436930945</v>
       </c>
       <c r="FY5">
-        <v>0.9804973806047582</v>
+        <v>0.9807636503718157</v>
       </c>
       <c r="FZ5">
-        <v>0.9805117876834754</v>
+        <v>0.9807636503718157</v>
       </c>
       <c r="GA5">
-        <v>0.9814770801815227</v>
+        <v>0.981714718305996</v>
       </c>
       <c r="GB5">
-        <v>0.9841647723153024</v>
+        <v>0.9843935698354478</v>
       </c>
       <c r="GC5">
-        <v>0.9871096072618813</v>
+        <v>0.9873303679670582</v>
       </c>
       <c r="GD5">
-        <v>0.9882787638200761</v>
+        <v>0.9884859372094603</v>
       </c>
       <c r="GE5">
-        <v>0.9883366273729562</v>
+        <v>0.9885267397134765</v>
       </c>
       <c r="GF5">
-        <v>0.9883586438780522</v>
+        <v>0.9885315831172841</v>
       </c>
       <c r="GG5">
-        <v>0.988423512157281</v>
+        <v>0.9885794122433591</v>
       </c>
       <c r="GH5">
-        <v>0.9884335313297796</v>
+        <v>0.9885794122433591</v>
       </c>
       <c r="GI5">
-        <v>0.9884431180847568</v>
+        <v>0.9885794122433591</v>
       </c>
       <c r="GJ5">
-        <v>0.9885573634004434</v>
+        <v>0.988676772751005</v>
       </c>
       <c r="GK5">
-        <v>0.9903899567916606</v>
+        <v>0.990497852629159</v>
       </c>
       <c r="GL5">
-        <v>0.990932647418673</v>
+        <v>0.9910249977030707</v>
       </c>
       <c r="GM5">
-        <v>0.9919661893701175</v>
+        <v>0.9920445284280689</v>
       </c>
       <c r="GN5">
-        <v>0.9926753257754147</v>
+        <v>0.9927386395644766</v>
       </c>
       <c r="GO5">
-        <v>0.9930356144233481</v>
+        <v>0.993082812498439</v>
       </c>
       <c r="GP5">
-        <v>0.9943610961893239</v>
+        <v>0.9943951955974678</v>
       </c>
       <c r="GQ5">
-        <v>0.9978439857626845</v>
+        <v>0.9978717302328647</v>
       </c>
       <c r="GR5">
-        <v>0.9997103142555809</v>
+        <v>0.9997266506634996</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001248988604862646</v>
+        <v>2.825603986604907E-05</v>
       </c>
       <c r="C6">
-        <v>0.0004580448617832908</v>
+        <v>0.0002679047804722013</v>
       </c>
       <c r="D6">
-        <v>0.000849544413307503</v>
+        <v>0.0005667884980017947</v>
       </c>
       <c r="E6">
-        <v>0.0008858967564490323</v>
+        <v>0.0005667884980017947</v>
       </c>
       <c r="F6">
-        <v>0.0008996123505024307</v>
+        <v>0.0005667884980017947</v>
       </c>
       <c r="G6">
-        <v>0.0009966756258803239</v>
+        <v>0.0005667884980017947</v>
       </c>
       <c r="H6">
-        <v>0.001071105856170101</v>
+        <v>0.0005667884980017947</v>
       </c>
       <c r="I6">
-        <v>0.001158894941511887</v>
+        <v>0.0005667884980017947</v>
       </c>
       <c r="J6">
-        <v>0.001292799222033212</v>
+        <v>0.0006041859842046287</v>
       </c>
       <c r="K6">
-        <v>0.001420199172529214</v>
+        <v>0.0006349808928872871</v>
       </c>
       <c r="L6">
-        <v>0.001440184429607022</v>
+        <v>0.0006349808928872871</v>
       </c>
       <c r="M6">
-        <v>0.001453445679158652</v>
+        <v>0.0006349808928872871</v>
       </c>
       <c r="N6">
-        <v>0.001466527332209582</v>
+        <v>0.0006349808928872871</v>
       </c>
       <c r="O6">
-        <v>0.001468932386618946</v>
+        <v>0.0006349808928872871</v>
       </c>
       <c r="P6">
-        <v>0.00165367043733818</v>
+        <v>0.0007239799901811605</v>
       </c>
       <c r="Q6">
-        <v>0.001940367468454368</v>
+        <v>0.0009164781518410856</v>
       </c>
       <c r="R6">
-        <v>0.002102944709087325</v>
+        <v>0.000982981701409846</v>
       </c>
       <c r="S6">
-        <v>0.002481477010561052</v>
+        <v>0.00126870229939469</v>
       </c>
       <c r="T6">
-        <v>0.003186757763306898</v>
+        <v>0.001886106863402514</v>
       </c>
       <c r="U6">
-        <v>0.003543937204697493</v>
+        <v>0.002150152067699237</v>
       </c>
       <c r="V6">
-        <v>0.00379928250569162</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="W6">
-        <v>0.003853584603903032</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="X6">
-        <v>0.003870015021967</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="Y6">
-        <v>0.00387674185259319</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="Z6">
-        <v>0.003905390552704727</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="AA6">
-        <v>0.003905391623463831</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="AB6">
-        <v>0.00390823728847491</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="AC6">
-        <v>0.003910502089483727</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="AD6">
-        <v>0.003951672193644014</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="AE6">
-        <v>0.003984431693771555</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="AF6">
-        <v>0.00400995384887092</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="AG6">
-        <v>0.004076493439129976</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="AH6">
-        <v>0.004083857827358648</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="AI6">
-        <v>0.004169802057693251</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="AJ6">
-        <v>0.004240231711967453</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="AK6">
-        <v>0.004277635832113076</v>
+        <v>0.002310824933330729</v>
       </c>
       <c r="AL6">
-        <v>0.00437518726249287</v>
+        <v>0.002311320461883148</v>
       </c>
       <c r="AM6">
-        <v>0.004540206013135332</v>
+        <v>0.00238030240031614</v>
       </c>
       <c r="AN6">
-        <v>0.004683429193692938</v>
+        <v>0.002427159547952629</v>
       </c>
       <c r="AO6">
-        <v>0.004685911604002602</v>
+        <v>0.002427159547952629</v>
       </c>
       <c r="AP6">
-        <v>0.004686591396955249</v>
+        <v>0.002427159547952629</v>
       </c>
       <c r="AQ6">
-        <v>0.004687285751457952</v>
+        <v>0.002427159547952629</v>
       </c>
       <c r="AR6">
-        <v>0.004704090368523377</v>
+        <v>0.002427159547952629</v>
       </c>
       <c r="AS6">
-        <v>0.004704542558145138</v>
+        <v>0.002427159547952629</v>
       </c>
       <c r="AT6">
-        <v>0.004708984280162431</v>
+        <v>0.002427159547952629</v>
       </c>
       <c r="AU6">
-        <v>0.004784916260458055</v>
+        <v>0.002427159547952629</v>
       </c>
       <c r="AV6">
-        <v>0.004887166190856141</v>
+        <v>0.002432424547069818</v>
       </c>
       <c r="AW6">
-        <v>0.004887524060107534</v>
+        <v>0.002432424547069818</v>
       </c>
       <c r="AX6">
-        <v>0.00491971953623288</v>
+        <v>0.002432424547069818</v>
       </c>
       <c r="AY6">
-        <v>0.005067205426807082</v>
+        <v>0.002483608792688886</v>
       </c>
       <c r="AZ6">
-        <v>0.005352229107916755</v>
+        <v>0.002674408328495974</v>
       </c>
       <c r="BA6">
-        <v>0.00555346224870021</v>
+        <v>0.002780151673149264</v>
       </c>
       <c r="BB6">
-        <v>0.005690618589234196</v>
+        <v>0.002820850341526167</v>
       </c>
       <c r="BC6">
-        <v>0.005852565489864698</v>
+        <v>0.002886714029846487</v>
       </c>
       <c r="BD6">
-        <v>0.005983704080375255</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BE6">
-        <v>0.00599331930841269</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BF6">
-        <v>0.005999237749435732</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BG6">
-        <v>0.006066240349696592</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BH6">
-        <v>0.006077701192741211</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BI6">
-        <v>0.00609162742979543</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BJ6">
-        <v>0.00618466008015763</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BK6">
-        <v>0.006207659131247172</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BL6">
-        <v>0.006217875000286945</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BM6">
-        <v>0.006265249597471387</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BN6">
-        <v>0.006265313011291634</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BO6">
-        <v>0.006274677476328093</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BP6">
-        <v>0.006303819620441551</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BQ6">
-        <v>0.006398701374810951</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BR6">
-        <v>0.006483047441139333</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BS6">
-        <v>0.006571999511485647</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BT6">
-        <v>0.006642429165759849</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BU6">
-        <v>0.006693094775957103</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BV6">
-        <v>0.006726381791086699</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BW6">
-        <v>0.00673374617931537</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BX6">
-        <v>0.006733940643096127</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BY6">
-        <v>0.006733945032050145</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="BZ6">
-        <v>0.006735336677255562</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="CA6">
-        <v>0.006736072879558429</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="CB6">
-        <v>0.006736809081861295</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="CC6">
-        <v>0.006741842936880894</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="CD6">
-        <v>0.00674635218159845</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="CE6">
-        <v>0.006819145707881854</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="CF6">
-        <v>0.006910751942238501</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="CG6">
-        <v>0.00695081822239449</v>
+        <v>0.002921304050465352</v>
       </c>
       <c r="CH6">
-        <v>0.00713354396310589</v>
+        <v>0.003008260441935624</v>
       </c>
       <c r="CI6">
-        <v>0.007227533673471817</v>
+        <v>0.003008260441935624</v>
       </c>
       <c r="CJ6">
-        <v>0.007298023573746253</v>
+        <v>0.003008260441935624</v>
       </c>
       <c r="CK6">
-        <v>0.007464089694392793</v>
+        <v>0.003078305570830555</v>
       </c>
       <c r="CL6">
-        <v>0.007560736584769065</v>
+        <v>0.003078305570830555</v>
       </c>
       <c r="CM6">
-        <v>0.007588688989877891</v>
+        <v>0.003078305570830555</v>
       </c>
       <c r="CN6">
-        <v>0.1611343895876723</v>
+        <v>0.1588447748831329</v>
       </c>
       <c r="CO6">
-        <v>0.1741828926384736</v>
+        <v>0.1719918453396126</v>
       </c>
       <c r="CP6">
-        <v>0.3378643932757293</v>
+        <v>0.3380472153117826</v>
       </c>
       <c r="CQ6">
-        <v>0.3553067933436372</v>
+        <v>0.3556545523227218</v>
       </c>
       <c r="CR6">
-        <v>0.3556151289048377</v>
+        <v>0.3558690158630983</v>
       </c>
       <c r="CS6">
-        <v>0.362585202931974</v>
+        <v>0.3628458430088322</v>
       </c>
       <c r="CT6">
-        <v>0.378258922992996</v>
+        <v>0.3786577842129191</v>
       </c>
       <c r="CU6">
-        <v>0.4354862932157973</v>
+        <v>0.436651040843998</v>
       </c>
       <c r="CV6">
-        <v>0.4671953333392491</v>
+        <v>0.4687405146088288</v>
       </c>
       <c r="CW6">
-        <v>0.4673549929198707</v>
+        <v>0.4688040564273157</v>
       </c>
       <c r="CX6">
-        <v>0.470159142130788</v>
+        <v>0.4715520327251956</v>
       </c>
       <c r="CY6">
-        <v>0.4762562893545259</v>
+        <v>0.4776427475632146</v>
       </c>
       <c r="CZ6">
-        <v>0.4826322741793493</v>
+        <v>0.4840165118266994</v>
       </c>
       <c r="DA6">
-        <v>0.4885390992023461</v>
+        <v>0.4899140296591375</v>
       </c>
       <c r="DB6">
-        <v>0.5004769102488232</v>
+        <v>0.5019336311786109</v>
       </c>
       <c r="DC6">
-        <v>0.5006382280094512</v>
+        <v>0.5019988562238087</v>
       </c>
       <c r="DD6">
-        <v>0.5085402460402159</v>
+        <v>0.5099217043285749</v>
       </c>
       <c r="DE6">
-        <v>0.5102255849467774</v>
+        <v>0.5115339707630067</v>
       </c>
       <c r="DF6">
-        <v>0.5132760004586535</v>
+        <v>0.5145319331987911</v>
       </c>
       <c r="DG6">
-        <v>0.5257321885071488</v>
+        <v>0.5270777417722079</v>
       </c>
       <c r="DH6">
-        <v>0.5311094779280839</v>
+        <v>0.5324377254007091</v>
       </c>
       <c r="DI6">
-        <v>0.5329548748352686</v>
+        <v>0.5342124675017699</v>
       </c>
       <c r="DJ6">
-        <v>0.5335048658374099</v>
+        <v>0.5346722366732832</v>
       </c>
       <c r="DK6">
-        <v>0.5441368838788031</v>
+        <v>0.5453663212666777</v>
       </c>
       <c r="DL6">
-        <v>0.5441777370749622</v>
+        <v>0.5453663212666777</v>
       </c>
       <c r="DM6">
-        <v>0.5468052557851918</v>
+        <v>0.5479349990712958</v>
       </c>
       <c r="DN6">
-        <v>0.5469732405458458</v>
+        <v>0.5480069918211345</v>
       </c>
       <c r="DO6">
-        <v>0.5488571005531802</v>
+        <v>0.5498207780050471</v>
       </c>
       <c r="DP6">
-        <v>0.5489145464934038</v>
+        <v>0.5498207780050471</v>
       </c>
       <c r="DQ6">
-        <v>0.5542200275140594</v>
+        <v>0.555107868571911</v>
       </c>
       <c r="DR6">
-        <v>0.5556285736195432</v>
+        <v>0.5564391612674602</v>
       </c>
       <c r="DS6">
-        <v>0.5556446053096056</v>
+        <v>0.5564391612674602</v>
       </c>
       <c r="DT6">
-        <v>0.5697459773645059</v>
+        <v>0.5706550042479493</v>
       </c>
       <c r="DU6">
-        <v>0.5814203234099573</v>
+        <v>0.5824071611441712</v>
       </c>
       <c r="DV6">
-        <v>0.5862761854288625</v>
+        <v>0.5872378412426172</v>
       </c>
       <c r="DW6">
-        <v>0.6096037335196829</v>
+        <v>0.6108192210662223</v>
       </c>
       <c r="DX6">
-        <v>0.6102485992221935</v>
+        <v>0.6113752980144711</v>
       </c>
       <c r="DY6">
-        <v>0.6104413970129442</v>
+        <v>0.6114724785936613</v>
       </c>
       <c r="DZ6">
-        <v>0.6139349659265456</v>
+        <v>0.6149202882353577</v>
       </c>
       <c r="EA6">
-        <v>0.616567560636795</v>
+        <v>0.6174941187126558</v>
       </c>
       <c r="EB6">
-        <v>0.6569898367941697</v>
+        <v>0.6584284413922226</v>
       </c>
       <c r="EC6">
-        <v>0.6795591838820382</v>
+        <v>0.6812401676345403</v>
       </c>
       <c r="ED6">
-        <v>0.6915422144286913</v>
+        <v>0.6933056716918883</v>
       </c>
       <c r="EE6">
-        <v>0.7034954694752286</v>
+        <v>0.7053409504920687</v>
       </c>
       <c r="EF6">
-        <v>0.7052839156821915</v>
+        <v>0.7070578816561723</v>
       </c>
       <c r="EG6">
-        <v>0.7053133645023062</v>
+        <v>0.7070578816561723</v>
       </c>
       <c r="EH6">
-        <v>0.7087598699157244</v>
+        <v>0.7104579169064832</v>
       </c>
       <c r="EI6">
-        <v>0.7142465743370856</v>
+        <v>0.7159289682420918</v>
       </c>
       <c r="EJ6">
-        <v>0.715492675141937</v>
+        <v>0.7170953619109868</v>
       </c>
       <c r="EK6">
-        <v>0.716923596147508</v>
+        <v>0.7184493674780779</v>
       </c>
       <c r="EL6">
-        <v>0.7346524062165309</v>
+        <v>0.7363474406951372</v>
       </c>
       <c r="EM6">
-        <v>0.7641457063313563</v>
+        <v>0.7661877058382415</v>
       </c>
       <c r="EN6">
-        <v>0.7848530214119753</v>
+        <v>0.7871092741972648</v>
       </c>
       <c r="EO6">
-        <v>0.8041606194871449</v>
+        <v>0.8066099829137413</v>
       </c>
       <c r="EP6">
-        <v>0.8207073215515657</v>
+        <v>0.8233080924593357</v>
       </c>
       <c r="EQ6">
-        <v>0.8208276424620341</v>
+        <v>0.8233317013995376</v>
       </c>
       <c r="ER6">
-        <v>0.8267306644850161</v>
+        <v>0.8292253587878855</v>
       </c>
       <c r="ES6">
-        <v>0.828289469491085</v>
+        <v>0.8307091800352373</v>
       </c>
       <c r="ET6">
-        <v>0.8286017277223007</v>
+        <v>0.8309276254973122</v>
       </c>
       <c r="EU6">
-        <v>0.8320105695355722</v>
+        <v>0.8342894282411715</v>
       </c>
       <c r="EV6">
-        <v>0.8466389255925243</v>
+        <v>0.8490402152838303</v>
       </c>
       <c r="EW6">
-        <v>0.8586219561391775</v>
+        <v>0.8611057193411783</v>
       </c>
       <c r="EX6">
-        <v>0.8670356811719343</v>
+        <v>0.8695480037499322</v>
       </c>
       <c r="EY6">
-        <v>0.8708518398867916</v>
+        <v>0.8733232758914892</v>
       </c>
       <c r="EZ6">
-        <v>0.872695111693968</v>
+        <v>0.87509586079304</v>
       </c>
       <c r="FA6">
-        <v>0.8739873025989988</v>
+        <v>0.876309040750171</v>
       </c>
       <c r="FB6">
-        <v>0.8748009316721664</v>
+        <v>0.8770364302291479</v>
       </c>
       <c r="FC6">
-        <v>0.8749064600125773</v>
+        <v>0.8770450231584543</v>
       </c>
       <c r="FD6">
-        <v>0.8760915660171913</v>
+        <v>0.8781495007045007</v>
       </c>
       <c r="FE6">
-        <v>0.8802168280332521</v>
+        <v>0.8822385451331329</v>
       </c>
       <c r="FF6">
-        <v>0.8811510762368894</v>
+        <v>0.8830883756869387</v>
       </c>
       <c r="FG6">
-        <v>0.8931240577835033</v>
+        <v>0.8951436789547356</v>
       </c>
       <c r="FH6">
-        <v>0.9092847398464212</v>
+        <v>0.9114499376910479</v>
       </c>
       <c r="FI6">
-        <v>0.9167514663754912</v>
+        <v>0.9189309192434368</v>
       </c>
       <c r="FJ6">
-        <v>0.9205695971903562</v>
+        <v>0.9227081932734478</v>
       </c>
       <c r="FK6">
-        <v>0.926926411615105</v>
+        <v>0.9290624975691738</v>
       </c>
       <c r="FL6">
-        <v>0.9273642472568097</v>
+        <v>0.9294084172806039</v>
       </c>
       <c r="FM6">
-        <v>0.9358029552896638</v>
+        <v>0.937876062056096</v>
       </c>
       <c r="FN6">
-        <v>0.9413779849113689</v>
+        <v>0.9434367727386297</v>
       </c>
       <c r="FO6">
-        <v>0.9511473189494035</v>
+        <v>0.9532551425411978</v>
       </c>
       <c r="FP6">
-        <v>0.9620533299918635</v>
+        <v>0.9642273587826614</v>
       </c>
       <c r="FQ6">
-        <v>0.9672846580122305</v>
+        <v>0.9694391762728435</v>
       </c>
       <c r="FR6">
-        <v>0.9716741885293201</v>
+        <v>0.9737964809615471</v>
       </c>
       <c r="FS6">
-        <v>0.9744106191399737</v>
+        <v>0.9764757157739768</v>
       </c>
       <c r="FT6">
-        <v>0.9746994147410981</v>
+        <v>0.9766703442044126</v>
       </c>
       <c r="FU6">
-        <v>0.9749667592121389</v>
+        <v>0.9768431974867976</v>
       </c>
       <c r="FV6">
-        <v>0.9751689446729261</v>
+        <v>0.9769499075361882</v>
       </c>
       <c r="FW6">
-        <v>0.9753737030837233</v>
+        <v>0.9770592293998364</v>
       </c>
       <c r="FX6">
-        <v>0.9758221065554691</v>
+        <v>0.9774158765677139</v>
       </c>
       <c r="FY6">
-        <v>0.9761663126168092</v>
+        <v>0.9776667524298726</v>
       </c>
       <c r="FZ6">
-        <v>0.9769367721498088</v>
+        <v>0.9783503202954995</v>
       </c>
       <c r="GA6">
-        <v>0.9801664291623827</v>
+        <v>0.9815302316635464</v>
       </c>
       <c r="GB6">
-        <v>0.9825782491717726</v>
+        <v>0.983879952652051</v>
       </c>
       <c r="GC6">
-        <v>0.9840658788775644</v>
+        <v>0.9852915235007035</v>
       </c>
       <c r="GD6">
-        <v>0.9850460546813804</v>
+        <v>0.9861879753881924</v>
       </c>
       <c r="GE6">
-        <v>0.9856991144839229</v>
+        <v>0.9867523702078372</v>
       </c>
       <c r="GF6">
-        <v>0.9863547059164752</v>
+        <v>0.9873193348976036</v>
       </c>
       <c r="GG6">
-        <v>0.9871577828196019</v>
+        <v>0.9880360128166764</v>
       </c>
       <c r="GH6">
-        <v>0.9875001551009348</v>
+        <v>0.9882850271996966</v>
       </c>
       <c r="GI6">
-        <v>0.9884488278646283</v>
+        <v>0.9891495001956284</v>
       </c>
       <c r="GJ6">
-        <v>0.9887408744657653</v>
+        <v>0.989347428732227</v>
       </c>
       <c r="GK6">
-        <v>0.9890081016168057</v>
+        <v>0.9895201629225004</v>
       </c>
       <c r="GL6">
-        <v>0.9890098328572124</v>
+        <v>0.9895201629225004</v>
       </c>
       <c r="GM6">
-        <v>0.9895097850591589</v>
+        <v>0.9899291374608976</v>
       </c>
       <c r="GN6">
-        <v>0.9902973086922249</v>
+        <v>0.9906300271787464</v>
       </c>
       <c r="GO6">
-        <v>0.9909951902649419</v>
+        <v>0.9912399207985777</v>
       </c>
       <c r="GP6">
-        <v>0.9947823629796864</v>
+        <v>0.994985769108318</v>
       </c>
       <c r="GQ6">
-        <v>0.998344577293555</v>
+        <v>0.9985032610347238</v>
       </c>
       <c r="GR6">
-        <v>0.9999161077996733</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>115</v>
       </c>
       <c r="E2">
-        <v>0.01198112155396092</v>
+        <v>0.06605474299782992</v>
       </c>
       <c r="F2">
-        <v>0.5017007884286215</v>
+        <v>0.5015045726368995</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>114</v>
       </c>
       <c r="E3">
-        <v>0.0114076026235576</v>
+        <v>0.0115979664083281</v>
       </c>
       <c r="F3">
-        <v>0.5025094734356841</v>
+        <v>0.5024821621549612</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>110</v>
       </c>
       <c r="E4">
-        <v>0.006828511684220052</v>
+        <v>0.004582660672298812</v>
       </c>
       <c r="F4">
-        <v>0.5074413547546999</v>
+        <v>0.5074488679053607</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>115</v>
       </c>
       <c r="E5">
-        <v>0.009508569443508377</v>
+        <v>0.008402563407367898</v>
       </c>
       <c r="F5">
-        <v>0.5043526798327392</v>
+        <v>0.5042286299170156</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>105</v>
       </c>
       <c r="E6">
-        <v>0.007298023573746253</v>
+        <v>0.003078305570830555</v>
       </c>
       <c r="F6">
-        <v>0.5004769102488232</v>
+        <v>0.5019336311786109</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>142</v>
       </c>
       <c r="E2">
-        <v>0.01198112155396092</v>
+        <v>0.06605474299782992</v>
       </c>
       <c r="F2">
-        <v>0.7279192398787487</v>
+        <v>0.7280236660904587</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>142</v>
       </c>
       <c r="E3">
-        <v>0.0114076026235576</v>
+        <v>0.0115979664083281</v>
       </c>
       <c r="F3">
-        <v>0.7214930759024631</v>
+        <v>0.7214987449483377</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>141</v>
       </c>
       <c r="E4">
-        <v>0.006828511684220052</v>
+        <v>0.004582660672298812</v>
       </c>
       <c r="F4">
-        <v>0.7043132651378606</v>
+        <v>0.7044641052853386</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>143</v>
       </c>
       <c r="E5">
-        <v>0.009508569443508377</v>
+        <v>0.008402563407367898</v>
       </c>
       <c r="F5">
-        <v>0.7170795993892065</v>
+        <v>0.7171436285466408</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>134</v>
       </c>
       <c r="E6">
-        <v>0.007298023573746253</v>
+        <v>0.003078305570830555</v>
       </c>
       <c r="F6">
-        <v>0.7034954694752286</v>
+        <v>0.7053409504920687</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>150</v>
       </c>
       <c r="E2">
-        <v>0.01198112155396092</v>
+        <v>0.06605474299782992</v>
       </c>
       <c r="F2">
-        <v>0.8007172247655935</v>
+        <v>0.8009261825242179</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>151</v>
       </c>
       <c r="E3">
-        <v>0.0114076026235576</v>
+        <v>0.0115979664083281</v>
       </c>
       <c r="F3">
-        <v>0.8082818511397011</v>
+        <v>0.8083052465398555</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.006828511684220052</v>
+        <v>0.004582660672298812</v>
       </c>
       <c r="F4">
-        <v>0.8049023724694888</v>
+        <v>0.8053777521411418</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>151</v>
       </c>
       <c r="E5">
-        <v>0.009508569443508377</v>
+        <v>0.008402563407367898</v>
       </c>
       <c r="F5">
-        <v>0.8034242510470055</v>
+        <v>0.8036202450929719</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>144</v>
       </c>
       <c r="E6">
-        <v>0.007298023573746253</v>
+        <v>0.003078305570830555</v>
       </c>
       <c r="F6">
-        <v>0.8041606194871449</v>
+        <v>0.8066099829137413</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>163</v>
       </c>
       <c r="E2">
-        <v>0.01198112155396092</v>
+        <v>0.06605474299782992</v>
       </c>
       <c r="F2">
-        <v>0.9004439163846077</v>
+        <v>0.9007598275413271</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>165</v>
       </c>
       <c r="E3">
-        <v>0.0114076026235576</v>
+        <v>0.0115979664083281</v>
       </c>
       <c r="F3">
-        <v>0.9014576415060866</v>
+        <v>0.9014904385402464</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>165</v>
       </c>
       <c r="E4">
-        <v>0.006828511684220052</v>
+        <v>0.004582660672298812</v>
       </c>
       <c r="F4">
-        <v>0.9014033569556844</v>
+        <v>0.9019667593633443</v>
       </c>
       <c r="G4">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>164</v>
       </c>
       <c r="E5">
-        <v>0.009508569443508377</v>
+        <v>0.008402563407367898</v>
       </c>
       <c r="F5">
-        <v>0.915932965594119</v>
+        <v>0.9162564998058376</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>163</v>
       </c>
       <c r="E6">
-        <v>0.007298023573746253</v>
+        <v>0.003078305570830555</v>
       </c>
       <c r="F6">
-        <v>0.9092847398464212</v>
+        <v>0.9114499376910479</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6">
         <v>18</v>

--- a/on_trucks/Processed_Stand_Alone/18_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/18_245-70R19.xlsx
@@ -1994,7 +1994,7 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.963256557315636E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2003,43 +2003,43 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.53912669617374E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001779234762618431</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0002445426905617236</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.000176895067719206</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0002499288541036034</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0004166761657108576</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0005355648960154596</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0004727044600430928</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0003324186319345604</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0002590266578216146</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001491897773080109</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.398404705018827E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>5.309072542591023E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -2051,43 +2051,43 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.696370402156972E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>4.940024774069226E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>9.737393966637129E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001095608829741926</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001025807634668833</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.00016435096033441</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0002352009968384119</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0002073510805171523</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0002276551392281151</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0002024110082737503</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>8.280453764328695E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.694098902838465E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>9.324171216964332E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -2096,46 +2096,46 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.345740530440633E-07</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>3.204932847935223E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0001029170390302776</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0001627792437012061</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0002802075543917294</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0002481274481217322</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0002184275625836558</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001926032520104765</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.000158353787196912</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.000169267568878018</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0001324910094033263</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>5.493057554584843E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>8.898770726812075E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
         <v>0</v>
@@ -2147,43 +2147,43 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>2.281404935859189E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>1.132540502537411E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>2.847461675488409E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.773191836269914E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>5.000995770024394E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>9.737393966637129E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0001511802979001973</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0001450134193890827</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.000137120242821357</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>9.344589252252951E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>9.422613079127659E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>8.022643703355716E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>1.81805055645725E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
         <v>0</v>
@@ -2198,43 +2198,43 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>4.945306916546791E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>5.242282488872158E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>8.311238580033549E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0001947433160546004</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.000288511245347852</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0003597385877789084</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0003491100737054341</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0003491100737054341</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0003505184978410557</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.000133395887286954</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>9.533473942396216E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>8.237132227587655E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>1.99625524887437E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -2246,316 +2246,316 @@
         <v>0</v>
       </c>
       <c r="CH2">
-        <v>2.596986178397985E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>8.022643703355716E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0001312151983254794</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0002305439542192994</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0003003074046495669</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0003670305998705617</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.05515842545987793</v>
+        <v>0.09330131541991213</v>
       </c>
       <c r="CO2">
-        <v>0.005028543665977516</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.1855829111524208</v>
+        <v>0.5786828731655385</v>
       </c>
       <c r="CQ2">
-        <v>0.06800220082135378</v>
+        <v>0.1411000984412546</v>
       </c>
       <c r="CR2">
-        <v>0.0005133456052819656</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.01186079901171998</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.01598969863725391</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.03778250300706371</v>
+        <v>0.02863590951372354</v>
       </c>
       <c r="CV2">
-        <v>0.01179630344289585</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.0362313697991282</v>
+        <v>0.02286328600103787</v>
       </c>
       <c r="CX2">
-        <v>0.002117423608079351</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.0006718151283322283</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.002697341593594547</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.008073412633465055</v>
+        <v>0</v>
       </c>
       <c r="DB2">
         <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.01534718566266949</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.0002530475390878503</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.00356788951525901</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.0004801874534038133</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.004239767239884962</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.005021178091473763</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.002023617783606279</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>1.108779542355137E-05</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.01468226575800382</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.003475934693690128</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.002803736425620456</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.000278940133242466</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.004713821287180536</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.0003634368301623858</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.004294539624130236</v>
+        <v>0</v>
       </c>
       <c r="DR2">
         <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001366642418731411</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.00529492018525123</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.006126520372417681</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.001506182586919204</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.01226286426031497</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.002288111285774629</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.006948535969399696</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.002822908315655262</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0003380572460189195</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0475090385394553</v>
+        <v>0.06483372116781501</v>
       </c>
       <c r="EC2">
-        <v>0.01806595105230601</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.007615287407518055</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.009834636276754101</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>4.965295921396493E-05</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0003505184978410557</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.004457717011089499</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.004833050903494934</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.0005716765135067262</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.003574103682458504</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.02919439949344735</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.04905384417565424</v>
+        <v>0.07058279629071837</v>
       </c>
       <c r="EN2">
-        <v>0.0236600593755548</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0143816915486074</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.02029831033232601</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.003189584223266325</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.002010388793103972</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.001753288865320652</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0007308313512138878</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.006878361944366232</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.01974930291108642</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.02214663167082539</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.01656585289679232</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.006222176898720952</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.004462622208928803</v>
+        <v>0</v>
       </c>
       <c r="FA2">
         <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.001424297185020236</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.0002796812870891226</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>3.661933261447278E-05</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.002277561853803112</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.001533498428085658</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.008598651266598575</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.01653674907754404</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.00811906749364583</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.002587692653502689</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.008062966871304863</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0006252532727140827</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.008053646122295609</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.006303499994760444</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.008640100123107985</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.01209357938670746</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.003173351116469613</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.002965648398590403</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.001843903305476155</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.001432663328758145</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.001284446408830467</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>4.783658985468024E-05</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0004415094310238348</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.001902616045773654</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0007377026625804076</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0009966995572307309</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.00348460542395017</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.002758804343737015</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.00255598233634574</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.0006076959019983751</v>
+        <v>0</v>
       </c>
       <c r="GE2">
         <v>0</v>
       </c>
       <c r="GF2">
-        <v>1.121135317921997E-06</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0003654688889296994</v>
+        <v>0</v>
       </c>
       <c r="GH2">
         <v>0</v>
@@ -2564,34 +2564,34 @@
         <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.00114316844155956</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0029997804545828</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.001022761625935569</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.002161692323599927</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.001858166685857744</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0003436219665097874</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.003802038572615133</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.004789754155179253</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.001995557486815053</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>3.77699531120332E-05</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,43 +2767,43 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>6.843120562873279E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>9.113829624179273E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.39104213625625E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.171830548248153E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.826540257639477E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0002135567167587739</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0003882300591112474</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0002299851808619689</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001637676157123621</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.000281911720096464</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001912477490316109</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.235273136146485E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.529392995476108E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2815,556 +2815,556 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>6.419351540074767E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>5.731782361373575E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>5.088367536815319E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001205894154667889</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0001783222861157775</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1.970547835514297E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>8.517347600311584E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0003038853321945743</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0003844030772344302</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0005687675980062964</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0008376355946319737</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0001536098146608798</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.757512076779498E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.617268575674987E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0001852667817810522</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.781846459628038E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>7.921014721210394E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>6.133364749568397E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>5.309730984467255E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0001189046988742341</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0002424759850261108</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0002712986613481447</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>6.940593490745305E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0001336359709673918</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0002225610969342459</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.757512076779498E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>6.728962989650683E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>6.647695979240395E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>8.982533608543561E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0002430548463981647</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.683024277662716E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>3.496742389462267E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>5.404126656032739E-06</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>3.426602631090069E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>6.656888691199433E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0001015407635402281</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0001199498977545619</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0002124039061477727</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0002270360702030076</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0002928657068936738</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0001391736157039977</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>4.548819956877742E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
         <v>0</v>
       </c>
       <c r="BL3">
-        <v>2.365702032250287E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>3.247237321238526E-06</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>2.966053936623635E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1.208944907465214E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0001154322659612251</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0003149628726452789</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0002114399375419026</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>9.3102609249817E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0001407997918752226</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0002072377027105155</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0002775455740862219</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0001336359709673918</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.000168641832353595</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0002051522170829666</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0001068212466037097</v>
+        <v>0</v>
       </c>
       <c r="CA3">
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>1.708328165941906E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>5.081775194073366E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0001528893217849776</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0002158033623704645</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0001598013233396004</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0002166574032399296</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0002279118104955036</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0001186758795088305</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.000261957204796381</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0002733475710925213</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>9.775015745969496E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0006546174685354915</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1168670408651527</v>
+        <v>0.3744967168228179</v>
       </c>
       <c r="CO3">
-        <v>0.0041076613117906</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.1572146018982978</v>
+        <v>0.5484627020398865</v>
       </c>
       <c r="CQ3">
-        <v>0.02678049254762704</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>8.13591196089473E-05</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.007355478184700943</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.03311287039915172</v>
+        <v>0.01337509241566388</v>
       </c>
       <c r="CU3">
-        <v>0.02026974123696457</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.02538669328667884</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.01855523270718362</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.01178889840894514</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.0001793797453201828</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.0004934199881110517</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.01203170384783745</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>2.954319841062169E-05</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.00728694272299874</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.002955654950036708</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.00976633810688219</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.002200422988596417</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.00800616674789909</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.01074635768292781</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.002448393570465475</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.001262829636248605</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.01130235512626128</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0008376355946319737</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.001789111075330068</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.0002610188673208958</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.003338105830324545</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.000313564845548382</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.004852250151427612</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0002568169726372187</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>2.062400122608472E-05</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.01210560093784066</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.006232882694694476</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.005343162731490207</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.02797694010808687</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.001631663003095871</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.0008500056063416787</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.004780052799540087</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.001455353440210382</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.04168507290034645</v>
+        <v>0.05033573180537802</v>
       </c>
       <c r="EC3">
-        <v>0.01657145524667031</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.00983498991910991</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.00787485072357455</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.0004178882682655831</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.0001836877260720104</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.008285203920515847</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.005512883032971822</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.002324148616771719</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.001562344201226166</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.01961691374493102</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.03310235583317414</v>
+        <v>0.01332975691625373</v>
       </c>
       <c r="EN3">
-        <v>0.01849624108992064</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.01791924452766526</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.01951991162150705</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.001077016246301537</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.003608879814630322</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.002145179899141377</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.001762310136952987</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.006525326689258476</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.01575239156614026</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0157306421213874</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.01058521770747505</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.004083617370646725</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.001892041873296356</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0006583249785313339</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.001382688185134683</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>1.208944907465214E-05</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.001151337020290623</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.005410970777310176</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.002747755569190745</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.01507544960233473</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.02029854574539715</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.008997617287870473</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.005158894312450768</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.008717521655614869</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>9.300311684498184E-07</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.01147726107962569</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.007645761541002168</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.01324291682021574</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.01543488568838841</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.005744850765562026</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.00631234260036484</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.003631485331134561</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0004947072270979241</v>
+        <v>0</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0006988166121283641</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>8.302610350103095E-05</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0002869401537068161</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0001378027704108696</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0005570915976728335</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.003611103180132564</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.003311907553654875</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.002982868867751139</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0006612984697776287</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>8.064223830137804E-05</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0004972867972829752</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.001765078239008492</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.000544184562759408</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.001611870107979773</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0002534428073972019</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0001997788436816145</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>1.404030023683489E-05</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0001678873547197234</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0001214618143082512</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>7.235273136146485E-06</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.003324760835225772</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.002681077313985284</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.002010789739865754</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.0001965071829544486</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3543,25 +3543,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.099028977353814E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6.422807938804846E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0002239697342562561</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002293606521669647</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001504537769577176</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001543155929498189</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>5.670096586864279E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.322686669278987E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3579,37 +3579,37 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.145899830453039E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001183012712432048</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.781521676575462E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>8.215512252945597E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.000157355362961606</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>4.357197178355625E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>7.540333148142815E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0001309391980797967</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002439702134780008</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0001359327322199806</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>9.75383410290598E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3621,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>9.78785447232985E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>3.666794772513669E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -3642,25 +3642,25 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>6.441087511751936E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>6.773702346199577E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0001832160579204404</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0003548637805321008</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>3.697669719542028E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0001162182087213904</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -3678,43 +3678,43 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>3.279573755090301E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>5.367110202559656E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>2.068808103444739E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>5.882358363671127E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0001359327322199806</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0001329277570599008</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>6.437650589398647E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0001176666324673577</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0001164012489606635</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0002653433888419105</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>4.563557414250149E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>6.371405236725034E-06</v>
+        <v>0</v>
       </c>
       <c r="BI4">
         <v>0</v>
@@ -3729,19 +3729,19 @@
         <v>0</v>
       </c>
       <c r="BM4">
-        <v>2.172011766780407E-07</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>2.236418466113203E-06</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>9.310141383274229E-06</v>
+        <v>0</v>
       </c>
       <c r="BP4">
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>7.742905293284809E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0001337331703363771</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>5.942664140574285E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="BX4">
-        <v>2.913088074497077E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="CC4">
-        <v>8.895928697341686E-06</v>
+        <v>0</v>
       </c>
       <c r="CD4">
         <v>0</v>
@@ -3786,331 +3786,331 @@
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>1.344655295174659E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>2.559239727074677E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0004041879581115435</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>6.488917553320709E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>4.404899430850761E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>3.450719246518247E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.00603641462529849</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1143378953305725</v>
+        <v>0.3093778021200364</v>
       </c>
       <c r="CO4">
-        <v>0.09737217014792074</v>
+        <v>0.2470307134666228</v>
       </c>
       <c r="CP4">
-        <v>0.1083847457443306</v>
+        <v>0.2875006621201509</v>
       </c>
       <c r="CQ4">
-        <v>0.001956955628312445</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.0003701913353186784</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.002468535136175661</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.04649973235095517</v>
+        <v>0.06008035589593985</v>
       </c>
       <c r="CU4">
-        <v>0.01402467192135196</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.0455817670869885</v>
+        <v>0.05670693913496305</v>
       </c>
       <c r="CW4">
-        <v>0.0005412835578209686</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.01010370568756142</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.001864972147507242</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.001745686983912625</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.01204527753087624</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.004698756134080788</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.002291825788978038</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.01184626164497047</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.003544795643690919</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.002314637547323031</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.01483592525911536</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.008175898840526384</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>1.92216199110451E-06</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.005913326881481581</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.006466821306123348</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0002916596971279005</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>4.84283640985973E-05</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.002267698809387628</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.001456908027822313</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.002636015797965437</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.002685213886971501</v>
+        <v>0</v>
       </c>
       <c r="DR4">
         <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.001055532710240448</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.01189538497233738</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.001306171457669461</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.01104671962238985</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.02611133078120176</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0002445784894685753</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.0005241906724479032</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.00215311879923628</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.01298320405187495</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.04084599658912817</v>
+        <v>0.03930352726228709</v>
       </c>
       <c r="EC4">
-        <v>0.01160188969383752</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.009632277707881698</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.004096241720165525</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0002965044022768751</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0003958610610783943</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.007481165995028776</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.002377120165816224</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0001966742195536256</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.003688060577887954</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0191393199169608</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.02732596089518008</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.01562875181494369</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.02112433903910348</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.01632541558353054</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
         <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.004409790022339303</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.001855405475092788</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.005069454829251746</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.00917452919636161</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.01535566555834024</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.00960711533493077</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.006071225375173957</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.004260809394803985</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0007344446917272048</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.001037841570760065</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0001681736438243429</v>
+        <v>0</v>
       </c>
       <c r="FC4">
         <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.002395494524044705</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.004874801179338067</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.004196562582745196</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.01920675632417363</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.01684704253246483</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.004189901652747173</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.007643172857128343</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.006725399276772157</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.001892332090039682</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.007950061336138594</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.009998259577536518</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.01831997863766984</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.01266666649159094</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.008297011186631563</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.006715758748310412</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001569767212196051</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.0005357614196496717</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>6.135314420049926E-07</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>3.267996568124184E-05</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.001055532710240448</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0003486045610212692</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0001714766593278491</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.001602332899227989</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.004107079944173457</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.003347742577832153</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.001596120539064873</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>9.745878277168738E-05</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>5.882358363671127E-05</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0004984413753500435</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.000702507304328091</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0008627310459921767</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0005229795942664446</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0001866383801205033</v>
+        <v>0</v>
       </c>
       <c r="GK4">
         <v>0</v>
@@ -4119,25 +4119,25 @@
         <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0002835665836646086</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0002081295339795741</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0009358633744543385</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.003721607624632734</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.002199389009135989</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0007602388256842917</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>6.168625409183011E-05</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4316,19 +4316,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001283262918970326</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0005257906533242654</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0002614813840948368</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001799743654126162</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001046614726002546</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4337,22 +4337,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.867114078146298E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>4.852636578359257E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.455220108982181E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>4.03608427302279E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -4361,34 +4361,34 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001034254008062476</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3.764012956032429E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.000183564583095258</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0003484530414501437</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.000416846626612228</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0001653111124113622</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0002026877037451473</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0002332248422688896</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>3.764012956032429E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -4403,145 +4403,145 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>8.995356645277801E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001099850777908406</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>8.365747684789315E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0001160696081438418</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0001603896563807721</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>4.447819805662793E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2.458355020670777E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0003017192716774975</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0003886333797000375</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>8.792959945346278E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.772541174111506E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>6.927203956408429E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>8.699986525555812E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>5.175022884765603E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>2.909694064075558E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>9.554407034166147E-06</v>
+        <v>0</v>
       </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>2.315688047958126E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>4.829849871398549E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>8.997388978347105E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0003614445550486396</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0002573137972390954</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>5.891941917162335E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0001283499656682249</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>5.624957953163572E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>1.966866766012716E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0001407936621825758</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>6.593031622888969E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>4.447819805662793E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>6.362550407191744E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>1.96567334713189E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>9.614122416684676E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.000197282530375293</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0001843327367828941</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0001768345412269077</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001903527360468783</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0003042298550499221</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0002614813840948368</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>7.591983514005939E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>2.623271225488001E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>2.9434810496335E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>2.909694064075558E-06</v>
+        <v>0</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -4553,328 +4553,328 @@
         <v>0</v>
       </c>
       <c r="CD5">
-        <v>1.504971628158326E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>4.080250401621934E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>8.699986525555812E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0001508248108185116</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0001807908697685347</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>2.08716262682419E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>3.171280207617301E-06</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0003314837625095809</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>6.039576971197315E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>5.268564374752091E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.03211642864701339</v>
+        <v>0.008447787672165422</v>
       </c>
       <c r="CO5">
-        <v>0.04639180095104424</v>
+        <v>0.06756617692790853</v>
       </c>
       <c r="CP5">
-        <v>0.1179219250615212</v>
+        <v>0.3637928273166164</v>
       </c>
       <c r="CQ5">
-        <v>0.1152487109060127</v>
+        <v>0.3527222848716612</v>
       </c>
       <c r="CR5">
-        <v>0.00402564404663628</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.002914072113766578</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.0009362813067248769</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0431441758407095</v>
+        <v>0.05411683484838303</v>
       </c>
       <c r="CV5">
-        <v>0.02243001425717687</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.05038520001023108</v>
+        <v>0.08410398168749887</v>
       </c>
       <c r="CX5">
         <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.001517186498614712</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.005501385990503771</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.0003052721630454757</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.004905700240070173</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.007002795618910965</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.001522610199719902</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.006689160081275637</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.002366571014279425</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.002425844620152484</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.01003998698461959</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.006013152234564288</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.0004156782256912986</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.00606540757040473</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.005541061926958384</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0006859027176846676</v>
+        <v>0</v>
       </c>
       <c r="DN5">
         <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.004468932703772016</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.001230797966932864</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.001203127842475616</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.001079024416693185</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0006799628782111908</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.002082316833570707</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.008489430205966837</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0009053438407177695</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0117137727642095</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.01247644838131663</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.00302602256898241</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.0001911621081776622</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.001677153781814259</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.01456459136308091</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.03143137290564003</v>
+        <v>0.005610776411243282</v>
       </c>
       <c r="ED5">
-        <v>0.008422457508514202</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.01015003089875372</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.00148983085412648</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0001393612686190755</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.0003696794161703244</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.005663206950050192</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.001475703129917121</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>1.346399994020637E-05</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.0137657861605063</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.03480092997512587</v>
+        <v>0.0195650735189311</v>
       </c>
       <c r="EN5">
-        <v>0.04071918518865584</v>
+        <v>0.04407425674559223</v>
       </c>
       <c r="EO5">
-        <v>0.01732700046405989</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.02487254356243078</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.01373615482460591</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0006099470579094138</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.003461623570173809</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.002459244198488627</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.006195364536739635</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.01781473833192317</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.02519706482168579</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.01863327100840743</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.01299953439957288</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.009007090316240926</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.001415605957681821</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.0004375074489823874</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>5.910933397600632E-06</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>6.16194629323991E-05</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.001388049788326584</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.002825020514986848</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.006306283477594577</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.01754943259755173</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.01680986398550454</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.003912141655343686</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.01176854143198733</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.007600398142310422</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.001494191241779813</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.004338338752491894</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.005976166481142874</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.01342879704946531</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.006069939091336259</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.003843966009314196</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.00292167309963333</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>5.624957953163572E-05</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.001859695109284143</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0001522574752260045</v>
+        <v>0</v>
       </c>
       <c r="FW5">
         <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0006056887684099772</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0004791066787211948</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
         <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0009510679341803233</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.002678851529451765</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.00293679813161046</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.001155569242402098</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>4.080250401621934E-05</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>4.843403807594264E-06</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>4.782912607506238E-05</v>
+        <v>0</v>
       </c>
       <c r="GH5">
         <v>0</v>
@@ -4883,34 +4883,34 @@
         <v>0</v>
       </c>
       <c r="GJ5">
-        <v>9.736050764582521E-05</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.001821079878154053</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0005271450739117159</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.001019530724998109</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0006941111364076817</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0003441729339624261</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.00131238309902876</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.003476534635396899</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.001854920430634946</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0002733493365000429</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,13 +5086,13 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.825603986604907E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002396487406061522</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0002988837175295935</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5110,10 +5110,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3.739748620283402E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3.079490868265832E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5128,25 +5128,25 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>8.899909729387342E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.000192498161659925</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>6.650354956876041E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0002857205979848444</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0006174045640078234</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.000264045204296723</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001606728656314921</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -5194,13 +5194,13 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>4.955285524199011E-07</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>6.898193843299147E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>4.685714763648899E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>5.264999117189125E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -5233,22 +5233,22 @@
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>5.118424561906798E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0001907995358070876</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.00010574334465329</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>4.069866837690306E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>6.586368832032016E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>3.459002061886537E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>8.695639147027209E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="CK6">
-        <v>7.00451288949309E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
         <v>0</v>
@@ -5356,331 +5356,331 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1557664693123023</v>
+        <v>0.416559606189525</v>
       </c>
       <c r="CO6">
-        <v>0.01314707045647978</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.1660553699721699</v>
+        <v>0.4507345297394683</v>
       </c>
       <c r="CQ6">
-        <v>0.01760733701093924</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.0002144635403765103</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.006976827145733883</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.01581194120408683</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.05799325663107895</v>
+        <v>0.09180264924402427</v>
       </c>
       <c r="CV6">
-        <v>0.03208947376483072</v>
+        <v>0.005762378434396673</v>
       </c>
       <c r="CW6">
-        <v>6.354181848692482E-05</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.002747976297879867</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.006090714838019041</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.006373764263484805</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.005897517832438084</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.01201960151947336</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>6.522504519780894E-05</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.007922848104766188</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.001612266434431826</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.002997962435784437</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.01254580857341683</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.00535998362850121</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.001774742101060714</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.0004597691715133314</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.01069408459339447</v>
+        <v>0</v>
       </c>
       <c r="DL6">
         <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.002568677804618087</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>7.199274983871911E-05</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.00181378618391264</v>
+        <v>0</v>
       </c>
       <c r="DP6">
         <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.005287090566863842</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001331292695549192</v>
+        <v>0</v>
       </c>
       <c r="DS6">
         <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.01421584298048914</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.01175215689622191</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.004830680098446055</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.02358137982360508</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0005560769482487385</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>9.718057919015797E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.003447809641696409</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.002573830477298042</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.0409343226795668</v>
+        <v>0.03514083639258581</v>
       </c>
       <c r="EC6">
-        <v>0.02281172624231773</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.01206550405734791</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.01203527880018046</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0017169311641036</v>
+        <v>0</v>
       </c>
       <c r="EG6">
         <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.003400035250310857</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.005471051335608632</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.001166393668894919</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0013540055670911</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0178980732170594</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.02984026514310427</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.02092156835902342</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.01950070871647641</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.01669810954559442</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>2.360894020190408E-05</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.005893657388347882</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.00148382124735181</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.0002184454620749891</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.003361802743859172</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.01475078704265885</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.01206550405734791</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.008442284408753919</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.003775272141556958</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.00177258490155083</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.001213179957131009</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0007273894789768978</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>8.592929306450587E-06</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.001104477546046353</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.004089044428632202</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0008498305538056883</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.01205530326779692</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.01630625873631226</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.007480981552388995</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.003777274030010886</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.006354304295725977</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.0003459197114300931</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.008467644775492162</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.005560710682533683</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.009818369802568165</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0109722162414636</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.005211817490182065</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.004357304688703652</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.002679234812429748</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0001946284304357274</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0001728532823850649</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0001067100493905979</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0001093218636482595</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0003566471678775731</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.0002508758621586863</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0006835678656269717</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.003179911368046879</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.00234972098850465</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.00141157084865252</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.000896451887488884</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0005643948196448809</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0005669646897663849</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0007166779190727919</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.000249014383020182</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0008644729959318449</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0001979285365985591</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0001727341902733997</v>
+        <v>0</v>
       </c>
       <c r="GL6">
         <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0004089745383971508</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0007008897178488038</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0006098936198312928</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.003745848309740335</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.003517491926405744</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0014967389652771</v>
+        <v>0</v>
       </c>
       <c r="GS6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.963256557315636E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.963256557315636E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>7.963256557315636E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7.335452351905304E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0002512779997808961</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0004958206903426197</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0006727157580618257</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0009226446121654291</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001339320777876287</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.001874885673891746</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.002347590133934839</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.002680008765869399</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.002939035423691014</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003088225200999025</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.003132209248049213</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.003137518320591805</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.003137518320591805</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.003137518320591805</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.003137518320591805</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.003164482024613374</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.003213882272354067</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.003311256212020438</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.003420817094994631</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.003523397858461514</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.003687748818795924</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.003922949815634335</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.004130300896151488</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.004357956035379603</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.004560367043653354</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.004643171581296641</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.004680112570325025</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.004689436741541989</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.004689436741541989</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.004689436741541989</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.004689571315595034</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.004689571315595034</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.004721620644074386</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.004824537683104663</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.004987316926805869</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.005267524481197599</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.005515651929319331</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.005734079491902988</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.005926682743913464</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.006085036531110376</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.006254304099988394</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.00638679510939172</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.006441725684937569</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.006450624455664382</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.006450624455664382</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.006450624455664382</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.006450624455664382</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.006473438505022974</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.006484763910048348</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.006513238526803231</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.006530970445165931</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.006580980402866175</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.006678354342532546</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.006829534640432743</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.006974548059821826</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.007111668302643183</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.007205114195165712</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.007299340325956988</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.007379566762990545</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.007397747268555118</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.007397747268555118</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.007397747268555118</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.007397747268555118</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.007397747268555118</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.007402692575471665</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.007455115400360386</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.007538227786160722</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.007732971102215323</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.008021482347563174</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.008381220935342083</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.008730331009047517</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.009079441082752951</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.009429959580594007</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.00956335546788096</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.009658690207304923</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0097410615295808</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.009761024082069544</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.009761024082069544</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.009761024082069544</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.009761024082069544</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.009786993943853524</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.009867220380887082</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.009998435579212562</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.01022897953343186</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.01052928693808143</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.01089631753795199</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.06605474299782992</v>
+        <v>0.09330131541991213</v>
       </c>
       <c r="CO2">
-        <v>0.07108328666380744</v>
+        <v>0.09330131541991213</v>
       </c>
       <c r="CP2">
-        <v>0.2566661978162283</v>
+        <v>0.6719841885854506</v>
       </c>
       <c r="CQ2">
-        <v>0.3246683986375821</v>
+        <v>0.8130842870267052</v>
       </c>
       <c r="CR2">
-        <v>0.3251817442428641</v>
+        <v>0.8130842870267052</v>
       </c>
       <c r="CS2">
-        <v>0.337042543254584</v>
+        <v>0.8130842870267052</v>
       </c>
       <c r="CT2">
-        <v>0.353032241891838</v>
+        <v>0.8130842870267052</v>
       </c>
       <c r="CU2">
-        <v>0.3908147448989017</v>
+        <v>0.8417201965404287</v>
       </c>
       <c r="CV2">
-        <v>0.4026110483417975</v>
+        <v>0.8417201965404287</v>
       </c>
       <c r="CW2">
-        <v>0.4388424181409257</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="CX2">
-        <v>0.4409598417490051</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="CY2">
-        <v>0.4416316568773374</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="CZ2">
-        <v>0.4443289984709319</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DA2">
-        <v>0.4524024111043969</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DB2">
-        <v>0.4524024111043969</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DC2">
-        <v>0.4677495967670664</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DD2">
-        <v>0.4680026443061542</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DE2">
-        <v>0.4715705338214132</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DF2">
-        <v>0.4720507212748171</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DG2">
-        <v>0.476290488514702</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DH2">
-        <v>0.4813116666061758</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DI2">
-        <v>0.4833352843897821</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DJ2">
-        <v>0.4833463721852056</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DK2">
-        <v>0.4980286379432094</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DL2">
-        <v>0.5015045726368995</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DM2">
-        <v>0.50430830906252</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DN2">
-        <v>0.5045872491957625</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DO2">
-        <v>0.509301070482943</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DP2">
-        <v>0.5096645073131054</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DQ2">
-        <v>0.5139590469372357</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DR2">
-        <v>0.5139590469372357</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DS2">
-        <v>0.5153256893559671</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DT2">
-        <v>0.5206206095412184</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DU2">
-        <v>0.526747129913636</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DV2">
-        <v>0.5282533125005553</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DW2">
-        <v>0.5405161767608703</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DX2">
-        <v>0.5428042880466449</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DY2">
-        <v>0.5497528240160446</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="DZ2">
-        <v>0.5525757323316999</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="EA2">
-        <v>0.5529137895777188</v>
+        <v>0.8645834825414666</v>
       </c>
       <c r="EB2">
-        <v>0.6004228281171741</v>
+        <v>0.9294172037092816</v>
       </c>
       <c r="EC2">
-        <v>0.6184887791694801</v>
+        <v>0.9294172037092816</v>
       </c>
       <c r="ED2">
-        <v>0.6261040665769981</v>
+        <v>0.9294172037092816</v>
       </c>
       <c r="EE2">
-        <v>0.6359387028537522</v>
+        <v>0.9294172037092816</v>
       </c>
       <c r="EF2">
-        <v>0.6359883558129662</v>
+        <v>0.9294172037092816</v>
       </c>
       <c r="EG2">
-        <v>0.6363388743108073</v>
+        <v>0.9294172037092816</v>
       </c>
       <c r="EH2">
-        <v>0.6407965913218968</v>
+        <v>0.9294172037092816</v>
       </c>
       <c r="EI2">
-        <v>0.6456296422253918</v>
+        <v>0.9294172037092816</v>
       </c>
       <c r="EJ2">
-        <v>0.6462013187388985</v>
+        <v>0.9294172037092816</v>
       </c>
       <c r="EK2">
-        <v>0.649775422421357</v>
+        <v>0.9294172037092816</v>
       </c>
       <c r="EL2">
-        <v>0.6789698219148044</v>
+        <v>0.9294172037092816</v>
       </c>
       <c r="EM2">
-        <v>0.7280236660904587</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.7516837254660135</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.7660654170146208</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.7863637273469468</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.7895533115702131</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.7915637003633171</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.7933169892286378</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.7940478205798517</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.8009261825242179</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.8206754854353043</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.8428221171061298</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.8593879700029221</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8656101469016431</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8700727691105719</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8700727691105719</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8714970662955921</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8717767475826812</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8718133669152957</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8740909287690988</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8756244271971845</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.884223078463783</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.9007598275413271</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.908878895034973</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9114665876884757</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9195295545597805</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9201548078324946</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9282084539547902</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9345119539495507</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9431520540726587</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9552456334593661</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9584189845758357</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9613846329744261</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9632285362799022</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9646611996086604</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9659456460174909</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9659934826073455</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9664349920383694</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.968337608084143</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9690753107467235</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9700720103039542</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9735566157279043</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9763154200716413</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.978871402407987</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9794790983099854</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9794790983099854</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9794802194453033</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.979845688334233</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.979845688334233</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.979845688334233</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9809888567757926</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9839886372303754</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9850113988563111</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.987173091179911</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9890312578657687</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9893748798322786</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9931769184048937</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.997966672560073</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.999962230046888</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>6.843120562873279E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001595695018705255</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.000183479923233088</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0002251982287155696</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0002734636312919643</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0004870203480507383</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0008752504071619857</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001105235588023955</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001269003203736317</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001550914923832781</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001742162672864392</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001749397946000538</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001751927338996014</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001751927338996014</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001751927338996014</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001751927338996014</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001816120854396762</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001873438678010497</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001878527045547313</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001999116461014101</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002177438747129879</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.002197144225485022</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.002282317701488138</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.002586203033682712</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.002970606110917142</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.003539373708923439</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.004377009303555413</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.004530619118216292</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.004558194238984088</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.004558194238984088</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004584366924740837</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.004769633706521889</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.00485745217111817</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004858244272590291</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.004858244272590291</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.004919577920085975</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.004972675229930648</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.005091579928804882</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.005334055913830993</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.005605354575179137</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.00567476051008659</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.005808396481053982</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.006030957577988228</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.006058532698756023</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.00612582232865253</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.006132470024631771</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.006132470024631771</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.006222295360717206</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.006465350207115371</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.006482180449891998</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.006517147873786621</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.006522552000442654</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.006556818026753554</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.006623386913665549</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.006724927677205777</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.006844877574960339</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.007057281481108112</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.007284317551311119</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.007577183258204793</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.007716356873908791</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.007761845073477568</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.007761845073477568</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.007785502093800071</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.007788749331121309</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.007818409870487545</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.007830499319562197</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.007945931585523423</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.008260894458168702</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.008472334395710605</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.008565437004960421</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.008706236796835643</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.008913474499546159</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.009191020073632381</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.009324656044599772</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.009493297876953367</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.009698450094036333</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.009805271340640043</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.009805271340640043</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.009822354622299462</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.009873172374240196</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01002606169602517</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01024186505839564</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01040166638173524</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01061832378497517</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01084623559547067</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0109649114749795</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01122686867977588</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0115002162508684</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0115979664083281</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01225258387686359</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1291196247420163</v>
+        <v>0.3744967168228179</v>
       </c>
       <c r="CO3">
-        <v>0.1332272860538069</v>
+        <v>0.3744967168228179</v>
       </c>
       <c r="CP3">
-        <v>0.2904418879521047</v>
+        <v>0.9229594188627044</v>
       </c>
       <c r="CQ3">
-        <v>0.3172223804997317</v>
+        <v>0.9229594188627044</v>
       </c>
       <c r="CR3">
-        <v>0.3173037396193407</v>
+        <v>0.9229594188627044</v>
       </c>
       <c r="CS3">
-        <v>0.3246592178040416</v>
+        <v>0.9229594188627044</v>
       </c>
       <c r="CT3">
-        <v>0.3577720882031933</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="CU3">
-        <v>0.3780418294401579</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="CV3">
-        <v>0.4034285227268368</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="CW3">
-        <v>0.4219837554340204</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="CX3">
-        <v>0.4337726538429655</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="CY3">
-        <v>0.4339520335882857</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="CZ3">
-        <v>0.4344454535763967</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DA3">
-        <v>0.4464771574242342</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DB3">
-        <v>0.4465067006226449</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DC3">
-        <v>0.4537936433456436</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DD3">
-        <v>0.4567492982956803</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DE3">
-        <v>0.4665156364025625</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DF3">
-        <v>0.4687160593911589</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DG3">
-        <v>0.476722226139058</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DH3">
-        <v>0.4874685838219858</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DI3">
-        <v>0.4899169773924513</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DJ3">
-        <v>0.4911798070287</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DK3">
-        <v>0.5024821621549612</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DL3">
-        <v>0.5033197977495932</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DM3">
-        <v>0.5051089088249233</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DN3">
-        <v>0.5053699276922442</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DO3">
-        <v>0.5087080335225688</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DP3">
-        <v>0.5090215983681171</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DQ3">
-        <v>0.5138738485195448</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DR3">
-        <v>0.514130665492182</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DS3">
-        <v>0.514151289493408</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DT3">
-        <v>0.5262568904312487</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DU3">
-        <v>0.5324897731259431</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DV3">
-        <v>0.5378329358574333</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DW3">
-        <v>0.5658098759655201</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DX3">
-        <v>0.567441538968616</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DY3">
-        <v>0.5682915445749577</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="DZ3">
-        <v>0.5730715973744978</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="EA3">
-        <v>0.5745269508147082</v>
+        <v>0.9363345112783683</v>
       </c>
       <c r="EB3">
-        <v>0.6162120237150546</v>
+        <v>0.9866702430837463</v>
       </c>
       <c r="EC3">
-        <v>0.6327834789617249</v>
+        <v>0.9866702430837463</v>
       </c>
       <c r="ED3">
-        <v>0.6426184688808348</v>
+        <v>0.9866702430837463</v>
       </c>
       <c r="EE3">
-        <v>0.6504933196044094</v>
+        <v>0.9866702430837463</v>
       </c>
       <c r="EF3">
-        <v>0.650911207872675</v>
+        <v>0.9866702430837463</v>
       </c>
       <c r="EG3">
-        <v>0.651094895598747</v>
+        <v>0.9866702430837463</v>
       </c>
       <c r="EH3">
-        <v>0.6593800995192628</v>
+        <v>0.9866702430837463</v>
       </c>
       <c r="EI3">
-        <v>0.6648929825522346</v>
+        <v>0.9866702430837463</v>
       </c>
       <c r="EJ3">
-        <v>0.6672171311690064</v>
+        <v>0.9866702430837463</v>
       </c>
       <c r="EK3">
-        <v>0.6687794753702325</v>
+        <v>0.9866702430837463</v>
       </c>
       <c r="EL3">
-        <v>0.6883963891151635</v>
+        <v>0.9866702430837463</v>
       </c>
       <c r="EM3">
-        <v>0.7214987449483377</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.7399949860382583</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.7579142305659236</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.7774341421874306</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7785111584337321</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7821200382483624</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.7842652181475038</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.7860275282844568</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.7925528549737152</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8083052465398555</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8240358886612429</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8346211063687179</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8387047237393647</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8405967656126611</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8412550905911924</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8426377787763271</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8426498682254017</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8438012052456922</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8492121760230025</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8519599315921932</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8670353811945279</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8873339269399251</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8963315442277956</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9014904385402464</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9102079601958613</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9102088902270297</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9216861513066553</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9293319128476575</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9425748296678732</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9580097153562616</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9637545661218236</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9700669087221885</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.973698394053323</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9741931012804209</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9741931012804209</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9748919178925493</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9749749439960503</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9752618841497571</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.975399686920168</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9759567785178408</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9795678816979734</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9828797892516282</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9858626581193793</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9865239565891569</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9866045988274583</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9871018856247413</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9888669638637498</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9894111484265092</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.991023018534489</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9912764613418863</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9914762401855679</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9914902804858048</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9916581678405245</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9917796296548328</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.991786864927969</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9951116257631948</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.99779270307718</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9998034928170458</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8194,769 +8194,769 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.099028977353814E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001352183691615866</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0003591881034178427</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0005885487555848074</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007390025325425249</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0008933181254923439</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0009500190913609867</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0009500190913609867</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0009500190913609867</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0009832459580537765</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0009832459580537765</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0009832459580537765</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001004704956358307</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001123006227601512</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001150821444367267</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001159036956620212</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001316392319581818</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001359964291365374</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001367504624513517</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001498443822593314</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001742414036071315</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001878346768291295</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001888100602394201</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001888100602394201</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001888100602394201</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001888100602394201</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0019859791471175</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.001989645941890013</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001989645941890013</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.001989645941890013</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001989645941890013</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.001989645941890013</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.001989645941890013</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.001996087029401765</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.002002860731747965</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.002186076789668406</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.002540940570200506</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.002577917267395926</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.002577917267395926</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.002694135476117317</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.002694135476117317</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.002694135476117317</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.002694135476117317</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.002694135476117317</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.002694135476117317</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.002697415049872407</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.002751086151898004</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.002771774232932451</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.002830597816569163</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.002966530548789143</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.003099458305849044</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.003163834811743031</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.003281501444210389</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.003397902693171052</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.003663246082012963</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.003708881656155464</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.003708881656155464</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.003715253061392189</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.003715253061392189</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.003715253061392189</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.003715253061392189</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.003715253061392189</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.003715470262568867</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.00371770668103498</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.003727016822418255</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.003727016822418255</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.003804445875351103</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.003804445875351103</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.003804445875351103</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.00393817904568748</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.003997605687093223</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.003997605687093223</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.003997605687093223</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.004026736567838194</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.004026736567838194</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.004026736567838194</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.004026736567838194</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.004026736567838194</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.004035632496535535</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.004035632496535535</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.004035632496535535</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.004049079049487281</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.004049079049487281</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.004074671446758028</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.004478859404869572</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.004543748580402779</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.00454815347983363</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.004582660672298812</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0106190752975973</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1249569706281698</v>
+        <v>0.3093778021200364</v>
       </c>
       <c r="CO4">
-        <v>0.2223291407760905</v>
+        <v>0.5564085155866592</v>
       </c>
       <c r="CP4">
-        <v>0.3307138865204211</v>
+        <v>0.8439091777068101</v>
       </c>
       <c r="CQ4">
-        <v>0.3326708421487335</v>
+        <v>0.8439091777068101</v>
       </c>
       <c r="CR4">
-        <v>0.3330410334840522</v>
+        <v>0.8439091777068101</v>
       </c>
       <c r="CS4">
-        <v>0.3355095686202279</v>
+        <v>0.8439091777068101</v>
       </c>
       <c r="CT4">
-        <v>0.3820093009711831</v>
+        <v>0.9039895336027499</v>
       </c>
       <c r="CU4">
-        <v>0.3960339728925351</v>
+        <v>0.9039895336027499</v>
       </c>
       <c r="CV4">
-        <v>0.4416157399795236</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="CW4">
-        <v>0.4421570235373445</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="CX4">
-        <v>0.452260729224906</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="CY4">
-        <v>0.4541257013724132</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="CZ4">
-        <v>0.4558713883563258</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DA4">
-        <v>0.4679166658872021</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DB4">
-        <v>0.4726154220212829</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DC4">
-        <v>0.4749072478102609</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DD4">
-        <v>0.4867535094552314</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DE4">
-        <v>0.4902983050989223</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DF4">
-        <v>0.4926129426462453</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DG4">
-        <v>0.5074488679053607</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DH4">
-        <v>0.5156247667458871</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DI4">
-        <v>0.5156266889078782</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DJ4">
-        <v>0.5215400157893598</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DK4">
-        <v>0.5280068370954831</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DL4">
-        <v>0.528298496792611</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DM4">
-        <v>0.5283469251567096</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DN4">
-        <v>0.5306146239660972</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DO4">
-        <v>0.5320715319939194</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DP4">
-        <v>0.5347075477918849</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DQ4">
-        <v>0.5373927616788564</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DR4">
-        <v>0.5373927616788564</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DS4">
-        <v>0.5384482943890969</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DT4">
-        <v>0.5503436793614342</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DU4">
-        <v>0.5516498508191037</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DV4">
-        <v>0.5626965704414936</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DW4">
-        <v>0.5888079012226953</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DX4">
-        <v>0.5890524797121639</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DY4">
-        <v>0.5895766703846118</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="DZ4">
-        <v>0.5917297891838481</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="EA4">
-        <v>0.604712993235723</v>
+        <v>0.960696472737713</v>
       </c>
       <c r="EB4">
-        <v>0.6455589898248512</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.6571608795186887</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.6667931572265704</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.6708893989467359</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.6711859033490128</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.6715817644100912</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.67906293040512</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.6814400505709363</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.6816367247904899</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.6853247853683778</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.7044641052853386</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.7317900661805187</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.7474188179954624</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.7685431570345659</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.7848685726180964</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.7848685726180964</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.7892783626404357</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.7911337681155285</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.7962032229447802</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8053777521411418</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.820733417699482</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8303405330344128</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8364117584095867</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8406725678043907</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8414070124961179</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.842444854066878</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8426130277107023</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8426130277107023</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8450085222347471</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8498833234140851</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8540798859968303</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8732866423210039</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8901336848534688</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8943235865062159</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9019667593633443</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9086921586401164</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9105844907301561</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9185345520662948</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9285328116438313</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9468527902815012</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9595194567730921</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9678164679597236</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9745322267080341</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9761019939202301</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9766377553398797</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9766383688713217</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.976671048837003</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9777265815472435</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9780751861082647</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9782466627675925</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9798489956668205</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.983956075610994</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9873038181888261</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9888999387278909</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9889973975106626</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9890562210942994</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9895546624696494</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9902571697739775</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9911199008199697</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9916428804142361</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9918295187943565</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9918295187943565</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9918295187943565</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9921130853780211</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9923212149120006</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.993257078286455</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9969786859110877</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9991780749202237</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.999938313745908</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8967,769 +8967,769 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001283262918970326</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0006541169452212981</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0009155983293161348</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.001095572694728751</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.001200234167329006</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001200234167329006</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001200234167329006</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001228905308110469</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001228905308110469</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001233757944688828</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001233757944688828</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.00126831014577865</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001308670988508878</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001308670988508878</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001308670988508878</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001412096389315125</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001412096389315125</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.00144973651887545</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001633301101970708</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001981754143420851</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002398600770033079</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.002563911882444442</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.002766599586189589</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.002999824428458478</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003037464558018802</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.003037464558018802</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.003037464558018802</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.003037464558018802</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.003037464558018802</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.00312741812447158</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.003237403202262421</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.003321060679110314</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.003437130287254156</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.003597519943634928</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.003641998141691556</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.003666581691898264</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.003968300963575762</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.004356934343275799</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.004444863942729262</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.004472589354470377</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.004541861394034462</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.004541861394034462</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.004550561380560017</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.004602311609407673</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.004602311609407673</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.004605221303471749</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.004605221303471749</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.004614775710505915</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.004614775710505915</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.004637932590985497</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.004686231089699482</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.004776204979482953</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.005137649534531593</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.005394963331770688</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.005453882750942312</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.005582232716610537</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.005638482296142173</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.005638482296142173</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0056581509638023</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.005798944625984875</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.005864874942213765</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.005864874942213765</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.005909353140270393</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.005972978644342311</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.00599263537781363</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.006088776601980476</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.00628605913235577</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.006470391869138664</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.006647226410365571</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.00683757914641245</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.007141809001462372</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.007403290385557208</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.007479210220697268</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.007505442932952148</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.007534877743448483</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.007537787437512559</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.007537787437512559</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.007537787437512559</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.007537787437512559</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.007552837153794142</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.007593639657810362</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.007602339644335918</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.00775316445515443</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.007933955324922965</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.007954826951191207</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.007957998231398825</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.008289481993908405</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.008349877763620377</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.008402563407367898</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.04051899205438129</v>
+        <v>0.008447787672165422</v>
       </c>
       <c r="CO5">
-        <v>0.08691079300542554</v>
+        <v>0.07601396460007395</v>
       </c>
       <c r="CP5">
-        <v>0.2048327180669467</v>
+        <v>0.4398067919166904</v>
       </c>
       <c r="CQ5">
-        <v>0.3200814289729594</v>
+        <v>0.7925290767883516</v>
       </c>
       <c r="CR5">
-        <v>0.3241070730195957</v>
+        <v>0.7925290767883516</v>
       </c>
       <c r="CS5">
-        <v>0.3270211451333623</v>
+        <v>0.7925290767883516</v>
       </c>
       <c r="CT5">
-        <v>0.3279574264400872</v>
+        <v>0.7925290767883516</v>
       </c>
       <c r="CU5">
-        <v>0.3711016022807967</v>
+        <v>0.8466459116367346</v>
       </c>
       <c r="CV5">
-        <v>0.3935316165379736</v>
+        <v>0.8466459116367346</v>
       </c>
       <c r="CW5">
-        <v>0.4439168165482046</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="CX5">
-        <v>0.4439168165482046</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="CY5">
-        <v>0.4454340030468193</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="CZ5">
-        <v>0.4509353890373231</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DA5">
-        <v>0.4512406612003686</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DB5">
-        <v>0.4561463614404388</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DC5">
-        <v>0.4631491570593498</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DD5">
-        <v>0.4646717672590697</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DE5">
-        <v>0.4713609273403453</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DF5">
-        <v>0.4737274983546247</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DG5">
-        <v>0.4761533429747772</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DH5">
-        <v>0.4861933299593968</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DI5">
-        <v>0.4922064821939611</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DJ5">
-        <v>0.4926221604196524</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DK5">
-        <v>0.4986875679900571</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DL5">
-        <v>0.5042286299170156</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DM5">
-        <v>0.5049145326347002</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DN5">
-        <v>0.5049145326347002</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DO5">
-        <v>0.5093834653384722</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DP5">
-        <v>0.510614263305405</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DQ5">
-        <v>0.5118173911478807</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DR5">
-        <v>0.5128964155645739</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DS5">
-        <v>0.513576378442785</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DT5">
-        <v>0.5156586952763558</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DU5">
-        <v>0.5241481254823226</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DV5">
-        <v>0.5250534693230403</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DW5">
-        <v>0.5367672420872498</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DX5">
-        <v>0.5492436904685665</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DY5">
-        <v>0.5522697130375489</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="DZ5">
-        <v>0.5524608751457266</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="EA5">
-        <v>0.5541380289275408</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="EB5">
-        <v>0.5687026202906217</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="EC5">
-        <v>0.6001339931962617</v>
+        <v>0.9363606697354768</v>
       </c>
       <c r="ED5">
-        <v>0.6085564507047759</v>
+        <v>0.9363606697354768</v>
       </c>
       <c r="EE5">
-        <v>0.6187064816035297</v>
+        <v>0.9363606697354768</v>
       </c>
       <c r="EF5">
-        <v>0.6201963124576562</v>
+        <v>0.9363606697354768</v>
       </c>
       <c r="EG5">
-        <v>0.6203356737262752</v>
+        <v>0.9363606697354768</v>
       </c>
       <c r="EH5">
-        <v>0.6207053531424455</v>
+        <v>0.9363606697354768</v>
       </c>
       <c r="EI5">
-        <v>0.6263685600924956</v>
+        <v>0.9363606697354768</v>
       </c>
       <c r="EJ5">
-        <v>0.6278442632224127</v>
+        <v>0.9363606697354768</v>
       </c>
       <c r="EK5">
-        <v>0.6278577272223529</v>
+        <v>0.9363606697354768</v>
       </c>
       <c r="EL5">
-        <v>0.6416235133828592</v>
+        <v>0.9363606697354768</v>
       </c>
       <c r="EM5">
-        <v>0.676424443357985</v>
+        <v>0.9559257432544079</v>
       </c>
       <c r="EN5">
-        <v>0.7171436285466408</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.7344706290107007</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.7593431725731314</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.7730793273977373</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.7736892744556467</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.7771508980258205</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.7796101422243091</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.7858055067610488</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.8036202450929719</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.8288173099146577</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.8474505809230651</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.860450115322638</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.869457205638879</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8708728115965608</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8713103190455432</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8713162299789409</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8713778494418732</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8727658992301999</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8755909197451868</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8818972032227813</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.899446635820333</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9162564998058376</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9201686414611813</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9319371828931686</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.939537581035479</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9410317722772589</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9453701110297508</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9513462775108936</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9647750745603589</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9708450136516952</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9746889796610094</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9776106527606427</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9776669023401744</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9795265974494586</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9796788549246845</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9796788549246845</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9802845436930945</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9807636503718157</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9807636503718157</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.981714718305996</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9843935698354478</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9873303679670582</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9884859372094603</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9885267397134765</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9885315831172841</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9885794122433591</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9885794122433591</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9885794122433591</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.988676772751005</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.990497852629159</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9910249977030707</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9920445284280689</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9927386395644766</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.993082812498439</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9943951955974678</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9978717302328647</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9997266506634996</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.825603986604907E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002679047804722013</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0005667884980017947</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0005667884980017947</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0005667884980017947</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0005667884980017947</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0005667884980017947</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0005667884980017947</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0006041859842046287</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0006349808928872871</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0006349808928872871</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0006349808928872871</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0006349808928872871</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0006349808928872871</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0007239799901811605</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0009164781518410856</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.000982981701409846</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.00126870229939469</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001886106863402514</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002150152067699237</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.002310824933330729</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.002311320461883148</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.00238030240031614</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.002427159547952629</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.002427159547952629</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.002427159547952629</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.002427159547952629</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.002427159547952629</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.002427159547952629</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.002427159547952629</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.002427159547952629</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.002432424547069818</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.002432424547069818</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.002432424547069818</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.002483608792688886</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.002674408328495974</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.002780151673149264</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.002820850341526167</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.002886714029846487</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.002921304050465352</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.003008260441935624</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.003008260441935624</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.003008260441935624</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.003078305570830555</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.003078305570830555</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.003078305570830555</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1588447748831329</v>
+        <v>0.416559606189525</v>
       </c>
       <c r="CO6">
-        <v>0.1719918453396126</v>
+        <v>0.416559606189525</v>
       </c>
       <c r="CP6">
-        <v>0.3380472153117826</v>
+        <v>0.8672941359289932</v>
       </c>
       <c r="CQ6">
-        <v>0.3556545523227218</v>
+        <v>0.8672941359289932</v>
       </c>
       <c r="CR6">
-        <v>0.3558690158630983</v>
+        <v>0.8672941359289932</v>
       </c>
       <c r="CS6">
-        <v>0.3628458430088322</v>
+        <v>0.8672941359289932</v>
       </c>
       <c r="CT6">
-        <v>0.3786577842129191</v>
+        <v>0.8672941359289932</v>
       </c>
       <c r="CU6">
-        <v>0.436651040843998</v>
+        <v>0.9590967851730174</v>
       </c>
       <c r="CV6">
-        <v>0.4687405146088288</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="CW6">
-        <v>0.4688040564273157</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="CX6">
-        <v>0.4715520327251956</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="CY6">
-        <v>0.4776427475632146</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="CZ6">
-        <v>0.4840165118266994</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DA6">
-        <v>0.4899140296591375</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DB6">
-        <v>0.5019336311786109</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DC6">
-        <v>0.5019988562238087</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DD6">
-        <v>0.5099217043285749</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DE6">
-        <v>0.5115339707630067</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DF6">
-        <v>0.5145319331987911</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DG6">
-        <v>0.5270777417722079</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DH6">
-        <v>0.5324377254007091</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DI6">
-        <v>0.5342124675017699</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DJ6">
-        <v>0.5346722366732832</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DK6">
-        <v>0.5453663212666777</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DL6">
-        <v>0.5453663212666777</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DM6">
-        <v>0.5479349990712958</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DN6">
-        <v>0.5480069918211345</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DO6">
-        <v>0.5498207780050471</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DP6">
-        <v>0.5498207780050471</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DQ6">
-        <v>0.555107868571911</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DR6">
-        <v>0.5564391612674602</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DS6">
-        <v>0.5564391612674602</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DT6">
-        <v>0.5706550042479493</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DU6">
-        <v>0.5824071611441712</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DV6">
-        <v>0.5872378412426172</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DW6">
-        <v>0.6108192210662223</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DX6">
-        <v>0.6113752980144711</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DY6">
-        <v>0.6114724785936613</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="DZ6">
-        <v>0.6149202882353577</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="EA6">
-        <v>0.6174941187126558</v>
+        <v>0.9648591636074141</v>
       </c>
       <c r="EB6">
-        <v>0.6584284413922226</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC6">
-        <v>0.6812401676345403</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED6">
-        <v>0.6933056716918883</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE6">
-        <v>0.7053409504920687</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF6">
-        <v>0.7070578816561723</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG6">
-        <v>0.7070578816561723</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH6">
-        <v>0.7104579169064832</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI6">
-        <v>0.7159289682420918</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ6">
-        <v>0.7170953619109868</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK6">
-        <v>0.7184493674780779</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL6">
-        <v>0.7363474406951372</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM6">
-        <v>0.7661877058382415</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN6">
-        <v>0.7871092741972648</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO6">
-        <v>0.8066099829137413</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP6">
-        <v>0.8233080924593357</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ6">
-        <v>0.8233317013995376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER6">
-        <v>0.8292253587878855</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES6">
-        <v>0.8307091800352373</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET6">
-        <v>0.8309276254973122</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU6">
-        <v>0.8342894282411715</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV6">
-        <v>0.8490402152838303</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW6">
-        <v>0.8611057193411783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX6">
-        <v>0.8695480037499322</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY6">
-        <v>0.8733232758914892</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ6">
-        <v>0.87509586079304</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA6">
-        <v>0.876309040750171</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB6">
-        <v>0.8770364302291479</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC6">
-        <v>0.8770450231584543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD6">
-        <v>0.8781495007045007</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE6">
-        <v>0.8822385451331329</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF6">
-        <v>0.8830883756869387</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG6">
-        <v>0.8951436789547356</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH6">
-        <v>0.9114499376910479</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI6">
-        <v>0.9189309192434368</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ6">
-        <v>0.9227081932734478</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK6">
-        <v>0.9290624975691738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL6">
-        <v>0.9294084172806039</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM6">
-        <v>0.937876062056096</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN6">
-        <v>0.9434367727386297</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO6">
-        <v>0.9532551425411978</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP6">
-        <v>0.9642273587826614</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ6">
-        <v>0.9694391762728435</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR6">
-        <v>0.9737964809615471</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS6">
-        <v>0.9764757157739768</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT6">
-        <v>0.9766703442044126</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU6">
-        <v>0.9768431974867976</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV6">
-        <v>0.9769499075361882</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW6">
-        <v>0.9770592293998364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX6">
-        <v>0.9774158765677139</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY6">
-        <v>0.9776667524298726</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ6">
-        <v>0.9783503202954995</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA6">
-        <v>0.9815302316635464</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB6">
-        <v>0.983879952652051</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC6">
-        <v>0.9852915235007035</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD6">
-        <v>0.9861879753881924</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE6">
-        <v>0.9867523702078372</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF6">
-        <v>0.9873193348976036</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG6">
-        <v>0.9880360128166764</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH6">
-        <v>0.9882850271996966</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI6">
-        <v>0.9891495001956284</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ6">
-        <v>0.989347428732227</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK6">
-        <v>0.9895201629225004</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL6">
-        <v>0.9895201629225004</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM6">
-        <v>0.9899291374608976</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN6">
-        <v>0.9906300271787464</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO6">
-        <v>0.9912399207985777</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP6">
-        <v>0.994985769108318</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ6">
-        <v>0.9985032610347238</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.06605474299782992</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5015045726368995</v>
+        <v>0.6719841885854506</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.0115979664083281</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5024821621549612</v>
+        <v>0.9229594188627044</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>0.004582660672298812</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5074488679053607</v>
+        <v>0.5564085155866592</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.008402563407367898</v>
+        <v>0.008447787672165422</v>
       </c>
       <c r="F5">
-        <v>0.5042286299170156</v>
+        <v>0.7925290767883516</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.003078305570830555</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5019336311786109</v>
+        <v>0.8672941359289932</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.06605474299782992</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7280236660904587</v>
+        <v>0.8130842870267052</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.0115979664083281</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7214987449483377</v>
+        <v>0.9229594188627044</v>
       </c>
       <c r="G3">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.004582660672298812</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7044641052853386</v>
+        <v>0.8439091777068101</v>
       </c>
       <c r="G4">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.008402563407367898</v>
+        <v>0.008447787672165422</v>
       </c>
       <c r="F5">
-        <v>0.7171436285466408</v>
+        <v>0.7925290767883516</v>
       </c>
       <c r="G5">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.003078305570830555</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7053409504920687</v>
+        <v>0.8672941359289932</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.06605474299782992</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8009261825242179</v>
+        <v>0.8130842870267052</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.0115979664083281</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8083052465398555</v>
+        <v>0.9229594188627044</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.004582660672298812</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8053777521411418</v>
+        <v>0.8439091777068101</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.008402563407367898</v>
+        <v>0.008447787672165422</v>
       </c>
       <c r="F5">
-        <v>0.8036202450929719</v>
+        <v>0.8466459116367346</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.003078305570830555</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8066099829137413</v>
+        <v>0.8672941359289932</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>0.06605474299782992</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9007598275413271</v>
+        <v>0.9294172037092816</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.0115979664083281</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9014904385402464</v>
+        <v>0.9229594188627044</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>0.004582660672298812</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9019667593633443</v>
+        <v>0.9039895336027499</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.008402563407367898</v>
+        <v>0.008447787672165422</v>
       </c>
       <c r="F5">
-        <v>0.9162564998058376</v>
+        <v>0.9307498933242335</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.003078305570830555</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9114499376910479</v>
+        <v>0.9590967851730174</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>18</v>

--- a/on_trucks/Processed_Stand_Alone/18_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/18_245-70R19.xlsx
@@ -677,34 +677,34 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1298843247309374</v>
+        <v>0.1237204684060884</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5530995490636007</v>
+        <v>0.4456220838801876</v>
       </c>
       <c r="H2">
-        <v>0.1715611712373456</v>
+        <v>0.1554202831739369</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01685728373759012</v>
       </c>
       <c r="K2">
-        <v>0.002785479594303489</v>
+        <v>0.02704785073528512</v>
       </c>
       <c r="L2">
-        <v>0.07350108595635516</v>
+        <v>0.08083482865667004</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01669810175818519</v>
       </c>
       <c r="N2">
-        <v>0.06846780416819621</v>
+        <v>0.07700646557899593</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.007509608052988468</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0007005852492615125</v>
+        <v>0.02546205982046139</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.02382096619961072</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -787,37 +787,37 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3477259025743924</v>
+        <v>0.2787814649009919</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4855303309980244</v>
+        <v>0.379346472336011</v>
       </c>
       <c r="H3">
-        <v>0.04004124997900309</v>
+        <v>0.05424362000115154</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00582739201085851</v>
       </c>
       <c r="K3">
-        <v>0.0616690680687996</v>
+        <v>0.07002686958089174</v>
       </c>
       <c r="L3">
-        <v>0.01780420912696236</v>
+        <v>0.03801578027060478</v>
       </c>
       <c r="M3">
-        <v>0.03528082070957431</v>
+        <v>0.05076961985217018</v>
       </c>
       <c r="N3">
-        <v>0.01194841854324369</v>
+        <v>0.03374242251043722</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.01687755034502457</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -826,28 +826,28 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.01748273514782861</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.005656569561145065</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.01183638337962496</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.007449212475846418</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.01427905087743306</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.01566485674998008</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -894,16 +894,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.001714494602450862</v>
       </c>
       <c r="E4">
-        <v>0.2960155349943847</v>
+        <v>0.2551265672837331</v>
       </c>
       <c r="F4">
-        <v>0.2449547598587216</v>
+        <v>0.2154288682764892</v>
       </c>
       <c r="G4">
-        <v>0.2780986803300826</v>
+        <v>0.2411969333968549</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.09184688624952142</v>
+        <v>0.09639365453309245</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.02040602887623578</v>
       </c>
       <c r="M4">
-        <v>0.08908413856728971</v>
+        <v>0.09424572932767201</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.01123145274165671</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.01577449076726763</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.01530881820383216</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.02230426136995108</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.006720623105210893</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.001426484502504124</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.002721593013048926</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1007,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05275051694014894</v>
+        <v>0.06703230525802782</v>
       </c>
       <c r="F5">
-        <v>0.09714453584964632</v>
+        <v>0.1023731790348799</v>
       </c>
       <c r="G5">
-        <v>0.3195912514048377</v>
+        <v>0.2794569729697763</v>
       </c>
       <c r="H5">
-        <v>0.3112780027384426</v>
+        <v>0.2728390212949439</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08704496524030753</v>
+        <v>0.09433318493493846</v>
       </c>
       <c r="M5">
-        <v>0.02262738919053442</v>
+        <v>0.04305210067836614</v>
       </c>
       <c r="N5">
-        <v>0.1095633386360823</v>
+        <v>0.1122594509362769</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.001142684794423614</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1052,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.004859654624338767</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.004083201743710534</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1067,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.01237868771192732</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.00240964062922797</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.002539006728323168</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.00124090866083899</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1117,31 +1117,31 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4015963011722086</v>
+        <v>0.337741437284348</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.01726272788531873</v>
       </c>
       <c r="G6">
-        <v>0.4312854358379098</v>
+        <v>0.3608615291586841</v>
       </c>
       <c r="H6">
-        <v>0.002931252320977389</v>
+        <v>0.0272853508974509</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.003397632191675581</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.02325093387103951</v>
       </c>
       <c r="L6">
-        <v>0.1194668323443476</v>
+        <v>0.1180361709232703</v>
       </c>
       <c r="M6">
-        <v>0.04472017832455651</v>
+        <v>0.05982802414850919</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.001406457561595064</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.002042495262617118</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.0009723263879604468</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.01472920304425142</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.005523426988508213</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.01591163796458753</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01175064643018398</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1350,100 +1350,100 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1298843247309374</v>
+        <v>0.1237204684060884</v>
       </c>
       <c r="F2">
-        <v>0.1298843247309374</v>
+        <v>0.1237204684060884</v>
       </c>
       <c r="G2">
-        <v>0.6829838737945382</v>
+        <v>0.5693425522862761</v>
       </c>
       <c r="H2">
-        <v>0.8545450450318838</v>
+        <v>0.7247628354602129</v>
       </c>
       <c r="I2">
-        <v>0.8545450450318838</v>
+        <v>0.7247628354602129</v>
       </c>
       <c r="J2">
-        <v>0.8545450450318838</v>
+        <v>0.741620119197803</v>
       </c>
       <c r="K2">
-        <v>0.8573305246261873</v>
+        <v>0.7686679699330882</v>
       </c>
       <c r="L2">
-        <v>0.9308316105825425</v>
+        <v>0.8495027985897582</v>
       </c>
       <c r="M2">
-        <v>0.9308316105825425</v>
+        <v>0.8662009003479434</v>
       </c>
       <c r="N2">
-        <v>0.9992994147507387</v>
+        <v>0.9432073659269393</v>
       </c>
       <c r="O2">
-        <v>0.9992994147507387</v>
+        <v>0.9432073659269393</v>
       </c>
       <c r="P2">
-        <v>0.9992994147507387</v>
+        <v>0.9432073659269393</v>
       </c>
       <c r="Q2">
-        <v>0.9992994147507387</v>
+        <v>0.9432073659269393</v>
       </c>
       <c r="R2">
-        <v>0.9992994147507387</v>
+        <v>0.9507169739799278</v>
       </c>
       <c r="S2">
-        <v>0.9992994147507387</v>
+        <v>0.9507169739799278</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.9761790338003892</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.9761790338003892</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.9761790338003892</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.9761790338003892</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9761790338003892</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9761790338003892</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9761790338003892</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9761790338003892</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1460,100 +1460,100 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3477259025743924</v>
+        <v>0.2787814649009919</v>
       </c>
       <c r="F3">
-        <v>0.3477259025743924</v>
+        <v>0.2787814649009919</v>
       </c>
       <c r="G3">
-        <v>0.8332562335724167</v>
+        <v>0.6581279372370029</v>
       </c>
       <c r="H3">
-        <v>0.8732974835514198</v>
+        <v>0.7123715572381545</v>
       </c>
       <c r="I3">
-        <v>0.8732974835514198</v>
+        <v>0.7123715572381545</v>
       </c>
       <c r="J3">
-        <v>0.8732974835514198</v>
+        <v>0.718198949249013</v>
       </c>
       <c r="K3">
-        <v>0.9349665516202194</v>
+        <v>0.7882258188299047</v>
       </c>
       <c r="L3">
-        <v>0.9527707607471817</v>
+        <v>0.8262415991005095</v>
       </c>
       <c r="M3">
-        <v>0.988051581456756</v>
+        <v>0.8770112189526797</v>
       </c>
       <c r="N3">
-        <v>0.9999999999999997</v>
+        <v>0.910753641463117</v>
       </c>
       <c r="O3">
-        <v>0.9999999999999997</v>
+        <v>0.9276311918081416</v>
       </c>
       <c r="P3">
-        <v>0.9999999999999997</v>
+        <v>0.9276311918081416</v>
       </c>
       <c r="Q3">
-        <v>0.9999999999999997</v>
+        <v>0.9276311918081416</v>
       </c>
       <c r="R3">
-        <v>0.9999999999999997</v>
+        <v>0.9451139269559702</v>
       </c>
       <c r="S3">
-        <v>0.9999999999999997</v>
+        <v>0.9451139269559702</v>
       </c>
       <c r="T3">
-        <v>0.9999999999999997</v>
+        <v>0.9507704965171152</v>
       </c>
       <c r="U3">
-        <v>0.9999999999999997</v>
+        <v>0.9507704965171152</v>
       </c>
       <c r="V3">
-        <v>0.9999999999999997</v>
+        <v>0.9626068798967402</v>
       </c>
       <c r="W3">
-        <v>0.9999999999999997</v>
+        <v>0.9626068798967402</v>
       </c>
       <c r="X3">
-        <v>0.9999999999999997</v>
+        <v>0.9700560923725866</v>
       </c>
       <c r="Y3">
-        <v>0.9999999999999997</v>
+        <v>0.9843351432500197</v>
       </c>
       <c r="Z3">
-        <v>0.9999999999999997</v>
+        <v>0.9843351432500197</v>
       </c>
       <c r="AA3">
-        <v>0.9999999999999997</v>
+        <v>0.9843351432500197</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,76 +1567,76 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.001714494602450862</v>
       </c>
       <c r="E4">
-        <v>0.2960155349943847</v>
+        <v>0.256841061886184</v>
       </c>
       <c r="F4">
-        <v>0.5409702948531063</v>
+        <v>0.4722699301626732</v>
       </c>
       <c r="G4">
-        <v>0.8190689751831889</v>
+        <v>0.713466863559528</v>
       </c>
       <c r="H4">
-        <v>0.8190689751831889</v>
+        <v>0.713466863559528</v>
       </c>
       <c r="I4">
-        <v>0.8190689751831889</v>
+        <v>0.713466863559528</v>
       </c>
       <c r="J4">
-        <v>0.8190689751831889</v>
+        <v>0.713466863559528</v>
       </c>
       <c r="K4">
-        <v>0.9109158614327103</v>
+        <v>0.8098605180926205</v>
       </c>
       <c r="L4">
-        <v>0.9109158614327103</v>
+        <v>0.8302665469688563</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.9245122762965283</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.9245122762965283</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.935743729038185</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.935743729038185</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.935743729038185</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.9515182198054527</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.9515182198054527</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.9515182198054527</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.9668270380092848</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9668270380092848</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9668270380092848</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9891312993792359</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9958519224844469</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9958519224844469</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.997278406986951</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -1680,76 +1680,76 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05275051694014894</v>
+        <v>0.06703230525802782</v>
       </c>
       <c r="F5">
-        <v>0.1498950527897953</v>
+        <v>0.1694054842929077</v>
       </c>
       <c r="G5">
-        <v>0.4694863041946329</v>
+        <v>0.448862457262684</v>
       </c>
       <c r="H5">
-        <v>0.7807643069330756</v>
+        <v>0.7217014785576279</v>
       </c>
       <c r="I5">
-        <v>0.7807643069330756</v>
+        <v>0.7217014785576279</v>
       </c>
       <c r="J5">
-        <v>0.7807643069330756</v>
+        <v>0.7217014785576279</v>
       </c>
       <c r="K5">
-        <v>0.7807643069330756</v>
+        <v>0.7217014785576279</v>
       </c>
       <c r="L5">
-        <v>0.8678092721733832</v>
+        <v>0.8160346634925664</v>
       </c>
       <c r="M5">
-        <v>0.8904366613639176</v>
+        <v>0.8590867641709325</v>
       </c>
       <c r="N5">
-        <v>0.9999999999999999</v>
+        <v>0.9713462151072094</v>
       </c>
       <c r="O5">
-        <v>0.9999999999999999</v>
+        <v>0.9713462151072094</v>
       </c>
       <c r="P5">
-        <v>0.9999999999999999</v>
+        <v>0.9713462151072094</v>
       </c>
       <c r="Q5">
-        <v>0.9999999999999999</v>
+        <v>0.972488899901633</v>
       </c>
       <c r="R5">
-        <v>0.9999999999999999</v>
+        <v>0.972488899901633</v>
       </c>
       <c r="S5">
-        <v>0.9999999999999999</v>
+        <v>0.972488899901633</v>
       </c>
       <c r="T5">
-        <v>0.9999999999999999</v>
+        <v>0.9773485545259718</v>
       </c>
       <c r="U5">
-        <v>0.9999999999999999</v>
+        <v>0.9773485545259718</v>
       </c>
       <c r="V5">
-        <v>0.9999999999999999</v>
+        <v>0.9814317562696824</v>
       </c>
       <c r="W5">
-        <v>0.9999999999999999</v>
+        <v>0.9814317562696824</v>
       </c>
       <c r="X5">
-        <v>0.9999999999999999</v>
+        <v>0.9814317562696824</v>
       </c>
       <c r="Y5">
-        <v>0.9999999999999999</v>
+        <v>0.9938104439816097</v>
       </c>
       <c r="Z5">
-        <v>0.9999999999999999</v>
+        <v>0.9962200846108377</v>
       </c>
       <c r="AA5">
-        <v>0.9999999999999999</v>
+        <v>0.9962200846108377</v>
       </c>
       <c r="AB5">
-        <v>0.9999999999999999</v>
+        <v>0.9987590913391609</v>
       </c>
       <c r="AC5">
         <v>0.9999999999999999</v>
@@ -1790,73 +1790,73 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4015963011722086</v>
+        <v>0.337741437284348</v>
       </c>
       <c r="F6">
-        <v>0.4015963011722086</v>
+        <v>0.3550041651696668</v>
       </c>
       <c r="G6">
-        <v>0.8328817370101184</v>
+        <v>0.7158656943283508</v>
       </c>
       <c r="H6">
-        <v>0.8358129893310957</v>
+        <v>0.7431510452258017</v>
       </c>
       <c r="I6">
-        <v>0.8358129893310957</v>
+        <v>0.7431510452258017</v>
       </c>
       <c r="J6">
-        <v>0.8358129893310957</v>
+        <v>0.7465486774174772</v>
       </c>
       <c r="K6">
-        <v>0.8358129893310957</v>
+        <v>0.7697996112885167</v>
       </c>
       <c r="L6">
-        <v>0.9552798216754433</v>
+        <v>0.8878357822117871</v>
       </c>
       <c r="M6">
-        <v>0.9999999999999999</v>
+        <v>0.9476638063602962</v>
       </c>
       <c r="N6">
-        <v>0.9999999999999999</v>
+        <v>0.9476638063602962</v>
       </c>
       <c r="O6">
-        <v>0.9999999999999999</v>
+        <v>0.9476638063602962</v>
       </c>
       <c r="P6">
-        <v>0.9999999999999999</v>
+        <v>0.9490702639218913</v>
       </c>
       <c r="Q6">
-        <v>0.9999999999999999</v>
+        <v>0.9511127591845084</v>
       </c>
       <c r="R6">
-        <v>0.9999999999999999</v>
+        <v>0.9520850855724688</v>
       </c>
       <c r="S6">
-        <v>0.9999999999999999</v>
+        <v>0.9668142886167203</v>
       </c>
       <c r="T6">
-        <v>0.9999999999999999</v>
+        <v>0.9668142886167203</v>
       </c>
       <c r="U6">
-        <v>0.9999999999999999</v>
+        <v>0.9723377156052284</v>
       </c>
       <c r="V6">
-        <v>0.9999999999999999</v>
+        <v>0.9723377156052284</v>
       </c>
       <c r="W6">
-        <v>0.9999999999999999</v>
+        <v>0.9723377156052284</v>
       </c>
       <c r="X6">
-        <v>0.9999999999999999</v>
+        <v>0.9882493535698159</v>
       </c>
       <c r="Y6">
-        <v>0.9999999999999999</v>
+        <v>0.9882493535698159</v>
       </c>
       <c r="Z6">
-        <v>0.9999999999999999</v>
+        <v>0.9882493535698159</v>
       </c>
       <c r="AA6">
-        <v>0.9999999999999999</v>
+        <v>0.9882493535698159</v>
       </c>
       <c r="AB6">
         <v>0.9999999999999999</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6829838737945382</v>
+        <v>0.5693425522862761</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8332562335724167</v>
+        <v>0.6581279372370029</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2033,16 +2033,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5409702948531063</v>
+        <v>0.713466863559528</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7807643069330756</v>
+        <v>0.7217014785576279</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8328817370101184</v>
+        <v>0.7158656943283508</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8545450450318838</v>
+        <v>0.7247628354602129</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -2251,16 +2251,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8332562335724167</v>
+        <v>0.7123715572381545</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8190689751831889</v>
+        <v>0.713466863559528</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7807643069330756</v>
+        <v>0.7217014785576279</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8328817370101184</v>
+        <v>0.7158656943283508</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2469,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8545450450318838</v>
+        <v>0.8495027985897582</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8332562335724167</v>
+        <v>0.8262415991005095</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -2551,16 +2551,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8190689751831889</v>
+        <v>0.8098605180926205</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8678092721733832</v>
+        <v>0.8160346634925664</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -2633,16 +2633,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8328817370101184</v>
+        <v>0.8878357822117871</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -2728,16 +2728,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9432073659269393</v>
+      </c>
+      <c r="G2">
         <v>11</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9308316105825425</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9349665516202194</v>
+        <v>0.910753641463117</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -2810,16 +2810,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9245122762965283</v>
+      </c>
+      <c r="G4">
         <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9109158614327103</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999999999</v>
+        <v>0.9713462151072094</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9552798216754433</v>
+        <v>0.9476638063602962</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>18</v>
